--- a/master_schedule.xlsx
+++ b/master_schedule.xlsx
@@ -48,14 +48,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002dc126"/>
-        <bgColor rgb="002dc126"/>
+        <fgColor rgb="0082e4b2"/>
+        <bgColor rgb="0082e4b2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0082e4b2"/>
-        <bgColor rgb="0082e4b2"/>
+        <fgColor rgb="00a72b8a"/>
+        <bgColor rgb="00a72b8a"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ba546d"/>
+        <bgColor rgb="00ba546d"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00733f84"/>
+        <bgColor rgb="00733f84"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0048eab1"/>
+        <bgColor rgb="0048eab1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00158c24"/>
+        <bgColor rgb="00158c24"/>
       </patternFill>
     </fill>
     <fill>
@@ -66,20 +90,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ed328e"/>
-        <bgColor rgb="00ed328e"/>
+        <fgColor rgb="00fa4dc0"/>
+        <bgColor rgb="00fa4dc0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0001edf5"/>
-        <bgColor rgb="0001edf5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0048eab1"/>
-        <bgColor rgb="0048eab1"/>
+        <fgColor rgb="00f94ab2"/>
+        <bgColor rgb="00f94ab2"/>
       </patternFill>
     </fill>
     <fill>
@@ -90,20 +108,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00fa4dc0"/>
-        <bgColor rgb="00fa4dc0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00477dcf"/>
-        <bgColor rgb="00477dcf"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0001994d"/>
-        <bgColor rgb="0001994d"/>
+        <fgColor rgb="0001edf5"/>
+        <bgColor rgb="0001edf5"/>
       </patternFill>
     </fill>
     <fill>
@@ -120,32 +126,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00a72b8a"/>
-        <bgColor rgb="00a72b8a"/>
+        <fgColor rgb="00f6a4e7"/>
+        <bgColor rgb="00f6a4e7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00733f84"/>
-        <bgColor rgb="00733f84"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00158c24"/>
-        <bgColor rgb="00158c24"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ba546d"/>
-        <bgColor rgb="00ba546d"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00f94ab2"/>
-        <bgColor rgb="00f94ab2"/>
+        <fgColor rgb="00ed328e"/>
+        <bgColor rgb="00ed328e"/>
       </patternFill>
     </fill>
     <fill>
@@ -156,14 +144,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="004b7763"/>
+        <bgColor rgb="004b7763"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00425c28"/>
+        <bgColor rgb="00425c28"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="0027436a"/>
         <bgColor rgb="0027436a"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004b7763"/>
-        <bgColor rgb="004b7763"/>
+        <fgColor rgb="0010f0b6"/>
+        <bgColor rgb="0010f0b6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00af485e"/>
+        <bgColor rgb="00af485e"/>
       </patternFill>
     </fill>
     <fill>
@@ -174,26 +180,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00425c28"/>
-        <bgColor rgb="00425c28"/>
+        <fgColor rgb="00a1135f"/>
+        <bgColor rgb="00a1135f"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00af485e"/>
-        <bgColor rgb="00af485e"/>
+        <fgColor rgb="00477dcf"/>
+        <bgColor rgb="00477dcf"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00f6a4e7"/>
-        <bgColor rgb="00f6a4e7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0010f0b6"/>
-        <bgColor rgb="0010f0b6"/>
+        <fgColor rgb="0001994d"/>
+        <bgColor rgb="0001994d"/>
       </patternFill>
     </fill>
     <fill>
@@ -238,25 +238,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -271,31 +271,31 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -304,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1230,222 +1230,222 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>إستعاضة سنية متحركة 1/ عملي</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>8:00 - 11:00</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="n"/>
-      <c r="D21" s="2" t="n"/>
-      <c r="E21" s="2" t="n"/>
-      <c r="F21" s="2" t="n"/>
-      <c r="G21" s="2" t="n"/>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>14:00 - 17:00</t>
-        </is>
-      </c>
-      <c r="O21" s="2" t="n"/>
-      <c r="P21" s="2" t="n"/>
-      <c r="Q21" s="2" t="n"/>
-      <c r="R21" s="2" t="n"/>
-      <c r="S21" s="2" t="n"/>
+          <t>عيادة طب الأسنان التحفظي 5</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>10:00 - 12:00</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="n"/>
+      <c r="H21" s="3" t="n"/>
+      <c r="I21" s="3" t="n"/>
+      <c r="J21" s="3" t="inlineStr">
+        <is>
+          <t>12:00 - 14:00</t>
+        </is>
+      </c>
+      <c r="K21" s="3" t="n"/>
+      <c r="L21" s="3" t="n"/>
+      <c r="M21" s="3" t="n"/>
+      <c r="N21" s="3" t="inlineStr">
+        <is>
+          <t>14:00 - 16:00</t>
+        </is>
+      </c>
+      <c r="O21" s="3" t="n"/>
+      <c r="P21" s="3" t="n"/>
+      <c r="Q21" s="3" t="n"/>
     </row>
     <row r="22">
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>ساري دار ديك</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n"/>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-      <c r="F22" s="2" t="n"/>
-      <c r="G22" s="2" t="n"/>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>لم يحدد</t>
-        </is>
-      </c>
-      <c r="O22" s="2" t="n"/>
-      <c r="P22" s="2" t="n"/>
-      <c r="Q22" s="2" t="n"/>
-      <c r="R22" s="2" t="n"/>
-      <c r="S22" s="2" t="n"/>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>عبد الرحمن مصطفى</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="n"/>
+      <c r="H22" s="3" t="n"/>
+      <c r="I22" s="3" t="n"/>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>عبد الرحمن مصطفى</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="n"/>
+      <c r="L22" s="3" t="n"/>
+      <c r="M22" s="3" t="n"/>
+      <c r="N22" s="3" t="inlineStr">
+        <is>
+          <t>عبد الرحمن مصطفى</t>
+        </is>
+      </c>
+      <c r="O22" s="3" t="n"/>
+      <c r="P22" s="3" t="n"/>
+      <c r="Q22" s="3" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" s="2" t="inlineStr"/>
-      <c r="C23" s="2" t="n"/>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-      <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="n"/>
-      <c r="N23" s="2" t="inlineStr"/>
-      <c r="O23" s="2" t="n"/>
-      <c r="P23" s="2" t="n"/>
-      <c r="Q23" s="2" t="n"/>
-      <c r="R23" s="2" t="n"/>
-      <c r="S23" s="2" t="n"/>
+      <c r="F23" s="3" t="inlineStr"/>
+      <c r="G23" s="3" t="n"/>
+      <c r="H23" s="3" t="n"/>
+      <c r="I23" s="3" t="n"/>
+      <c r="J23" s="3" t="inlineStr"/>
+      <c r="K23" s="3" t="n"/>
+      <c r="L23" s="3" t="n"/>
+      <c r="M23" s="3" t="n"/>
+      <c r="N23" s="3" t="inlineStr"/>
+      <c r="O23" s="3" t="n"/>
+      <c r="P23" s="3" t="n"/>
+      <c r="Q23" s="3" t="n"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>عيادة جراحة الفم 1 التسجيل من خلال القسم</t>
-        </is>
-      </c>
-      <c r="H24" s="3" t="inlineStr">
-        <is>
-          <t>11:00 - 13:00</t>
-        </is>
-      </c>
-      <c r="I24" s="3" t="n"/>
-      <c r="J24" s="3" t="n"/>
-      <c r="K24" s="3" t="n"/>
-      <c r="L24" s="3" t="inlineStr">
-        <is>
-          <t>13:00 - 15:00</t>
-        </is>
-      </c>
-      <c r="M24" s="3" t="n"/>
-      <c r="N24" s="3" t="n"/>
-      <c r="O24" s="3" t="n"/>
-      <c r="P24" s="3" t="inlineStr">
-        <is>
-          <t>15:00 - 17:00</t>
-        </is>
-      </c>
-      <c r="Q24" s="3" t="n"/>
-      <c r="R24" s="3" t="n"/>
-      <c r="S24" s="3" t="n"/>
+          <t>إستعاضة سنية متحركة 1/ عملي</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>8:00 - 11:00</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n"/>
+      <c r="D24" s="2" t="n"/>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
+      <c r="G24" s="2" t="n"/>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>14:00 - 17:00</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="n"/>
+      <c r="P24" s="2" t="n"/>
+      <c r="Q24" s="2" t="n"/>
+      <c r="R24" s="2" t="n"/>
+      <c r="S24" s="2" t="n"/>
     </row>
     <row r="25">
-      <c r="H25" s="3" t="inlineStr">
-        <is>
-          <t>علي الشواهين</t>
-        </is>
-      </c>
-      <c r="I25" s="3" t="n"/>
-      <c r="J25" s="3" t="n"/>
-      <c r="K25" s="3" t="n"/>
-      <c r="L25" s="3" t="inlineStr">
-        <is>
-          <t>علي الشواهين</t>
-        </is>
-      </c>
-      <c r="M25" s="3" t="n"/>
-      <c r="N25" s="3" t="n"/>
-      <c r="O25" s="3" t="n"/>
-      <c r="P25" s="3" t="inlineStr">
-        <is>
-          <t>علي الشواهين</t>
-        </is>
-      </c>
-      <c r="Q25" s="3" t="n"/>
-      <c r="R25" s="3" t="n"/>
-      <c r="S25" s="3" t="n"/>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>ساري دار ديك</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n"/>
+      <c r="D25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
+      <c r="G25" s="2" t="n"/>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>لم يحدد</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="n"/>
+      <c r="P25" s="2" t="n"/>
+      <c r="Q25" s="2" t="n"/>
+      <c r="R25" s="2" t="n"/>
+      <c r="S25" s="2" t="n"/>
     </row>
     <row r="26">
-      <c r="H26" s="3" t="inlineStr"/>
-      <c r="I26" s="3" t="n"/>
-      <c r="J26" s="3" t="n"/>
-      <c r="K26" s="3" t="n"/>
-      <c r="L26" s="3" t="inlineStr"/>
-      <c r="M26" s="3" t="n"/>
-      <c r="N26" s="3" t="n"/>
-      <c r="O26" s="3" t="n"/>
-      <c r="P26" s="3" t="inlineStr"/>
-      <c r="Q26" s="3" t="n"/>
-      <c r="R26" s="3" t="n"/>
-      <c r="S26" s="3" t="n"/>
+      <c r="B26" s="2" t="inlineStr"/>
+      <c r="C26" s="2" t="n"/>
+      <c r="D26" s="2" t="n"/>
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="n"/>
+      <c r="G26" s="2" t="n"/>
+      <c r="N26" s="2" t="inlineStr"/>
+      <c r="O26" s="2" t="n"/>
+      <c r="P26" s="2" t="n"/>
+      <c r="Q26" s="2" t="n"/>
+      <c r="R26" s="2" t="n"/>
+      <c r="S26" s="2" t="n"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>عيادة تشخيص أمراض الفم التسجيل من خلال القسم</t>
-        </is>
-      </c>
-      <c r="F27" s="3" t="inlineStr">
-        <is>
-          <t>10:00 - 12:00</t>
-        </is>
-      </c>
-      <c r="G27" s="3" t="n"/>
-      <c r="H27" s="3" t="n"/>
-      <c r="I27" s="3" t="n"/>
-      <c r="L27" s="3" t="inlineStr">
-        <is>
-          <t>13:00 - 15:00</t>
-        </is>
-      </c>
+          <t>عيادة تركيبات سنية 1</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>8:00 - 10:00</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="n"/>
+      <c r="D27" s="3" t="n"/>
+      <c r="E27" s="3" t="n"/>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>12:00 - 14:00</t>
+        </is>
+      </c>
+      <c r="K27" s="3" t="n"/>
+      <c r="L27" s="3" t="n"/>
       <c r="M27" s="3" t="n"/>
-      <c r="N27" s="3" t="n"/>
+      <c r="N27" s="3" t="inlineStr">
+        <is>
+          <t>14:00 - 16:00</t>
+        </is>
+      </c>
       <c r="O27" s="3" t="n"/>
-      <c r="P27" s="3" t="inlineStr">
-        <is>
-          <t>15:00 - 17:00</t>
-        </is>
-      </c>
+      <c r="P27" s="3" t="n"/>
       <c r="Q27" s="3" t="n"/>
-      <c r="R27" s="3" t="n"/>
-      <c r="S27" s="3" t="n"/>
     </row>
     <row r="28">
-      <c r="F28" s="3" t="inlineStr">
-        <is>
-          <t>لم يحدد</t>
-        </is>
-      </c>
-      <c r="G28" s="3" t="n"/>
-      <c r="H28" s="3" t="n"/>
-      <c r="I28" s="3" t="n"/>
-      <c r="L28" s="3" t="inlineStr">
-        <is>
-          <t>لم يحدد</t>
-        </is>
-      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>نجيب ابو الرب</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="n"/>
+      <c r="D28" s="3" t="n"/>
+      <c r="E28" s="3" t="n"/>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>ساري دار ديك</t>
+        </is>
+      </c>
+      <c r="K28" s="3" t="n"/>
+      <c r="L28" s="3" t="n"/>
       <c r="M28" s="3" t="n"/>
-      <c r="N28" s="3" t="n"/>
+      <c r="N28" s="3" t="inlineStr">
+        <is>
+          <t>ساري دار ديك</t>
+        </is>
+      </c>
       <c r="O28" s="3" t="n"/>
-      <c r="P28" s="3" t="inlineStr">
-        <is>
-          <t>لم يحدد</t>
-        </is>
-      </c>
+      <c r="P28" s="3" t="n"/>
       <c r="Q28" s="3" t="n"/>
-      <c r="R28" s="3" t="n"/>
-      <c r="S28" s="3" t="n"/>
     </row>
     <row r="29">
-      <c r="F29" s="3" t="inlineStr"/>
-      <c r="G29" s="3" t="n"/>
-      <c r="H29" s="3" t="n"/>
-      <c r="I29" s="3" t="n"/>
-      <c r="L29" s="3" t="inlineStr"/>
+      <c r="B29" s="3" t="inlineStr"/>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="3" t="n"/>
+      <c r="E29" s="3" t="n"/>
+      <c r="J29" s="3" t="inlineStr"/>
+      <c r="K29" s="3" t="n"/>
+      <c r="L29" s="3" t="n"/>
       <c r="M29" s="3" t="n"/>
-      <c r="N29" s="3" t="n"/>
+      <c r="N29" s="3" t="inlineStr"/>
       <c r="O29" s="3" t="n"/>
-      <c r="P29" s="3" t="inlineStr"/>
+      <c r="P29" s="3" t="n"/>
       <c r="Q29" s="3" t="n"/>
-      <c r="R29" s="3" t="n"/>
-      <c r="S29" s="3" t="n"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>عيادة علم أمراض اللثة 3</t>
-        </is>
-      </c>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>8:00 - 10:00</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="n"/>
-      <c r="D30" s="3" t="n"/>
-      <c r="E30" s="3" t="n"/>
+          <t>عيادة استعاضة سنية متحركة 4</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>10:00 - 12:00</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="n"/>
+      <c r="H30" s="3" t="n"/>
+      <c r="I30" s="3" t="n"/>
       <c r="J30" s="3" t="inlineStr">
         <is>
           <t>12:00 - 14:00</t>
@@ -1464,17 +1464,17 @@
       <c r="Q30" s="3" t="n"/>
     </row>
     <row r="31">
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>فادي هرش</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="n"/>
-      <c r="D31" s="3" t="n"/>
-      <c r="E31" s="3" t="n"/>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>عفاف النجاجره</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="n"/>
+      <c r="H31" s="3" t="n"/>
+      <c r="I31" s="3" t="n"/>
       <c r="J31" s="3" t="inlineStr">
         <is>
-          <t>فادي هرش</t>
+          <t>عفاف النجاجره</t>
         </is>
       </c>
       <c r="K31" s="3" t="n"/>
@@ -1482,7 +1482,7 @@
       <c r="M31" s="3" t="n"/>
       <c r="N31" s="3" t="inlineStr">
         <is>
-          <t>فادي هرش</t>
+          <t>نجيب ابو الرب</t>
         </is>
       </c>
       <c r="O31" s="3" t="n"/>
@@ -1490,10 +1490,10 @@
       <c r="Q31" s="3" t="n"/>
     </row>
     <row r="32">
-      <c r="B32" s="3" t="inlineStr"/>
-      <c r="C32" s="3" t="n"/>
-      <c r="D32" s="3" t="n"/>
-      <c r="E32" s="3" t="n"/>
+      <c r="F32" s="3" t="inlineStr"/>
+      <c r="G32" s="3" t="n"/>
+      <c r="H32" s="3" t="n"/>
+      <c r="I32" s="3" t="n"/>
       <c r="J32" s="3" t="inlineStr"/>
       <c r="K32" s="3" t="n"/>
       <c r="L32" s="3" t="n"/>
@@ -1506,7 +1506,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>عيادة تركيبات سنية 1</t>
+          <t>عيادة علم أمراض اللثة 3</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
@@ -1537,7 +1537,7 @@
     <row r="34">
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>نجيب ابو الرب</t>
+          <t>فادي هرش</t>
         </is>
       </c>
       <c r="C34" s="3" t="n"/>
@@ -1545,7 +1545,7 @@
       <c r="E34" s="3" t="n"/>
       <c r="J34" s="3" t="inlineStr">
         <is>
-          <t>ساري دار ديك</t>
+          <t>فادي هرش</t>
         </is>
       </c>
       <c r="K34" s="3" t="n"/>
@@ -1553,7 +1553,7 @@
       <c r="M34" s="3" t="n"/>
       <c r="N34" s="3" t="inlineStr">
         <is>
-          <t>ساري دار ديك</t>
+          <t>فادي هرش</t>
         </is>
       </c>
       <c r="O34" s="3" t="n"/>
@@ -1577,78 +1577,78 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>عيادة استعاضة سنية متحركة 4</t>
-        </is>
-      </c>
-      <c r="F36" s="3" t="inlineStr">
-        <is>
-          <t>10:00 - 12:00</t>
-        </is>
-      </c>
-      <c r="G36" s="3" t="n"/>
-      <c r="H36" s="3" t="n"/>
+          <t>عيادة جراحة الفم 1 التسجيل من خلال القسم</t>
+        </is>
+      </c>
+      <c r="H36" s="3" t="inlineStr">
+        <is>
+          <t>11:00 - 13:00</t>
+        </is>
+      </c>
       <c r="I36" s="3" t="n"/>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>12:00 - 14:00</t>
-        </is>
-      </c>
+      <c r="J36" s="3" t="n"/>
       <c r="K36" s="3" t="n"/>
-      <c r="L36" s="3" t="n"/>
+      <c r="L36" s="3" t="inlineStr">
+        <is>
+          <t>13:00 - 15:00</t>
+        </is>
+      </c>
       <c r="M36" s="3" t="n"/>
-      <c r="N36" s="3" t="inlineStr">
-        <is>
-          <t>14:00 - 16:00</t>
-        </is>
-      </c>
+      <c r="N36" s="3" t="n"/>
       <c r="O36" s="3" t="n"/>
-      <c r="P36" s="3" t="n"/>
+      <c r="P36" s="3" t="inlineStr">
+        <is>
+          <t>15:00 - 17:00</t>
+        </is>
+      </c>
       <c r="Q36" s="3" t="n"/>
+      <c r="R36" s="3" t="n"/>
+      <c r="S36" s="3" t="n"/>
     </row>
     <row r="37">
-      <c r="F37" s="3" t="inlineStr">
-        <is>
-          <t>عفاف النجاجره</t>
-        </is>
-      </c>
-      <c r="G37" s="3" t="n"/>
-      <c r="H37" s="3" t="n"/>
+      <c r="H37" s="3" t="inlineStr">
+        <is>
+          <t>علي الشواهين</t>
+        </is>
+      </c>
       <c r="I37" s="3" t="n"/>
-      <c r="J37" s="3" t="inlineStr">
-        <is>
-          <t>عفاف النجاجره</t>
-        </is>
-      </c>
+      <c r="J37" s="3" t="n"/>
       <c r="K37" s="3" t="n"/>
-      <c r="L37" s="3" t="n"/>
+      <c r="L37" s="3" t="inlineStr">
+        <is>
+          <t>علي الشواهين</t>
+        </is>
+      </c>
       <c r="M37" s="3" t="n"/>
-      <c r="N37" s="3" t="inlineStr">
-        <is>
-          <t>نجيب ابو الرب</t>
-        </is>
-      </c>
+      <c r="N37" s="3" t="n"/>
       <c r="O37" s="3" t="n"/>
-      <c r="P37" s="3" t="n"/>
+      <c r="P37" s="3" t="inlineStr">
+        <is>
+          <t>علي الشواهين</t>
+        </is>
+      </c>
       <c r="Q37" s="3" t="n"/>
+      <c r="R37" s="3" t="n"/>
+      <c r="S37" s="3" t="n"/>
     </row>
     <row r="38">
-      <c r="F38" s="3" t="inlineStr"/>
-      <c r="G38" s="3" t="n"/>
-      <c r="H38" s="3" t="n"/>
+      <c r="H38" s="3" t="inlineStr"/>
       <c r="I38" s="3" t="n"/>
-      <c r="J38" s="3" t="inlineStr"/>
+      <c r="J38" s="3" t="n"/>
       <c r="K38" s="3" t="n"/>
-      <c r="L38" s="3" t="n"/>
+      <c r="L38" s="3" t="inlineStr"/>
       <c r="M38" s="3" t="n"/>
-      <c r="N38" s="3" t="inlineStr"/>
+      <c r="N38" s="3" t="n"/>
       <c r="O38" s="3" t="n"/>
-      <c r="P38" s="3" t="n"/>
+      <c r="P38" s="3" t="inlineStr"/>
       <c r="Q38" s="3" t="n"/>
+      <c r="R38" s="3" t="n"/>
+      <c r="S38" s="3" t="n"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>عيادة جراحة الفم والأسنان والفكين 1</t>
+          <t>عيادة تشخيص أمراض الفم التسجيل من خلال القسم</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
@@ -1659,67 +1659,67 @@
       <c r="G39" s="3" t="n"/>
       <c r="H39" s="3" t="n"/>
       <c r="I39" s="3" t="n"/>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>12:00 - 14:00</t>
-        </is>
-      </c>
-      <c r="K39" s="3" t="n"/>
-      <c r="L39" s="3" t="n"/>
+      <c r="L39" s="3" t="inlineStr">
+        <is>
+          <t>13:00 - 15:00</t>
+        </is>
+      </c>
       <c r="M39" s="3" t="n"/>
-      <c r="N39" s="3" t="inlineStr">
-        <is>
-          <t>14:00 - 16:00</t>
-        </is>
-      </c>
+      <c r="N39" s="3" t="n"/>
       <c r="O39" s="3" t="n"/>
-      <c r="P39" s="3" t="n"/>
+      <c r="P39" s="3" t="inlineStr">
+        <is>
+          <t>15:00 - 17:00</t>
+        </is>
+      </c>
       <c r="Q39" s="3" t="n"/>
+      <c r="R39" s="3" t="n"/>
+      <c r="S39" s="3" t="n"/>
     </row>
     <row r="40">
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>حسين هلال</t>
+          <t>لم يحدد</t>
         </is>
       </c>
       <c r="G40" s="3" t="n"/>
       <c r="H40" s="3" t="n"/>
       <c r="I40" s="3" t="n"/>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>حسين هلال</t>
-        </is>
-      </c>
-      <c r="K40" s="3" t="n"/>
-      <c r="L40" s="3" t="n"/>
+      <c r="L40" s="3" t="inlineStr">
+        <is>
+          <t>لم يحدد</t>
+        </is>
+      </c>
       <c r="M40" s="3" t="n"/>
-      <c r="N40" s="3" t="inlineStr">
-        <is>
-          <t>حسين هلال</t>
-        </is>
-      </c>
+      <c r="N40" s="3" t="n"/>
       <c r="O40" s="3" t="n"/>
-      <c r="P40" s="3" t="n"/>
+      <c r="P40" s="3" t="inlineStr">
+        <is>
+          <t>لم يحدد</t>
+        </is>
+      </c>
       <c r="Q40" s="3" t="n"/>
+      <c r="R40" s="3" t="n"/>
+      <c r="S40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="F41" s="3" t="inlineStr"/>
       <c r="G41" s="3" t="n"/>
       <c r="H41" s="3" t="n"/>
       <c r="I41" s="3" t="n"/>
-      <c r="J41" s="3" t="inlineStr"/>
-      <c r="K41" s="3" t="n"/>
-      <c r="L41" s="3" t="n"/>
+      <c r="L41" s="3" t="inlineStr"/>
       <c r="M41" s="3" t="n"/>
-      <c r="N41" s="3" t="inlineStr"/>
+      <c r="N41" s="3" t="n"/>
       <c r="O41" s="3" t="n"/>
-      <c r="P41" s="3" t="n"/>
+      <c r="P41" s="3" t="inlineStr"/>
       <c r="Q41" s="3" t="n"/>
+      <c r="R41" s="3" t="n"/>
+      <c r="S41" s="3" t="n"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>عيادة طب الأسنان التحفظي 5</t>
+          <t>عيادة جراحة الفم والأسنان والفكين 1</t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
@@ -1750,7 +1750,7 @@
     <row r="43">
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>عبد الرحمن مصطفى</t>
+          <t>حسين هلال</t>
         </is>
       </c>
       <c r="G43" s="3" t="n"/>
@@ -1758,7 +1758,7 @@
       <c r="I43" s="3" t="n"/>
       <c r="J43" s="3" t="inlineStr">
         <is>
-          <t>عبد الرحمن مصطفى</t>
+          <t>حسين هلال</t>
         </is>
       </c>
       <c r="K43" s="3" t="n"/>
@@ -1766,7 +1766,7 @@
       <c r="M43" s="3" t="n"/>
       <c r="N43" s="3" t="inlineStr">
         <is>
-          <t>عبد الرحمن مصطفى</t>
+          <t>حسين هلال</t>
         </is>
       </c>
       <c r="O43" s="3" t="n"/>
@@ -2241,244 +2241,238 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>إستعاضة سنية متحركة 1/ عملي</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>8:00 - 11:00</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="n"/>
-      <c r="D65" s="2" t="n"/>
-      <c r="E65" s="2" t="n"/>
-      <c r="F65" s="2" t="n"/>
-      <c r="G65" s="2" t="n"/>
-      <c r="H65" s="2" t="inlineStr">
-        <is>
-          <t>11:00 - 14:00</t>
-        </is>
-      </c>
-      <c r="I65" s="2" t="n"/>
-      <c r="J65" s="2" t="n"/>
-      <c r="K65" s="2" t="n"/>
-      <c r="L65" s="2" t="n"/>
-      <c r="M65" s="2" t="n"/>
-      <c r="N65" s="2" t="inlineStr">
-        <is>
-          <t>14:00 - 17:00</t>
-        </is>
-      </c>
-      <c r="O65" s="2" t="n"/>
-      <c r="P65" s="2" t="n"/>
-      <c r="Q65" s="2" t="n"/>
-      <c r="R65" s="2" t="n"/>
-      <c r="S65" s="2" t="n"/>
+          <t>عيادة طب الأسنان التحفظي 5</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="inlineStr">
+        <is>
+          <t>10:00 - 12:00</t>
+        </is>
+      </c>
+      <c r="G65" s="3" t="n"/>
+      <c r="H65" s="3" t="n"/>
+      <c r="I65" s="3" t="n"/>
+      <c r="J65" s="3" t="inlineStr">
+        <is>
+          <t>12:00 - 14:00</t>
+        </is>
+      </c>
+      <c r="K65" s="3" t="n"/>
+      <c r="L65" s="3" t="n"/>
+      <c r="M65" s="3" t="n"/>
+      <c r="N65" s="3" t="inlineStr">
+        <is>
+          <t>14:00 - 16:00</t>
+        </is>
+      </c>
+      <c r="O65" s="3" t="n"/>
+      <c r="P65" s="3" t="n"/>
+      <c r="Q65" s="3" t="n"/>
     </row>
     <row r="66">
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>عيسى بنورة</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="n"/>
-      <c r="D66" s="2" t="n"/>
-      <c r="E66" s="2" t="n"/>
-      <c r="F66" s="2" t="n"/>
-      <c r="G66" s="2" t="n"/>
-      <c r="H66" s="2" t="inlineStr">
-        <is>
-          <t>لم يحدد</t>
-        </is>
-      </c>
-      <c r="I66" s="2" t="n"/>
-      <c r="J66" s="2" t="n"/>
-      <c r="K66" s="2" t="n"/>
-      <c r="L66" s="2" t="n"/>
-      <c r="M66" s="2" t="n"/>
-      <c r="N66" s="2" t="inlineStr">
-        <is>
-          <t>عيسى بنورة</t>
-        </is>
-      </c>
-      <c r="O66" s="2" t="n"/>
-      <c r="P66" s="2" t="n"/>
-      <c r="Q66" s="2" t="n"/>
-      <c r="R66" s="2" t="n"/>
-      <c r="S66" s="2" t="n"/>
+      <c r="F66" s="3" t="inlineStr">
+        <is>
+          <t>حسن حشاش</t>
+        </is>
+      </c>
+      <c r="G66" s="3" t="n"/>
+      <c r="H66" s="3" t="n"/>
+      <c r="I66" s="3" t="n"/>
+      <c r="J66" s="3" t="inlineStr">
+        <is>
+          <t>حسن حشاش</t>
+        </is>
+      </c>
+      <c r="K66" s="3" t="n"/>
+      <c r="L66" s="3" t="n"/>
+      <c r="M66" s="3" t="n"/>
+      <c r="N66" s="3" t="inlineStr">
+        <is>
+          <t>حسن حشاش</t>
+        </is>
+      </c>
+      <c r="O66" s="3" t="n"/>
+      <c r="P66" s="3" t="n"/>
+      <c r="Q66" s="3" t="n"/>
     </row>
     <row r="67">
-      <c r="B67" s="2" t="inlineStr"/>
-      <c r="C67" s="2" t="n"/>
-      <c r="D67" s="2" t="n"/>
-      <c r="E67" s="2" t="n"/>
-      <c r="F67" s="2" t="n"/>
-      <c r="G67" s="2" t="n"/>
-      <c r="H67" s="2" t="inlineStr"/>
-      <c r="I67" s="2" t="n"/>
-      <c r="J67" s="2" t="n"/>
-      <c r="K67" s="2" t="n"/>
-      <c r="L67" s="2" t="n"/>
-      <c r="M67" s="2" t="n"/>
-      <c r="N67" s="2" t="inlineStr"/>
-      <c r="O67" s="2" t="n"/>
-      <c r="P67" s="2" t="n"/>
-      <c r="Q67" s="2" t="n"/>
-      <c r="R67" s="2" t="n"/>
-      <c r="S67" s="2" t="n"/>
+      <c r="F67" s="3" t="inlineStr"/>
+      <c r="G67" s="3" t="n"/>
+      <c r="H67" s="3" t="n"/>
+      <c r="I67" s="3" t="n"/>
+      <c r="J67" s="3" t="inlineStr"/>
+      <c r="K67" s="3" t="n"/>
+      <c r="L67" s="3" t="n"/>
+      <c r="M67" s="3" t="n"/>
+      <c r="N67" s="3" t="inlineStr"/>
+      <c r="O67" s="3" t="n"/>
+      <c r="P67" s="3" t="n"/>
+      <c r="Q67" s="3" t="n"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>عيادة جراحة الفم 1 التسجيل من خلال القسم</t>
-        </is>
-      </c>
-      <c r="H68" s="3" t="inlineStr">
-        <is>
-          <t>11:00 - 13:00</t>
-        </is>
-      </c>
-      <c r="I68" s="3" t="n"/>
-      <c r="J68" s="3" t="n"/>
-      <c r="K68" s="3" t="n"/>
-      <c r="L68" s="3" t="inlineStr">
-        <is>
-          <t>13:00 - 15:00</t>
-        </is>
-      </c>
-      <c r="M68" s="3" t="n"/>
-      <c r="N68" s="3" t="n"/>
-      <c r="O68" s="3" t="n"/>
-      <c r="P68" s="3" t="inlineStr">
-        <is>
-          <t>15:00 - 17:00</t>
-        </is>
-      </c>
-      <c r="Q68" s="3" t="n"/>
-      <c r="R68" s="3" t="n"/>
-      <c r="S68" s="3" t="n"/>
+          <t>إستعاضة سنية متحركة 1/ عملي</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>8:00 - 11:00</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n"/>
+      <c r="D68" s="2" t="n"/>
+      <c r="E68" s="2" t="n"/>
+      <c r="F68" s="2" t="n"/>
+      <c r="G68" s="2" t="n"/>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>11:00 - 14:00</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="n"/>
+      <c r="J68" s="2" t="n"/>
+      <c r="K68" s="2" t="n"/>
+      <c r="L68" s="2" t="n"/>
+      <c r="M68" s="2" t="n"/>
+      <c r="N68" s="2" t="inlineStr">
+        <is>
+          <t>14:00 - 17:00</t>
+        </is>
+      </c>
+      <c r="O68" s="2" t="n"/>
+      <c r="P68" s="2" t="n"/>
+      <c r="Q68" s="2" t="n"/>
+      <c r="R68" s="2" t="n"/>
+      <c r="S68" s="2" t="n"/>
     </row>
     <row r="69">
-      <c r="H69" s="3" t="inlineStr">
-        <is>
-          <t>عمر خليل</t>
-        </is>
-      </c>
-      <c r="I69" s="3" t="n"/>
-      <c r="J69" s="3" t="n"/>
-      <c r="K69" s="3" t="n"/>
-      <c r="L69" s="3" t="inlineStr">
-        <is>
-          <t>عمر خليل</t>
-        </is>
-      </c>
-      <c r="M69" s="3" t="n"/>
-      <c r="N69" s="3" t="n"/>
-      <c r="O69" s="3" t="n"/>
-      <c r="P69" s="3" t="inlineStr">
-        <is>
-          <t>عمر خليل</t>
-        </is>
-      </c>
-      <c r="Q69" s="3" t="n"/>
-      <c r="R69" s="3" t="n"/>
-      <c r="S69" s="3" t="n"/>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>عيسى بنورة</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n"/>
+      <c r="D69" s="2" t="n"/>
+      <c r="E69" s="2" t="n"/>
+      <c r="F69" s="2" t="n"/>
+      <c r="G69" s="2" t="n"/>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>لم يحدد</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="n"/>
+      <c r="J69" s="2" t="n"/>
+      <c r="K69" s="2" t="n"/>
+      <c r="L69" s="2" t="n"/>
+      <c r="M69" s="2" t="n"/>
+      <c r="N69" s="2" t="inlineStr">
+        <is>
+          <t>عيسى بنورة</t>
+        </is>
+      </c>
+      <c r="O69" s="2" t="n"/>
+      <c r="P69" s="2" t="n"/>
+      <c r="Q69" s="2" t="n"/>
+      <c r="R69" s="2" t="n"/>
+      <c r="S69" s="2" t="n"/>
     </row>
     <row r="70">
-      <c r="H70" s="3" t="inlineStr"/>
-      <c r="I70" s="3" t="n"/>
-      <c r="J70" s="3" t="n"/>
-      <c r="K70" s="3" t="n"/>
-      <c r="L70" s="3" t="inlineStr"/>
-      <c r="M70" s="3" t="n"/>
-      <c r="N70" s="3" t="n"/>
-      <c r="O70" s="3" t="n"/>
-      <c r="P70" s="3" t="inlineStr"/>
-      <c r="Q70" s="3" t="n"/>
-      <c r="R70" s="3" t="n"/>
-      <c r="S70" s="3" t="n"/>
+      <c r="B70" s="2" t="inlineStr"/>
+      <c r="C70" s="2" t="n"/>
+      <c r="D70" s="2" t="n"/>
+      <c r="E70" s="2" t="n"/>
+      <c r="F70" s="2" t="n"/>
+      <c r="G70" s="2" t="n"/>
+      <c r="H70" s="2" t="inlineStr"/>
+      <c r="I70" s="2" t="n"/>
+      <c r="J70" s="2" t="n"/>
+      <c r="K70" s="2" t="n"/>
+      <c r="L70" s="2" t="n"/>
+      <c r="M70" s="2" t="n"/>
+      <c r="N70" s="2" t="inlineStr"/>
+      <c r="O70" s="2" t="n"/>
+      <c r="P70" s="2" t="n"/>
+      <c r="Q70" s="2" t="n"/>
+      <c r="R70" s="2" t="n"/>
+      <c r="S70" s="2" t="n"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>عيادة تشخيص أمراض الفم التسجيل من خلال القسم</t>
-        </is>
-      </c>
-      <c r="B71" s="3" t="inlineStr">
-        <is>
-          <t>9:00 - 11:00</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="n"/>
-      <c r="D71" s="3" t="n"/>
-      <c r="E71" s="3" t="n"/>
-      <c r="F71" s="3" t="n"/>
+          <t>عيادة تركيبات سنية 1</t>
+        </is>
+      </c>
+      <c r="F71" s="3" t="inlineStr">
+        <is>
+          <t>10:00 - 12:00</t>
+        </is>
+      </c>
       <c r="G71" s="3" t="n"/>
-      <c r="L71" s="3" t="inlineStr">
-        <is>
-          <t>13:00 - 15:00</t>
-        </is>
-      </c>
+      <c r="H71" s="3" t="n"/>
+      <c r="I71" s="3" t="n"/>
+      <c r="J71" s="3" t="inlineStr">
+        <is>
+          <t>12:00 - 14:00</t>
+        </is>
+      </c>
+      <c r="K71" s="3" t="n"/>
+      <c r="L71" s="3" t="n"/>
       <c r="M71" s="3" t="n"/>
-      <c r="N71" s="3" t="n"/>
+      <c r="N71" s="3" t="inlineStr">
+        <is>
+          <t>14:00 - 16:00</t>
+        </is>
+      </c>
       <c r="O71" s="3" t="n"/>
-      <c r="P71" s="3" t="inlineStr">
-        <is>
-          <t>15:00 - 17:00</t>
-        </is>
-      </c>
+      <c r="P71" s="3" t="n"/>
       <c r="Q71" s="3" t="n"/>
-      <c r="R71" s="3" t="n"/>
-      <c r="S71" s="3" t="n"/>
     </row>
     <row r="72">
-      <c r="B72" s="3" t="inlineStr">
-        <is>
-          <t>لم يحدد</t>
-        </is>
-      </c>
-      <c r="C72" s="3" t="n"/>
-      <c r="D72" s="3" t="n"/>
-      <c r="E72" s="3" t="n"/>
-      <c r="F72" s="3" t="n"/>
+      <c r="F72" s="3" t="inlineStr">
+        <is>
+          <t>ميس عوده</t>
+        </is>
+      </c>
       <c r="G72" s="3" t="n"/>
-      <c r="L72" s="3" t="inlineStr">
-        <is>
-          <t>علي الشواهين</t>
-        </is>
-      </c>
+      <c r="H72" s="3" t="n"/>
+      <c r="I72" s="3" t="n"/>
+      <c r="J72" s="3" t="inlineStr">
+        <is>
+          <t>ساري دار ديك</t>
+        </is>
+      </c>
+      <c r="K72" s="3" t="n"/>
+      <c r="L72" s="3" t="n"/>
       <c r="M72" s="3" t="n"/>
-      <c r="N72" s="3" t="n"/>
+      <c r="N72" s="3" t="inlineStr">
+        <is>
+          <t>ساري دار ديك</t>
+        </is>
+      </c>
       <c r="O72" s="3" t="n"/>
-      <c r="P72" s="3" t="inlineStr">
-        <is>
-          <t>علي الشواهين</t>
-        </is>
-      </c>
+      <c r="P72" s="3" t="n"/>
       <c r="Q72" s="3" t="n"/>
-      <c r="R72" s="3" t="n"/>
-      <c r="S72" s="3" t="n"/>
     </row>
     <row r="73">
-      <c r="B73" s="3" t="inlineStr"/>
-      <c r="C73" s="3" t="n"/>
-      <c r="D73" s="3" t="n"/>
-      <c r="E73" s="3" t="n"/>
-      <c r="F73" s="3" t="n"/>
+      <c r="F73" s="3" t="inlineStr"/>
       <c r="G73" s="3" t="n"/>
-      <c r="L73" s="3" t="inlineStr"/>
+      <c r="H73" s="3" t="n"/>
+      <c r="I73" s="3" t="n"/>
+      <c r="J73" s="3" t="inlineStr"/>
+      <c r="K73" s="3" t="n"/>
+      <c r="L73" s="3" t="n"/>
       <c r="M73" s="3" t="n"/>
-      <c r="N73" s="3" t="n"/>
+      <c r="N73" s="3" t="inlineStr"/>
       <c r="O73" s="3" t="n"/>
-      <c r="P73" s="3" t="inlineStr"/>
+      <c r="P73" s="3" t="n"/>
       <c r="Q73" s="3" t="n"/>
-      <c r="R73" s="3" t="n"/>
-      <c r="S73" s="3" t="n"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>عيادة علم أمراض اللثة 3</t>
+          <t>عيادة استعاضة سنية متحركة 4</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr">
@@ -2509,7 +2503,7 @@
     <row r="75">
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t>لم يحدد</t>
+          <t>محمود حساسنة</t>
         </is>
       </c>
       <c r="G75" s="3" t="n"/>
@@ -2517,7 +2511,7 @@
       <c r="I75" s="3" t="n"/>
       <c r="J75" s="3" t="inlineStr">
         <is>
-          <t>لم يحدد</t>
+          <t>محمود حساسنة</t>
         </is>
       </c>
       <c r="K75" s="3" t="n"/>
@@ -2525,7 +2519,7 @@
       <c r="M75" s="3" t="n"/>
       <c r="N75" s="3" t="inlineStr">
         <is>
-          <t>لم يحدد</t>
+          <t>محمود حساسنة</t>
         </is>
       </c>
       <c r="O75" s="3" t="n"/>
@@ -2549,7 +2543,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>عيادة تركيبات سنية 1</t>
+          <t>عيادة علم أمراض اللثة 3</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
@@ -2580,7 +2574,7 @@
     <row r="78">
       <c r="F78" s="3" t="inlineStr">
         <is>
-          <t>ميس عوده</t>
+          <t>احمد دوايمه</t>
         </is>
       </c>
       <c r="G78" s="3" t="n"/>
@@ -2588,7 +2582,7 @@
       <c r="I78" s="3" t="n"/>
       <c r="J78" s="3" t="inlineStr">
         <is>
-          <t>ساري دار ديك</t>
+          <t>لم يحدد</t>
         </is>
       </c>
       <c r="K78" s="3" t="n"/>
@@ -2596,7 +2590,7 @@
       <c r="M78" s="3" t="n"/>
       <c r="N78" s="3" t="inlineStr">
         <is>
-          <t>ساري دار ديك</t>
+          <t>لم يحدد</t>
         </is>
       </c>
       <c r="O78" s="3" t="n"/>
@@ -2620,149 +2614,155 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>عيادة استعاضة سنية متحركة 4</t>
-        </is>
-      </c>
-      <c r="F80" s="3" t="inlineStr">
-        <is>
-          <t>10:00 - 12:00</t>
-        </is>
-      </c>
-      <c r="G80" s="3" t="n"/>
-      <c r="H80" s="3" t="n"/>
+          <t>عيادة جراحة الفم 1 التسجيل من خلال القسم</t>
+        </is>
+      </c>
+      <c r="H80" s="3" t="inlineStr">
+        <is>
+          <t>11:00 - 13:00</t>
+        </is>
+      </c>
       <c r="I80" s="3" t="n"/>
-      <c r="J80" s="3" t="inlineStr">
-        <is>
-          <t>12:00 - 14:00</t>
-        </is>
-      </c>
+      <c r="J80" s="3" t="n"/>
       <c r="K80" s="3" t="n"/>
-      <c r="L80" s="3" t="n"/>
+      <c r="L80" s="3" t="inlineStr">
+        <is>
+          <t>13:00 - 15:00</t>
+        </is>
+      </c>
       <c r="M80" s="3" t="n"/>
-      <c r="N80" s="3" t="inlineStr">
-        <is>
-          <t>14:00 - 16:00</t>
-        </is>
-      </c>
+      <c r="N80" s="3" t="n"/>
       <c r="O80" s="3" t="n"/>
-      <c r="P80" s="3" t="n"/>
+      <c r="P80" s="3" t="inlineStr">
+        <is>
+          <t>15:00 - 17:00</t>
+        </is>
+      </c>
       <c r="Q80" s="3" t="n"/>
+      <c r="R80" s="3" t="n"/>
+      <c r="S80" s="3" t="n"/>
     </row>
     <row r="81">
-      <c r="F81" s="3" t="inlineStr">
-        <is>
-          <t>محمود حساسنة</t>
-        </is>
-      </c>
-      <c r="G81" s="3" t="n"/>
-      <c r="H81" s="3" t="n"/>
+      <c r="H81" s="3" t="inlineStr">
+        <is>
+          <t>عمر خليل</t>
+        </is>
+      </c>
       <c r="I81" s="3" t="n"/>
-      <c r="J81" s="3" t="inlineStr">
-        <is>
-          <t>محمود حساسنة</t>
-        </is>
-      </c>
+      <c r="J81" s="3" t="n"/>
       <c r="K81" s="3" t="n"/>
-      <c r="L81" s="3" t="n"/>
+      <c r="L81" s="3" t="inlineStr">
+        <is>
+          <t>عمر خليل</t>
+        </is>
+      </c>
       <c r="M81" s="3" t="n"/>
-      <c r="N81" s="3" t="inlineStr">
-        <is>
-          <t>محمود حساسنة</t>
-        </is>
-      </c>
+      <c r="N81" s="3" t="n"/>
       <c r="O81" s="3" t="n"/>
-      <c r="P81" s="3" t="n"/>
+      <c r="P81" s="3" t="inlineStr">
+        <is>
+          <t>عمر خليل</t>
+        </is>
+      </c>
       <c r="Q81" s="3" t="n"/>
+      <c r="R81" s="3" t="n"/>
+      <c r="S81" s="3" t="n"/>
     </row>
     <row r="82">
-      <c r="F82" s="3" t="inlineStr"/>
-      <c r="G82" s="3" t="n"/>
-      <c r="H82" s="3" t="n"/>
+      <c r="H82" s="3" t="inlineStr"/>
       <c r="I82" s="3" t="n"/>
-      <c r="J82" s="3" t="inlineStr"/>
+      <c r="J82" s="3" t="n"/>
       <c r="K82" s="3" t="n"/>
-      <c r="L82" s="3" t="n"/>
+      <c r="L82" s="3" t="inlineStr"/>
       <c r="M82" s="3" t="n"/>
-      <c r="N82" s="3" t="inlineStr"/>
+      <c r="N82" s="3" t="n"/>
       <c r="O82" s="3" t="n"/>
-      <c r="P82" s="3" t="n"/>
+      <c r="P82" s="3" t="inlineStr"/>
       <c r="Q82" s="3" t="n"/>
+      <c r="R82" s="3" t="n"/>
+      <c r="S82" s="3" t="n"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>عيادة جراحة الفم والأسنان والفكين 1</t>
-        </is>
-      </c>
-      <c r="F83" s="3" t="inlineStr">
-        <is>
-          <t>10:00 - 12:00</t>
-        </is>
-      </c>
+          <t>عيادة تشخيص أمراض الفم التسجيل من خلال القسم</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>9:00 - 11:00</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="n"/>
+      <c r="D83" s="3" t="n"/>
+      <c r="E83" s="3" t="n"/>
+      <c r="F83" s="3" t="n"/>
       <c r="G83" s="3" t="n"/>
-      <c r="H83" s="3" t="n"/>
-      <c r="I83" s="3" t="n"/>
-      <c r="J83" s="3" t="inlineStr">
-        <is>
-          <t>12:00 - 14:00</t>
-        </is>
-      </c>
-      <c r="K83" s="3" t="n"/>
-      <c r="L83" s="3" t="n"/>
+      <c r="L83" s="3" t="inlineStr">
+        <is>
+          <t>13:00 - 15:00</t>
+        </is>
+      </c>
       <c r="M83" s="3" t="n"/>
-      <c r="N83" s="3" t="inlineStr">
-        <is>
-          <t>14:00 - 16:00</t>
-        </is>
-      </c>
+      <c r="N83" s="3" t="n"/>
       <c r="O83" s="3" t="n"/>
-      <c r="P83" s="3" t="n"/>
+      <c r="P83" s="3" t="inlineStr">
+        <is>
+          <t>15:00 - 17:00</t>
+        </is>
+      </c>
       <c r="Q83" s="3" t="n"/>
+      <c r="R83" s="3" t="n"/>
+      <c r="S83" s="3" t="n"/>
     </row>
     <row r="84">
-      <c r="F84" s="3" t="inlineStr">
-        <is>
-          <t>وائل حسن</t>
-        </is>
-      </c>
+      <c r="B84" s="3" t="inlineStr">
+        <is>
+          <t>لم يحدد</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="n"/>
+      <c r="D84" s="3" t="n"/>
+      <c r="E84" s="3" t="n"/>
+      <c r="F84" s="3" t="n"/>
       <c r="G84" s="3" t="n"/>
-      <c r="H84" s="3" t="n"/>
-      <c r="I84" s="3" t="n"/>
-      <c r="J84" s="3" t="inlineStr">
-        <is>
-          <t>وائل حسن</t>
-        </is>
-      </c>
-      <c r="K84" s="3" t="n"/>
-      <c r="L84" s="3" t="n"/>
+      <c r="L84" s="3" t="inlineStr">
+        <is>
+          <t>علي الشواهين</t>
+        </is>
+      </c>
       <c r="M84" s="3" t="n"/>
-      <c r="N84" s="3" t="inlineStr">
-        <is>
-          <t>وائل حسن</t>
-        </is>
-      </c>
+      <c r="N84" s="3" t="n"/>
       <c r="O84" s="3" t="n"/>
-      <c r="P84" s="3" t="n"/>
+      <c r="P84" s="3" t="inlineStr">
+        <is>
+          <t>علي الشواهين</t>
+        </is>
+      </c>
       <c r="Q84" s="3" t="n"/>
+      <c r="R84" s="3" t="n"/>
+      <c r="S84" s="3" t="n"/>
     </row>
     <row r="85">
-      <c r="F85" s="3" t="inlineStr"/>
+      <c r="B85" s="3" t="inlineStr"/>
+      <c r="C85" s="3" t="n"/>
+      <c r="D85" s="3" t="n"/>
+      <c r="E85" s="3" t="n"/>
+      <c r="F85" s="3" t="n"/>
       <c r="G85" s="3" t="n"/>
-      <c r="H85" s="3" t="n"/>
-      <c r="I85" s="3" t="n"/>
-      <c r="J85" s="3" t="inlineStr"/>
-      <c r="K85" s="3" t="n"/>
-      <c r="L85" s="3" t="n"/>
+      <c r="L85" s="3" t="inlineStr"/>
       <c r="M85" s="3" t="n"/>
-      <c r="N85" s="3" t="inlineStr"/>
+      <c r="N85" s="3" t="n"/>
       <c r="O85" s="3" t="n"/>
-      <c r="P85" s="3" t="n"/>
+      <c r="P85" s="3" t="inlineStr"/>
       <c r="Q85" s="3" t="n"/>
+      <c r="R85" s="3" t="n"/>
+      <c r="S85" s="3" t="n"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>عيادة طب الأسنان التحفظي 5</t>
+          <t>عيادة جراحة الفم والأسنان والفكين 1</t>
         </is>
       </c>
       <c r="F86" s="3" t="inlineStr">
@@ -2793,7 +2793,7 @@
     <row r="87">
       <c r="F87" s="3" t="inlineStr">
         <is>
-          <t>حسن حشاش</t>
+          <t>وائل حسن</t>
         </is>
       </c>
       <c r="G87" s="3" t="n"/>
@@ -2801,7 +2801,7 @@
       <c r="I87" s="3" t="n"/>
       <c r="J87" s="3" t="inlineStr">
         <is>
-          <t>حسن حشاش</t>
+          <t>وائل حسن</t>
         </is>
       </c>
       <c r="K87" s="3" t="n"/>
@@ -2809,7 +2809,7 @@
       <c r="M87" s="3" t="n"/>
       <c r="N87" s="3" t="inlineStr">
         <is>
-          <t>حسن حشاش</t>
+          <t>وائل حسن</t>
         </is>
       </c>
       <c r="O87" s="3" t="n"/>
@@ -3466,192 +3466,186 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>إستعاضة سنية متحركة 1/ عملي</t>
-        </is>
-      </c>
-      <c r="B115" s="2" t="inlineStr">
-        <is>
-          <t>8:00 - 11:00</t>
-        </is>
-      </c>
-      <c r="C115" s="2" t="n"/>
-      <c r="D115" s="2" t="n"/>
-      <c r="E115" s="2" t="n"/>
-      <c r="F115" s="2" t="n"/>
-      <c r="G115" s="2" t="n"/>
+          <t>عيادة طب الأسنان التحفظي 5</t>
+        </is>
+      </c>
+      <c r="F115" s="3" t="inlineStr">
+        <is>
+          <t>10:00 - 12:00</t>
+        </is>
+      </c>
+      <c r="G115" s="3" t="n"/>
+      <c r="H115" s="3" t="n"/>
+      <c r="I115" s="3" t="n"/>
+      <c r="J115" s="3" t="inlineStr">
+        <is>
+          <t>12:00 - 14:00</t>
+        </is>
+      </c>
+      <c r="K115" s="3" t="n"/>
+      <c r="L115" s="3" t="n"/>
+      <c r="M115" s="3" t="n"/>
+      <c r="N115" s="3" t="inlineStr">
+        <is>
+          <t>14:00 - 16:00</t>
+        </is>
+      </c>
+      <c r="O115" s="3" t="n"/>
+      <c r="P115" s="3" t="n"/>
+      <c r="Q115" s="3" t="n"/>
     </row>
     <row r="116">
-      <c r="B116" s="2" t="inlineStr">
-        <is>
-          <t>نجيب ابو الرب</t>
-        </is>
-      </c>
-      <c r="C116" s="2" t="n"/>
-      <c r="D116" s="2" t="n"/>
-      <c r="E116" s="2" t="n"/>
-      <c r="F116" s="2" t="n"/>
-      <c r="G116" s="2" t="n"/>
+      <c r="F116" s="3" t="inlineStr">
+        <is>
+          <t>عبد الرحمن مصطفى</t>
+        </is>
+      </c>
+      <c r="G116" s="3" t="n"/>
+      <c r="H116" s="3" t="n"/>
+      <c r="I116" s="3" t="n"/>
+      <c r="J116" s="3" t="inlineStr">
+        <is>
+          <t>عبد الرحمن مصطفى</t>
+        </is>
+      </c>
+      <c r="K116" s="3" t="n"/>
+      <c r="L116" s="3" t="n"/>
+      <c r="M116" s="3" t="n"/>
+      <c r="N116" s="3" t="inlineStr">
+        <is>
+          <t>عبد الرحمن مصطفى</t>
+        </is>
+      </c>
+      <c r="O116" s="3" t="n"/>
+      <c r="P116" s="3" t="n"/>
+      <c r="Q116" s="3" t="n"/>
     </row>
     <row r="117">
-      <c r="B117" s="2" t="inlineStr"/>
-      <c r="C117" s="2" t="n"/>
-      <c r="D117" s="2" t="n"/>
-      <c r="E117" s="2" t="n"/>
-      <c r="F117" s="2" t="n"/>
-      <c r="G117" s="2" t="n"/>
+      <c r="F117" s="3" t="inlineStr"/>
+      <c r="G117" s="3" t="n"/>
+      <c r="H117" s="3" t="n"/>
+      <c r="I117" s="3" t="n"/>
+      <c r="J117" s="3" t="inlineStr"/>
+      <c r="K117" s="3" t="n"/>
+      <c r="L117" s="3" t="n"/>
+      <c r="M117" s="3" t="n"/>
+      <c r="N117" s="3" t="inlineStr"/>
+      <c r="O117" s="3" t="n"/>
+      <c r="P117" s="3" t="n"/>
+      <c r="Q117" s="3" t="n"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>عيادة جراحة الفم 1 التسجيل من خلال القسم</t>
-        </is>
-      </c>
-      <c r="H118" s="3" t="inlineStr">
-        <is>
-          <t>11:00 - 13:00</t>
-        </is>
-      </c>
-      <c r="I118" s="3" t="n"/>
-      <c r="J118" s="3" t="n"/>
-      <c r="K118" s="3" t="n"/>
-      <c r="L118" s="3" t="inlineStr">
-        <is>
-          <t>13:00 - 15:00</t>
-        </is>
-      </c>
-      <c r="M118" s="3" t="n"/>
-      <c r="N118" s="3" t="n"/>
-      <c r="O118" s="3" t="n"/>
-      <c r="P118" s="3" t="inlineStr">
-        <is>
-          <t>15:00 - 17:00</t>
-        </is>
-      </c>
-      <c r="Q118" s="3" t="n"/>
-      <c r="R118" s="3" t="n"/>
-      <c r="S118" s="3" t="n"/>
+          <t>إستعاضة سنية متحركة 1/ عملي</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>8:00 - 11:00</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="n"/>
+      <c r="D118" s="2" t="n"/>
+      <c r="E118" s="2" t="n"/>
+      <c r="F118" s="2" t="n"/>
+      <c r="G118" s="2" t="n"/>
     </row>
     <row r="119">
-      <c r="H119" s="3" t="inlineStr">
-        <is>
-          <t>سفيان السعيد</t>
-        </is>
-      </c>
-      <c r="I119" s="3" t="n"/>
-      <c r="J119" s="3" t="n"/>
-      <c r="K119" s="3" t="n"/>
-      <c r="L119" s="3" t="inlineStr">
-        <is>
-          <t>سفيان السعيد</t>
-        </is>
-      </c>
-      <c r="M119" s="3" t="n"/>
-      <c r="N119" s="3" t="n"/>
-      <c r="O119" s="3" t="n"/>
-      <c r="P119" s="3" t="inlineStr">
-        <is>
-          <t>سفيان السعيد</t>
-        </is>
-      </c>
-      <c r="Q119" s="3" t="n"/>
-      <c r="R119" s="3" t="n"/>
-      <c r="S119" s="3" t="n"/>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>نجيب ابو الرب</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="n"/>
+      <c r="D119" s="2" t="n"/>
+      <c r="E119" s="2" t="n"/>
+      <c r="F119" s="2" t="n"/>
+      <c r="G119" s="2" t="n"/>
     </row>
     <row r="120">
-      <c r="H120" s="3" t="inlineStr"/>
-      <c r="I120" s="3" t="n"/>
-      <c r="J120" s="3" t="n"/>
-      <c r="K120" s="3" t="n"/>
-      <c r="L120" s="3" t="inlineStr"/>
-      <c r="M120" s="3" t="n"/>
-      <c r="N120" s="3" t="n"/>
-      <c r="O120" s="3" t="n"/>
-      <c r="P120" s="3" t="inlineStr"/>
-      <c r="Q120" s="3" t="n"/>
-      <c r="R120" s="3" t="n"/>
-      <c r="S120" s="3" t="n"/>
+      <c r="B120" s="2" t="inlineStr"/>
+      <c r="C120" s="2" t="n"/>
+      <c r="D120" s="2" t="n"/>
+      <c r="E120" s="2" t="n"/>
+      <c r="F120" s="2" t="n"/>
+      <c r="G120" s="2" t="n"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>عيادة تشخيص أمراض الفم التسجيل من خلال القسم</t>
-        </is>
-      </c>
-      <c r="B121" s="3" t="inlineStr">
-        <is>
-          <t>9:00 - 11:00</t>
-        </is>
-      </c>
-      <c r="C121" s="3" t="n"/>
-      <c r="D121" s="3" t="n"/>
-      <c r="E121" s="3" t="n"/>
-      <c r="F121" s="3" t="n"/>
+          <t>عيادة تركيبات سنية 1</t>
+        </is>
+      </c>
+      <c r="F121" s="3" t="inlineStr">
+        <is>
+          <t>10:00 - 12:00</t>
+        </is>
+      </c>
       <c r="G121" s="3" t="n"/>
-      <c r="L121" s="3" t="inlineStr">
-        <is>
-          <t>13:00 - 15:00</t>
-        </is>
-      </c>
+      <c r="H121" s="3" t="n"/>
+      <c r="I121" s="3" t="n"/>
+      <c r="J121" s="3" t="inlineStr">
+        <is>
+          <t>12:00 - 14:00</t>
+        </is>
+      </c>
+      <c r="K121" s="3" t="n"/>
+      <c r="L121" s="3" t="n"/>
       <c r="M121" s="3" t="n"/>
-      <c r="N121" s="3" t="n"/>
+      <c r="N121" s="3" t="inlineStr">
+        <is>
+          <t>14:00 - 16:00</t>
+        </is>
+      </c>
       <c r="O121" s="3" t="n"/>
-      <c r="P121" s="3" t="inlineStr">
-        <is>
-          <t>15:00 - 17:00</t>
-        </is>
-      </c>
+      <c r="P121" s="3" t="n"/>
       <c r="Q121" s="3" t="n"/>
-      <c r="R121" s="3" t="n"/>
-      <c r="S121" s="3" t="n"/>
     </row>
     <row r="122">
-      <c r="B122" s="3" t="inlineStr">
-        <is>
-          <t>لم يحدد</t>
-        </is>
-      </c>
-      <c r="C122" s="3" t="n"/>
-      <c r="D122" s="3" t="n"/>
-      <c r="E122" s="3" t="n"/>
-      <c r="F122" s="3" t="n"/>
+      <c r="F122" s="3" t="inlineStr">
+        <is>
+          <t>عيسى بنورة</t>
+        </is>
+      </c>
       <c r="G122" s="3" t="n"/>
-      <c r="L122" s="3" t="inlineStr">
-        <is>
-          <t>لم يحدد</t>
-        </is>
-      </c>
+      <c r="H122" s="3" t="n"/>
+      <c r="I122" s="3" t="n"/>
+      <c r="J122" s="3" t="inlineStr">
+        <is>
+          <t>محمود حساسنة</t>
+        </is>
+      </c>
+      <c r="K122" s="3" t="n"/>
+      <c r="L122" s="3" t="n"/>
       <c r="M122" s="3" t="n"/>
-      <c r="N122" s="3" t="n"/>
+      <c r="N122" s="3" t="inlineStr">
+        <is>
+          <t>محمود حساسنة</t>
+        </is>
+      </c>
       <c r="O122" s="3" t="n"/>
-      <c r="P122" s="3" t="inlineStr">
-        <is>
-          <t>لم يحدد</t>
-        </is>
-      </c>
+      <c r="P122" s="3" t="n"/>
       <c r="Q122" s="3" t="n"/>
-      <c r="R122" s="3" t="n"/>
-      <c r="S122" s="3" t="n"/>
     </row>
     <row r="123">
-      <c r="B123" s="3" t="inlineStr"/>
-      <c r="C123" s="3" t="n"/>
-      <c r="D123" s="3" t="n"/>
-      <c r="E123" s="3" t="n"/>
-      <c r="F123" s="3" t="n"/>
+      <c r="F123" s="3" t="inlineStr"/>
       <c r="G123" s="3" t="n"/>
-      <c r="L123" s="3" t="inlineStr"/>
+      <c r="H123" s="3" t="n"/>
+      <c r="I123" s="3" t="n"/>
+      <c r="J123" s="3" t="inlineStr"/>
+      <c r="K123" s="3" t="n"/>
+      <c r="L123" s="3" t="n"/>
       <c r="M123" s="3" t="n"/>
-      <c r="N123" s="3" t="n"/>
+      <c r="N123" s="3" t="inlineStr"/>
       <c r="O123" s="3" t="n"/>
-      <c r="P123" s="3" t="inlineStr"/>
+      <c r="P123" s="3" t="n"/>
       <c r="Q123" s="3" t="n"/>
-      <c r="R123" s="3" t="n"/>
-      <c r="S123" s="3" t="n"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>عيادة علم أمراض اللثة 3</t>
+          <t>عيادة استعاضة سنية متحركة 4</t>
         </is>
       </c>
       <c r="B124" s="3" t="inlineStr">
@@ -3678,19 +3672,11 @@
       <c r="K124" s="3" t="n"/>
       <c r="L124" s="3" t="n"/>
       <c r="M124" s="3" t="n"/>
-      <c r="N124" s="3" t="inlineStr">
-        <is>
-          <t>14:00 - 16:00</t>
-        </is>
-      </c>
-      <c r="O124" s="3" t="n"/>
-      <c r="P124" s="3" t="n"/>
-      <c r="Q124" s="3" t="n"/>
     </row>
     <row r="125">
       <c r="B125" s="3" t="inlineStr">
         <is>
-          <t>فادي هرش</t>
+          <t>عفاف النجاجره</t>
         </is>
       </c>
       <c r="C125" s="3" t="n"/>
@@ -3698,7 +3684,7 @@
       <c r="E125" s="3" t="n"/>
       <c r="F125" s="3" t="inlineStr">
         <is>
-          <t>احمد دوايمه</t>
+          <t>عفاف النجاجره</t>
         </is>
       </c>
       <c r="G125" s="3" t="n"/>
@@ -3706,20 +3692,12 @@
       <c r="I125" s="3" t="n"/>
       <c r="J125" s="3" t="inlineStr">
         <is>
-          <t>فادي هرش</t>
+          <t>نجيب ابو الرب</t>
         </is>
       </c>
       <c r="K125" s="3" t="n"/>
       <c r="L125" s="3" t="n"/>
       <c r="M125" s="3" t="n"/>
-      <c r="N125" s="3" t="inlineStr">
-        <is>
-          <t>فادي هرش</t>
-        </is>
-      </c>
-      <c r="O125" s="3" t="n"/>
-      <c r="P125" s="3" t="n"/>
-      <c r="Q125" s="3" t="n"/>
     </row>
     <row r="126">
       <c r="B126" s="3" t="inlineStr"/>
@@ -3734,17 +3712,21 @@
       <c r="K126" s="3" t="n"/>
       <c r="L126" s="3" t="n"/>
       <c r="M126" s="3" t="n"/>
-      <c r="N126" s="3" t="inlineStr"/>
-      <c r="O126" s="3" t="n"/>
-      <c r="P126" s="3" t="n"/>
-      <c r="Q126" s="3" t="n"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>عيادة تركيبات سنية 1</t>
-        </is>
-      </c>
+          <t>عيادة علم أمراض اللثة 3</t>
+        </is>
+      </c>
+      <c r="B127" s="3" t="inlineStr">
+        <is>
+          <t>8:00 - 10:00</t>
+        </is>
+      </c>
+      <c r="C127" s="3" t="n"/>
+      <c r="D127" s="3" t="n"/>
+      <c r="E127" s="3" t="n"/>
       <c r="F127" s="3" t="inlineStr">
         <is>
           <t>10:00 - 12:00</t>
@@ -3771,9 +3753,17 @@
       <c r="Q127" s="3" t="n"/>
     </row>
     <row r="128">
+      <c r="B128" s="3" t="inlineStr">
+        <is>
+          <t>فادي هرش</t>
+        </is>
+      </c>
+      <c r="C128" s="3" t="n"/>
+      <c r="D128" s="3" t="n"/>
+      <c r="E128" s="3" t="n"/>
       <c r="F128" s="3" t="inlineStr">
         <is>
-          <t>عيسى بنورة</t>
+          <t>احمد دوايمه</t>
         </is>
       </c>
       <c r="G128" s="3" t="n"/>
@@ -3781,7 +3771,7 @@
       <c r="I128" s="3" t="n"/>
       <c r="J128" s="3" t="inlineStr">
         <is>
-          <t>محمود حساسنة</t>
+          <t>فادي هرش</t>
         </is>
       </c>
       <c r="K128" s="3" t="n"/>
@@ -3789,7 +3779,7 @@
       <c r="M128" s="3" t="n"/>
       <c r="N128" s="3" t="inlineStr">
         <is>
-          <t>محمود حساسنة</t>
+          <t>فادي هرش</t>
         </is>
       </c>
       <c r="O128" s="3" t="n"/>
@@ -3797,6 +3787,10 @@
       <c r="Q128" s="3" t="n"/>
     </row>
     <row r="129">
+      <c r="B129" s="3" t="inlineStr"/>
+      <c r="C129" s="3" t="n"/>
+      <c r="D129" s="3" t="n"/>
+      <c r="E129" s="3" t="n"/>
       <c r="F129" s="3" t="inlineStr"/>
       <c r="G129" s="3" t="n"/>
       <c r="H129" s="3" t="n"/>
@@ -3813,149 +3807,155 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>عيادة استعاضة سنية متحركة 4</t>
-        </is>
-      </c>
-      <c r="B130" s="3" t="inlineStr">
-        <is>
-          <t>8:00 - 10:00</t>
-        </is>
-      </c>
-      <c r="C130" s="3" t="n"/>
-      <c r="D130" s="3" t="n"/>
-      <c r="E130" s="3" t="n"/>
-      <c r="F130" s="3" t="inlineStr">
-        <is>
-          <t>10:00 - 12:00</t>
-        </is>
-      </c>
-      <c r="G130" s="3" t="n"/>
-      <c r="H130" s="3" t="n"/>
+          <t>عيادة جراحة الفم 1 التسجيل من خلال القسم</t>
+        </is>
+      </c>
+      <c r="H130" s="3" t="inlineStr">
+        <is>
+          <t>11:00 - 13:00</t>
+        </is>
+      </c>
       <c r="I130" s="3" t="n"/>
-      <c r="J130" s="3" t="inlineStr">
-        <is>
-          <t>12:00 - 14:00</t>
-        </is>
-      </c>
+      <c r="J130" s="3" t="n"/>
       <c r="K130" s="3" t="n"/>
-      <c r="L130" s="3" t="n"/>
+      <c r="L130" s="3" t="inlineStr">
+        <is>
+          <t>13:00 - 15:00</t>
+        </is>
+      </c>
       <c r="M130" s="3" t="n"/>
+      <c r="N130" s="3" t="n"/>
+      <c r="O130" s="3" t="n"/>
+      <c r="P130" s="3" t="inlineStr">
+        <is>
+          <t>15:00 - 17:00</t>
+        </is>
+      </c>
+      <c r="Q130" s="3" t="n"/>
+      <c r="R130" s="3" t="n"/>
+      <c r="S130" s="3" t="n"/>
     </row>
     <row r="131">
-      <c r="B131" s="3" t="inlineStr">
-        <is>
-          <t>عفاف النجاجره</t>
-        </is>
-      </c>
-      <c r="C131" s="3" t="n"/>
-      <c r="D131" s="3" t="n"/>
-      <c r="E131" s="3" t="n"/>
-      <c r="F131" s="3" t="inlineStr">
-        <is>
-          <t>عفاف النجاجره</t>
-        </is>
-      </c>
-      <c r="G131" s="3" t="n"/>
-      <c r="H131" s="3" t="n"/>
+      <c r="H131" s="3" t="inlineStr">
+        <is>
+          <t>سفيان السعيد</t>
+        </is>
+      </c>
       <c r="I131" s="3" t="n"/>
-      <c r="J131" s="3" t="inlineStr">
-        <is>
-          <t>نجيب ابو الرب</t>
-        </is>
-      </c>
+      <c r="J131" s="3" t="n"/>
       <c r="K131" s="3" t="n"/>
-      <c r="L131" s="3" t="n"/>
+      <c r="L131" s="3" t="inlineStr">
+        <is>
+          <t>سفيان السعيد</t>
+        </is>
+      </c>
       <c r="M131" s="3" t="n"/>
+      <c r="N131" s="3" t="n"/>
+      <c r="O131" s="3" t="n"/>
+      <c r="P131" s="3" t="inlineStr">
+        <is>
+          <t>سفيان السعيد</t>
+        </is>
+      </c>
+      <c r="Q131" s="3" t="n"/>
+      <c r="R131" s="3" t="n"/>
+      <c r="S131" s="3" t="n"/>
     </row>
     <row r="132">
-      <c r="B132" s="3" t="inlineStr"/>
-      <c r="C132" s="3" t="n"/>
-      <c r="D132" s="3" t="n"/>
-      <c r="E132" s="3" t="n"/>
-      <c r="F132" s="3" t="inlineStr"/>
-      <c r="G132" s="3" t="n"/>
-      <c r="H132" s="3" t="n"/>
+      <c r="H132" s="3" t="inlineStr"/>
       <c r="I132" s="3" t="n"/>
-      <c r="J132" s="3" t="inlineStr"/>
+      <c r="J132" s="3" t="n"/>
       <c r="K132" s="3" t="n"/>
-      <c r="L132" s="3" t="n"/>
+      <c r="L132" s="3" t="inlineStr"/>
       <c r="M132" s="3" t="n"/>
+      <c r="N132" s="3" t="n"/>
+      <c r="O132" s="3" t="n"/>
+      <c r="P132" s="3" t="inlineStr"/>
+      <c r="Q132" s="3" t="n"/>
+      <c r="R132" s="3" t="n"/>
+      <c r="S132" s="3" t="n"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>عيادة جراحة الفم والأسنان والفكين 1</t>
-        </is>
-      </c>
-      <c r="F133" s="3" t="inlineStr">
-        <is>
-          <t>10:00 - 12:00</t>
-        </is>
-      </c>
+          <t>عيادة تشخيص أمراض الفم التسجيل من خلال القسم</t>
+        </is>
+      </c>
+      <c r="B133" s="3" t="inlineStr">
+        <is>
+          <t>9:00 - 11:00</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="n"/>
+      <c r="D133" s="3" t="n"/>
+      <c r="E133" s="3" t="n"/>
+      <c r="F133" s="3" t="n"/>
       <c r="G133" s="3" t="n"/>
-      <c r="H133" s="3" t="n"/>
-      <c r="I133" s="3" t="n"/>
-      <c r="J133" s="3" t="inlineStr">
-        <is>
-          <t>12:00 - 14:00</t>
-        </is>
-      </c>
-      <c r="K133" s="3" t="n"/>
-      <c r="L133" s="3" t="n"/>
+      <c r="L133" s="3" t="inlineStr">
+        <is>
+          <t>13:00 - 15:00</t>
+        </is>
+      </c>
       <c r="M133" s="3" t="n"/>
-      <c r="N133" s="3" t="inlineStr">
-        <is>
-          <t>14:00 - 16:00</t>
-        </is>
-      </c>
+      <c r="N133" s="3" t="n"/>
       <c r="O133" s="3" t="n"/>
-      <c r="P133" s="3" t="n"/>
+      <c r="P133" s="3" t="inlineStr">
+        <is>
+          <t>15:00 - 17:00</t>
+        </is>
+      </c>
       <c r="Q133" s="3" t="n"/>
+      <c r="R133" s="3" t="n"/>
+      <c r="S133" s="3" t="n"/>
     </row>
     <row r="134">
-      <c r="F134" s="3" t="inlineStr">
-        <is>
-          <t>علي الشواهين</t>
-        </is>
-      </c>
+      <c r="B134" s="3" t="inlineStr">
+        <is>
+          <t>لم يحدد</t>
+        </is>
+      </c>
+      <c r="C134" s="3" t="n"/>
+      <c r="D134" s="3" t="n"/>
+      <c r="E134" s="3" t="n"/>
+      <c r="F134" s="3" t="n"/>
       <c r="G134" s="3" t="n"/>
-      <c r="H134" s="3" t="n"/>
-      <c r="I134" s="3" t="n"/>
-      <c r="J134" s="3" t="inlineStr">
-        <is>
-          <t>علي الشواهين</t>
-        </is>
-      </c>
-      <c r="K134" s="3" t="n"/>
-      <c r="L134" s="3" t="n"/>
+      <c r="L134" s="3" t="inlineStr">
+        <is>
+          <t>لم يحدد</t>
+        </is>
+      </c>
       <c r="M134" s="3" t="n"/>
-      <c r="N134" s="3" t="inlineStr">
-        <is>
-          <t>علي الشواهين</t>
-        </is>
-      </c>
+      <c r="N134" s="3" t="n"/>
       <c r="O134" s="3" t="n"/>
-      <c r="P134" s="3" t="n"/>
+      <c r="P134" s="3" t="inlineStr">
+        <is>
+          <t>لم يحدد</t>
+        </is>
+      </c>
       <c r="Q134" s="3" t="n"/>
+      <c r="R134" s="3" t="n"/>
+      <c r="S134" s="3" t="n"/>
     </row>
     <row r="135">
-      <c r="F135" s="3" t="inlineStr"/>
+      <c r="B135" s="3" t="inlineStr"/>
+      <c r="C135" s="3" t="n"/>
+      <c r="D135" s="3" t="n"/>
+      <c r="E135" s="3" t="n"/>
+      <c r="F135" s="3" t="n"/>
       <c r="G135" s="3" t="n"/>
-      <c r="H135" s="3" t="n"/>
-      <c r="I135" s="3" t="n"/>
-      <c r="J135" s="3" t="inlineStr"/>
-      <c r="K135" s="3" t="n"/>
-      <c r="L135" s="3" t="n"/>
+      <c r="L135" s="3" t="inlineStr"/>
       <c r="M135" s="3" t="n"/>
-      <c r="N135" s="3" t="inlineStr"/>
+      <c r="N135" s="3" t="n"/>
       <c r="O135" s="3" t="n"/>
-      <c r="P135" s="3" t="n"/>
+      <c r="P135" s="3" t="inlineStr"/>
       <c r="Q135" s="3" t="n"/>
+      <c r="R135" s="3" t="n"/>
+      <c r="S135" s="3" t="n"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>عيادة طب الأسنان التحفظي 5</t>
+          <t>عيادة جراحة الفم والأسنان والفكين 1</t>
         </is>
       </c>
       <c r="F136" s="3" t="inlineStr">
@@ -3986,7 +3986,7 @@
     <row r="137">
       <c r="F137" s="3" t="inlineStr">
         <is>
-          <t>عبد الرحمن مصطفى</t>
+          <t>علي الشواهين</t>
         </is>
       </c>
       <c r="G137" s="3" t="n"/>
@@ -3994,7 +3994,7 @@
       <c r="I137" s="3" t="n"/>
       <c r="J137" s="3" t="inlineStr">
         <is>
-          <t>عبد الرحمن مصطفى</t>
+          <t>علي الشواهين</t>
         </is>
       </c>
       <c r="K137" s="3" t="n"/>
@@ -4002,7 +4002,7 @@
       <c r="M137" s="3" t="n"/>
       <c r="N137" s="3" t="inlineStr">
         <is>
-          <t>عبد الرحمن مصطفى</t>
+          <t>علي الشواهين</t>
         </is>
       </c>
       <c r="O137" s="3" t="n"/>
@@ -4613,212 +4613,212 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>إستعاضة سنية متحركة 1/ عملي</t>
-        </is>
-      </c>
-      <c r="B165" s="2" t="inlineStr">
-        <is>
-          <t>8:00 - 11:00</t>
-        </is>
-      </c>
-      <c r="C165" s="2" t="n"/>
-      <c r="D165" s="2" t="n"/>
-      <c r="E165" s="2" t="n"/>
-      <c r="F165" s="2" t="n"/>
-      <c r="G165" s="2" t="n"/>
-      <c r="H165" s="2" t="inlineStr">
-        <is>
-          <t>11:00 - 14:00</t>
-        </is>
-      </c>
-      <c r="I165" s="2" t="n"/>
-      <c r="J165" s="2" t="n"/>
-      <c r="K165" s="2" t="n"/>
-      <c r="L165" s="2" t="n"/>
-      <c r="M165" s="2" t="n"/>
+          <t>عيادة طب الأسنان التحفظي 5</t>
+        </is>
+      </c>
+      <c r="F165" s="3" t="inlineStr">
+        <is>
+          <t>10:00 - 12:00</t>
+        </is>
+      </c>
+      <c r="G165" s="3" t="n"/>
+      <c r="H165" s="3" t="n"/>
+      <c r="I165" s="3" t="n"/>
+      <c r="J165" s="3" t="inlineStr">
+        <is>
+          <t>12:00 - 14:00</t>
+        </is>
+      </c>
+      <c r="K165" s="3" t="n"/>
+      <c r="L165" s="3" t="n"/>
+      <c r="M165" s="3" t="n"/>
+      <c r="N165" s="3" t="inlineStr">
+        <is>
+          <t>14:00 - 16:00</t>
+        </is>
+      </c>
+      <c r="O165" s="3" t="n"/>
+      <c r="P165" s="3" t="n"/>
+      <c r="Q165" s="3" t="n"/>
     </row>
     <row r="166">
-      <c r="B166" s="2" t="inlineStr">
-        <is>
-          <t>محمود حساسنة</t>
-        </is>
-      </c>
-      <c r="C166" s="2" t="n"/>
-      <c r="D166" s="2" t="n"/>
-      <c r="E166" s="2" t="n"/>
-      <c r="F166" s="2" t="n"/>
-      <c r="G166" s="2" t="n"/>
-      <c r="H166" s="2" t="inlineStr">
-        <is>
-          <t>لم يحدد</t>
-        </is>
-      </c>
-      <c r="I166" s="2" t="n"/>
-      <c r="J166" s="2" t="n"/>
-      <c r="K166" s="2" t="n"/>
-      <c r="L166" s="2" t="n"/>
-      <c r="M166" s="2" t="n"/>
+      <c r="F166" s="3" t="inlineStr">
+        <is>
+          <t>حسن حشاش</t>
+        </is>
+      </c>
+      <c r="G166" s="3" t="n"/>
+      <c r="H166" s="3" t="n"/>
+      <c r="I166" s="3" t="n"/>
+      <c r="J166" s="3" t="inlineStr">
+        <is>
+          <t>حسن حشاش</t>
+        </is>
+      </c>
+      <c r="K166" s="3" t="n"/>
+      <c r="L166" s="3" t="n"/>
+      <c r="M166" s="3" t="n"/>
+      <c r="N166" s="3" t="inlineStr">
+        <is>
+          <t>حسن حشاش</t>
+        </is>
+      </c>
+      <c r="O166" s="3" t="n"/>
+      <c r="P166" s="3" t="n"/>
+      <c r="Q166" s="3" t="n"/>
     </row>
     <row r="167">
-      <c r="B167" s="2" t="inlineStr"/>
-      <c r="C167" s="2" t="n"/>
-      <c r="D167" s="2" t="n"/>
-      <c r="E167" s="2" t="n"/>
-      <c r="F167" s="2" t="n"/>
-      <c r="G167" s="2" t="n"/>
-      <c r="H167" s="2" t="inlineStr"/>
-      <c r="I167" s="2" t="n"/>
-      <c r="J167" s="2" t="n"/>
-      <c r="K167" s="2" t="n"/>
-      <c r="L167" s="2" t="n"/>
-      <c r="M167" s="2" t="n"/>
+      <c r="F167" s="3" t="inlineStr"/>
+      <c r="G167" s="3" t="n"/>
+      <c r="H167" s="3" t="n"/>
+      <c r="I167" s="3" t="n"/>
+      <c r="J167" s="3" t="inlineStr"/>
+      <c r="K167" s="3" t="n"/>
+      <c r="L167" s="3" t="n"/>
+      <c r="M167" s="3" t="n"/>
+      <c r="N167" s="3" t="inlineStr"/>
+      <c r="O167" s="3" t="n"/>
+      <c r="P167" s="3" t="n"/>
+      <c r="Q167" s="3" t="n"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>عيادة جراحة الفم 1 التسجيل من خلال القسم</t>
-        </is>
-      </c>
-      <c r="H168" s="3" t="inlineStr">
-        <is>
-          <t>11:00 - 13:00</t>
-        </is>
-      </c>
-      <c r="I168" s="3" t="n"/>
-      <c r="J168" s="3" t="n"/>
-      <c r="K168" s="3" t="n"/>
-      <c r="L168" s="3" t="inlineStr">
-        <is>
-          <t>13:00 - 15:00</t>
-        </is>
-      </c>
-      <c r="M168" s="3" t="n"/>
-      <c r="N168" s="3" t="n"/>
-      <c r="O168" s="3" t="n"/>
-      <c r="P168" s="3" t="inlineStr">
-        <is>
-          <t>15:00 - 17:00</t>
-        </is>
-      </c>
-      <c r="Q168" s="3" t="n"/>
-      <c r="R168" s="3" t="n"/>
-      <c r="S168" s="3" t="n"/>
+          <t>إستعاضة سنية متحركة 1/ عملي</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>8:00 - 11:00</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="n"/>
+      <c r="D168" s="2" t="n"/>
+      <c r="E168" s="2" t="n"/>
+      <c r="F168" s="2" t="n"/>
+      <c r="G168" s="2" t="n"/>
+      <c r="H168" s="2" t="inlineStr">
+        <is>
+          <t>11:00 - 14:00</t>
+        </is>
+      </c>
+      <c r="I168" s="2" t="n"/>
+      <c r="J168" s="2" t="n"/>
+      <c r="K168" s="2" t="n"/>
+      <c r="L168" s="2" t="n"/>
+      <c r="M168" s="2" t="n"/>
     </row>
     <row r="169">
-      <c r="H169" s="3" t="inlineStr">
-        <is>
-          <t>عمر خليل</t>
-        </is>
-      </c>
-      <c r="I169" s="3" t="n"/>
-      <c r="J169" s="3" t="n"/>
-      <c r="K169" s="3" t="n"/>
-      <c r="L169" s="3" t="inlineStr">
-        <is>
-          <t>عمر خليل</t>
-        </is>
-      </c>
-      <c r="M169" s="3" t="n"/>
-      <c r="N169" s="3" t="n"/>
-      <c r="O169" s="3" t="n"/>
-      <c r="P169" s="3" t="inlineStr">
-        <is>
-          <t>عمر خليل</t>
-        </is>
-      </c>
-      <c r="Q169" s="3" t="n"/>
-      <c r="R169" s="3" t="n"/>
-      <c r="S169" s="3" t="n"/>
+      <c r="B169" s="2" t="inlineStr">
+        <is>
+          <t>محمود حساسنة</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="n"/>
+      <c r="D169" s="2" t="n"/>
+      <c r="E169" s="2" t="n"/>
+      <c r="F169" s="2" t="n"/>
+      <c r="G169" s="2" t="n"/>
+      <c r="H169" s="2" t="inlineStr">
+        <is>
+          <t>لم يحدد</t>
+        </is>
+      </c>
+      <c r="I169" s="2" t="n"/>
+      <c r="J169" s="2" t="n"/>
+      <c r="K169" s="2" t="n"/>
+      <c r="L169" s="2" t="n"/>
+      <c r="M169" s="2" t="n"/>
     </row>
     <row r="170">
-      <c r="H170" s="3" t="inlineStr"/>
-      <c r="I170" s="3" t="n"/>
-      <c r="J170" s="3" t="n"/>
-      <c r="K170" s="3" t="n"/>
-      <c r="L170" s="3" t="inlineStr"/>
-      <c r="M170" s="3" t="n"/>
-      <c r="N170" s="3" t="n"/>
-      <c r="O170" s="3" t="n"/>
-      <c r="P170" s="3" t="inlineStr"/>
-      <c r="Q170" s="3" t="n"/>
-      <c r="R170" s="3" t="n"/>
-      <c r="S170" s="3" t="n"/>
+      <c r="B170" s="2" t="inlineStr"/>
+      <c r="C170" s="2" t="n"/>
+      <c r="D170" s="2" t="n"/>
+      <c r="E170" s="2" t="n"/>
+      <c r="F170" s="2" t="n"/>
+      <c r="G170" s="2" t="n"/>
+      <c r="H170" s="2" t="inlineStr"/>
+      <c r="I170" s="2" t="n"/>
+      <c r="J170" s="2" t="n"/>
+      <c r="K170" s="2" t="n"/>
+      <c r="L170" s="2" t="n"/>
+      <c r="M170" s="2" t="n"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>عيادة تشخيص أمراض الفم التسجيل من خلال القسم</t>
-        </is>
-      </c>
-      <c r="H171" s="3" t="inlineStr">
-        <is>
-          <t>11:00 - 13:00</t>
-        </is>
-      </c>
+          <t>عيادة تركيبات سنية 1</t>
+        </is>
+      </c>
+      <c r="B171" s="3" t="inlineStr">
+        <is>
+          <t>8:00 - 10:00</t>
+        </is>
+      </c>
+      <c r="C171" s="3" t="n"/>
+      <c r="D171" s="3" t="n"/>
+      <c r="E171" s="3" t="n"/>
+      <c r="F171" s="3" t="inlineStr">
+        <is>
+          <t>10:00 - 12:00</t>
+        </is>
+      </c>
+      <c r="G171" s="3" t="n"/>
+      <c r="H171" s="3" t="n"/>
       <c r="I171" s="3" t="n"/>
-      <c r="J171" s="3" t="n"/>
+      <c r="J171" s="3" t="inlineStr">
+        <is>
+          <t>12:00 - 14:00</t>
+        </is>
+      </c>
       <c r="K171" s="3" t="n"/>
-      <c r="L171" s="3" t="inlineStr">
-        <is>
-          <t>13:00 - 15:00</t>
-        </is>
-      </c>
+      <c r="L171" s="3" t="n"/>
       <c r="M171" s="3" t="n"/>
-      <c r="N171" s="3" t="n"/>
-      <c r="O171" s="3" t="n"/>
-      <c r="P171" s="3" t="inlineStr">
-        <is>
-          <t>15:00 - 17:00</t>
-        </is>
-      </c>
-      <c r="Q171" s="3" t="n"/>
-      <c r="R171" s="3" t="n"/>
-      <c r="S171" s="3" t="n"/>
     </row>
     <row r="172">
-      <c r="H172" s="3" t="inlineStr">
-        <is>
-          <t>سفيان السعيد</t>
-        </is>
-      </c>
+      <c r="B172" s="3" t="inlineStr">
+        <is>
+          <t>ميس عوده</t>
+        </is>
+      </c>
+      <c r="C172" s="3" t="n"/>
+      <c r="D172" s="3" t="n"/>
+      <c r="E172" s="3" t="n"/>
+      <c r="F172" s="3" t="inlineStr">
+        <is>
+          <t>ميس عوده</t>
+        </is>
+      </c>
+      <c r="G172" s="3" t="n"/>
+      <c r="H172" s="3" t="n"/>
       <c r="I172" s="3" t="n"/>
-      <c r="J172" s="3" t="n"/>
+      <c r="J172" s="3" t="inlineStr">
+        <is>
+          <t>ميس عوده</t>
+        </is>
+      </c>
       <c r="K172" s="3" t="n"/>
-      <c r="L172" s="3" t="inlineStr">
-        <is>
-          <t>حسين هلال</t>
-        </is>
-      </c>
+      <c r="L172" s="3" t="n"/>
       <c r="M172" s="3" t="n"/>
-      <c r="N172" s="3" t="n"/>
-      <c r="O172" s="3" t="n"/>
-      <c r="P172" s="3" t="inlineStr">
-        <is>
-          <t>سفيان السعيد</t>
-        </is>
-      </c>
-      <c r="Q172" s="3" t="n"/>
-      <c r="R172" s="3" t="n"/>
-      <c r="S172" s="3" t="n"/>
     </row>
     <row r="173">
-      <c r="H173" s="3" t="inlineStr"/>
+      <c r="B173" s="3" t="inlineStr"/>
+      <c r="C173" s="3" t="n"/>
+      <c r="D173" s="3" t="n"/>
+      <c r="E173" s="3" t="n"/>
+      <c r="F173" s="3" t="inlineStr"/>
+      <c r="G173" s="3" t="n"/>
+      <c r="H173" s="3" t="n"/>
       <c r="I173" s="3" t="n"/>
-      <c r="J173" s="3" t="n"/>
+      <c r="J173" s="3" t="inlineStr"/>
       <c r="K173" s="3" t="n"/>
-      <c r="L173" s="3" t="inlineStr"/>
+      <c r="L173" s="3" t="n"/>
       <c r="M173" s="3" t="n"/>
-      <c r="N173" s="3" t="n"/>
-      <c r="O173" s="3" t="n"/>
-      <c r="P173" s="3" t="inlineStr"/>
-      <c r="Q173" s="3" t="n"/>
-      <c r="R173" s="3" t="n"/>
-      <c r="S173" s="3" t="n"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>عيادة علم أمراض اللثة 3</t>
+          <t>عيادة استعاضة سنية متحركة 4</t>
         </is>
       </c>
       <c r="B174" s="3" t="inlineStr">
@@ -4829,47 +4829,67 @@
       <c r="C174" s="3" t="n"/>
       <c r="D174" s="3" t="n"/>
       <c r="E174" s="3" t="n"/>
-      <c r="N174" s="3" t="inlineStr">
-        <is>
-          <t>14:00 - 16:00</t>
-        </is>
-      </c>
-      <c r="O174" s="3" t="n"/>
-      <c r="P174" s="3" t="n"/>
-      <c r="Q174" s="3" t="n"/>
+      <c r="F174" s="3" t="inlineStr">
+        <is>
+          <t>10:00 - 12:00</t>
+        </is>
+      </c>
+      <c r="G174" s="3" t="n"/>
+      <c r="H174" s="3" t="n"/>
+      <c r="I174" s="3" t="n"/>
+      <c r="J174" s="3" t="inlineStr">
+        <is>
+          <t>12:00 - 14:00</t>
+        </is>
+      </c>
+      <c r="K174" s="3" t="n"/>
+      <c r="L174" s="3" t="n"/>
+      <c r="M174" s="3" t="n"/>
     </row>
     <row r="175">
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>احمد دوايمه</t>
+          <t>عيسى بنورة</t>
         </is>
       </c>
       <c r="C175" s="3" t="n"/>
       <c r="D175" s="3" t="n"/>
       <c r="E175" s="3" t="n"/>
-      <c r="N175" s="3" t="inlineStr">
-        <is>
-          <t>لم يحدد</t>
-        </is>
-      </c>
-      <c r="O175" s="3" t="n"/>
-      <c r="P175" s="3" t="n"/>
-      <c r="Q175" s="3" t="n"/>
+      <c r="F175" s="3" t="inlineStr">
+        <is>
+          <t>عفاف النجاجره</t>
+        </is>
+      </c>
+      <c r="G175" s="3" t="n"/>
+      <c r="H175" s="3" t="n"/>
+      <c r="I175" s="3" t="n"/>
+      <c r="J175" s="3" t="inlineStr">
+        <is>
+          <t>ساري دار ديك</t>
+        </is>
+      </c>
+      <c r="K175" s="3" t="n"/>
+      <c r="L175" s="3" t="n"/>
+      <c r="M175" s="3" t="n"/>
     </row>
     <row r="176">
       <c r="B176" s="3" t="inlineStr"/>
       <c r="C176" s="3" t="n"/>
       <c r="D176" s="3" t="n"/>
       <c r="E176" s="3" t="n"/>
-      <c r="N176" s="3" t="inlineStr"/>
-      <c r="O176" s="3" t="n"/>
-      <c r="P176" s="3" t="n"/>
-      <c r="Q176" s="3" t="n"/>
+      <c r="F176" s="3" t="inlineStr"/>
+      <c r="G176" s="3" t="n"/>
+      <c r="H176" s="3" t="n"/>
+      <c r="I176" s="3" t="n"/>
+      <c r="J176" s="3" t="inlineStr"/>
+      <c r="K176" s="3" t="n"/>
+      <c r="L176" s="3" t="n"/>
+      <c r="M176" s="3" t="n"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>عيادة تركيبات سنية 1</t>
+          <t>عيادة علم أمراض اللثة 3</t>
         </is>
       </c>
       <c r="B177" s="3" t="inlineStr">
@@ -4880,209 +4900,189 @@
       <c r="C177" s="3" t="n"/>
       <c r="D177" s="3" t="n"/>
       <c r="E177" s="3" t="n"/>
-      <c r="F177" s="3" t="inlineStr">
-        <is>
-          <t>10:00 - 12:00</t>
-        </is>
-      </c>
-      <c r="G177" s="3" t="n"/>
-      <c r="H177" s="3" t="n"/>
-      <c r="I177" s="3" t="n"/>
-      <c r="J177" s="3" t="inlineStr">
-        <is>
-          <t>12:00 - 14:00</t>
-        </is>
-      </c>
-      <c r="K177" s="3" t="n"/>
-      <c r="L177" s="3" t="n"/>
-      <c r="M177" s="3" t="n"/>
+      <c r="N177" s="3" t="inlineStr">
+        <is>
+          <t>14:00 - 16:00</t>
+        </is>
+      </c>
+      <c r="O177" s="3" t="n"/>
+      <c r="P177" s="3" t="n"/>
+      <c r="Q177" s="3" t="n"/>
     </row>
     <row r="178">
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>ميس عوده</t>
+          <t>احمد دوايمه</t>
         </is>
       </c>
       <c r="C178" s="3" t="n"/>
       <c r="D178" s="3" t="n"/>
       <c r="E178" s="3" t="n"/>
-      <c r="F178" s="3" t="inlineStr">
-        <is>
-          <t>ميس عوده</t>
-        </is>
-      </c>
-      <c r="G178" s="3" t="n"/>
-      <c r="H178" s="3" t="n"/>
-      <c r="I178" s="3" t="n"/>
-      <c r="J178" s="3" t="inlineStr">
-        <is>
-          <t>ميس عوده</t>
-        </is>
-      </c>
-      <c r="K178" s="3" t="n"/>
-      <c r="L178" s="3" t="n"/>
-      <c r="M178" s="3" t="n"/>
+      <c r="N178" s="3" t="inlineStr">
+        <is>
+          <t>احمد دوايمه</t>
+        </is>
+      </c>
+      <c r="O178" s="3" t="n"/>
+      <c r="P178" s="3" t="n"/>
+      <c r="Q178" s="3" t="n"/>
     </row>
     <row r="179">
       <c r="B179" s="3" t="inlineStr"/>
       <c r="C179" s="3" t="n"/>
       <c r="D179" s="3" t="n"/>
       <c r="E179" s="3" t="n"/>
-      <c r="F179" s="3" t="inlineStr"/>
-      <c r="G179" s="3" t="n"/>
-      <c r="H179" s="3" t="n"/>
-      <c r="I179" s="3" t="n"/>
-      <c r="J179" s="3" t="inlineStr"/>
-      <c r="K179" s="3" t="n"/>
-      <c r="L179" s="3" t="n"/>
-      <c r="M179" s="3" t="n"/>
+      <c r="N179" s="3" t="inlineStr"/>
+      <c r="O179" s="3" t="n"/>
+      <c r="P179" s="3" t="n"/>
+      <c r="Q179" s="3" t="n"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>عيادة استعاضة سنية متحركة 4</t>
-        </is>
-      </c>
-      <c r="B180" s="3" t="inlineStr">
-        <is>
-          <t>8:00 - 10:00</t>
-        </is>
-      </c>
-      <c r="C180" s="3" t="n"/>
-      <c r="D180" s="3" t="n"/>
-      <c r="E180" s="3" t="n"/>
-      <c r="F180" s="3" t="inlineStr">
-        <is>
-          <t>10:00 - 12:00</t>
-        </is>
-      </c>
-      <c r="G180" s="3" t="n"/>
-      <c r="H180" s="3" t="n"/>
+          <t>عيادة جراحة الفم 1 التسجيل من خلال القسم</t>
+        </is>
+      </c>
+      <c r="H180" s="3" t="inlineStr">
+        <is>
+          <t>11:00 - 13:00</t>
+        </is>
+      </c>
       <c r="I180" s="3" t="n"/>
-      <c r="J180" s="3" t="inlineStr">
-        <is>
-          <t>12:00 - 14:00</t>
-        </is>
-      </c>
+      <c r="J180" s="3" t="n"/>
       <c r="K180" s="3" t="n"/>
-      <c r="L180" s="3" t="n"/>
+      <c r="L180" s="3" t="inlineStr">
+        <is>
+          <t>13:00 - 15:00</t>
+        </is>
+      </c>
       <c r="M180" s="3" t="n"/>
+      <c r="N180" s="3" t="n"/>
+      <c r="O180" s="3" t="n"/>
+      <c r="P180" s="3" t="inlineStr">
+        <is>
+          <t>15:00 - 17:00</t>
+        </is>
+      </c>
+      <c r="Q180" s="3" t="n"/>
+      <c r="R180" s="3" t="n"/>
+      <c r="S180" s="3" t="n"/>
     </row>
     <row r="181">
-      <c r="B181" s="3" t="inlineStr">
-        <is>
-          <t>عيسى بنورة</t>
-        </is>
-      </c>
-      <c r="C181" s="3" t="n"/>
-      <c r="D181" s="3" t="n"/>
-      <c r="E181" s="3" t="n"/>
-      <c r="F181" s="3" t="inlineStr">
-        <is>
-          <t>عفاف النجاجره</t>
-        </is>
-      </c>
-      <c r="G181" s="3" t="n"/>
-      <c r="H181" s="3" t="n"/>
+      <c r="H181" s="3" t="inlineStr">
+        <is>
+          <t>عمر خليل</t>
+        </is>
+      </c>
       <c r="I181" s="3" t="n"/>
-      <c r="J181" s="3" t="inlineStr">
-        <is>
-          <t>ساري دار ديك</t>
-        </is>
-      </c>
+      <c r="J181" s="3" t="n"/>
       <c r="K181" s="3" t="n"/>
-      <c r="L181" s="3" t="n"/>
+      <c r="L181" s="3" t="inlineStr">
+        <is>
+          <t>عمر خليل</t>
+        </is>
+      </c>
       <c r="M181" s="3" t="n"/>
+      <c r="N181" s="3" t="n"/>
+      <c r="O181" s="3" t="n"/>
+      <c r="P181" s="3" t="inlineStr">
+        <is>
+          <t>عمر خليل</t>
+        </is>
+      </c>
+      <c r="Q181" s="3" t="n"/>
+      <c r="R181" s="3" t="n"/>
+      <c r="S181" s="3" t="n"/>
     </row>
     <row r="182">
-      <c r="B182" s="3" t="inlineStr"/>
-      <c r="C182" s="3" t="n"/>
-      <c r="D182" s="3" t="n"/>
-      <c r="E182" s="3" t="n"/>
-      <c r="F182" s="3" t="inlineStr"/>
-      <c r="G182" s="3" t="n"/>
-      <c r="H182" s="3" t="n"/>
+      <c r="H182" s="3" t="inlineStr"/>
       <c r="I182" s="3" t="n"/>
-      <c r="J182" s="3" t="inlineStr"/>
+      <c r="J182" s="3" t="n"/>
       <c r="K182" s="3" t="n"/>
-      <c r="L182" s="3" t="n"/>
+      <c r="L182" s="3" t="inlineStr"/>
       <c r="M182" s="3" t="n"/>
+      <c r="N182" s="3" t="n"/>
+      <c r="O182" s="3" t="n"/>
+      <c r="P182" s="3" t="inlineStr"/>
+      <c r="Q182" s="3" t="n"/>
+      <c r="R182" s="3" t="n"/>
+      <c r="S182" s="3" t="n"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>عيادة جراحة الفم والأسنان والفكين 1</t>
-        </is>
-      </c>
-      <c r="F183" s="3" t="inlineStr">
-        <is>
-          <t>10:00 - 12:00</t>
-        </is>
-      </c>
-      <c r="G183" s="3" t="n"/>
-      <c r="H183" s="3" t="n"/>
+          <t>عيادة تشخيص أمراض الفم التسجيل من خلال القسم</t>
+        </is>
+      </c>
+      <c r="H183" s="3" t="inlineStr">
+        <is>
+          <t>11:00 - 13:00</t>
+        </is>
+      </c>
       <c r="I183" s="3" t="n"/>
-      <c r="J183" s="3" t="inlineStr">
-        <is>
-          <t>12:00 - 14:00</t>
-        </is>
-      </c>
+      <c r="J183" s="3" t="n"/>
       <c r="K183" s="3" t="n"/>
-      <c r="L183" s="3" t="n"/>
+      <c r="L183" s="3" t="inlineStr">
+        <is>
+          <t>13:00 - 15:00</t>
+        </is>
+      </c>
       <c r="M183" s="3" t="n"/>
-      <c r="N183" s="3" t="inlineStr">
-        <is>
-          <t>14:00 - 16:00</t>
-        </is>
-      </c>
+      <c r="N183" s="3" t="n"/>
       <c r="O183" s="3" t="n"/>
-      <c r="P183" s="3" t="n"/>
+      <c r="P183" s="3" t="inlineStr">
+        <is>
+          <t>15:00 - 17:00</t>
+        </is>
+      </c>
       <c r="Q183" s="3" t="n"/>
+      <c r="R183" s="3" t="n"/>
+      <c r="S183" s="3" t="n"/>
     </row>
     <row r="184">
-      <c r="F184" s="3" t="inlineStr">
-        <is>
-          <t>وائل حسن</t>
-        </is>
-      </c>
-      <c r="G184" s="3" t="n"/>
-      <c r="H184" s="3" t="n"/>
+      <c r="H184" s="3" t="inlineStr">
+        <is>
+          <t>سفيان السعيد</t>
+        </is>
+      </c>
       <c r="I184" s="3" t="n"/>
-      <c r="J184" s="3" t="inlineStr">
-        <is>
-          <t>وائل حسن</t>
-        </is>
-      </c>
+      <c r="J184" s="3" t="n"/>
       <c r="K184" s="3" t="n"/>
-      <c r="L184" s="3" t="n"/>
+      <c r="L184" s="3" t="inlineStr">
+        <is>
+          <t>حسين هلال</t>
+        </is>
+      </c>
       <c r="M184" s="3" t="n"/>
-      <c r="N184" s="3" t="inlineStr">
-        <is>
-          <t>وائل حسن</t>
-        </is>
-      </c>
+      <c r="N184" s="3" t="n"/>
       <c r="O184" s="3" t="n"/>
-      <c r="P184" s="3" t="n"/>
+      <c r="P184" s="3" t="inlineStr">
+        <is>
+          <t>سفيان السعيد</t>
+        </is>
+      </c>
       <c r="Q184" s="3" t="n"/>
+      <c r="R184" s="3" t="n"/>
+      <c r="S184" s="3" t="n"/>
     </row>
     <row r="185">
-      <c r="F185" s="3" t="inlineStr"/>
-      <c r="G185" s="3" t="n"/>
-      <c r="H185" s="3" t="n"/>
+      <c r="H185" s="3" t="inlineStr"/>
       <c r="I185" s="3" t="n"/>
-      <c r="J185" s="3" t="inlineStr"/>
+      <c r="J185" s="3" t="n"/>
       <c r="K185" s="3" t="n"/>
-      <c r="L185" s="3" t="n"/>
+      <c r="L185" s="3" t="inlineStr"/>
       <c r="M185" s="3" t="n"/>
-      <c r="N185" s="3" t="inlineStr"/>
+      <c r="N185" s="3" t="n"/>
       <c r="O185" s="3" t="n"/>
-      <c r="P185" s="3" t="n"/>
+      <c r="P185" s="3" t="inlineStr"/>
       <c r="Q185" s="3" t="n"/>
+      <c r="R185" s="3" t="n"/>
+      <c r="S185" s="3" t="n"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>عيادة طب الأسنان التحفظي 5</t>
+          <t>عيادة جراحة الفم والأسنان والفكين 1</t>
         </is>
       </c>
       <c r="F186" s="3" t="inlineStr">
@@ -5113,7 +5113,7 @@
     <row r="187">
       <c r="F187" s="3" t="inlineStr">
         <is>
-          <t>حسن حشاش</t>
+          <t>وائل حسن</t>
         </is>
       </c>
       <c r="G187" s="3" t="n"/>
@@ -5121,7 +5121,7 @@
       <c r="I187" s="3" t="n"/>
       <c r="J187" s="3" t="inlineStr">
         <is>
-          <t>حسن حشاش</t>
+          <t>وائل حسن</t>
         </is>
       </c>
       <c r="K187" s="3" t="n"/>
@@ -5129,7 +5129,7 @@
       <c r="M187" s="3" t="n"/>
       <c r="N187" s="3" t="inlineStr">
         <is>
-          <t>حسن حشاش</t>
+          <t>وائل حسن</t>
         </is>
       </c>
       <c r="O187" s="3" t="n"/>
@@ -5689,167 +5689,167 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>إستعاضة سنية متحركة 1/ عملي</t>
-        </is>
-      </c>
-      <c r="B212" s="2" t="inlineStr">
-        <is>
-          <t>8:00 - 11:00</t>
-        </is>
-      </c>
-      <c r="C212" s="2" t="n"/>
-      <c r="D212" s="2" t="n"/>
-      <c r="E212" s="2" t="n"/>
-      <c r="F212" s="2" t="n"/>
-      <c r="G212" s="2" t="n"/>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>11:00 - 14:00</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="n"/>
-      <c r="J212" s="2" t="n"/>
-      <c r="K212" s="2" t="n"/>
-      <c r="L212" s="2" t="n"/>
-      <c r="M212" s="2" t="n"/>
-      <c r="N212" s="2" t="inlineStr">
-        <is>
-          <t>14:00 - 17:00</t>
-        </is>
-      </c>
-      <c r="O212" s="2" t="n"/>
-      <c r="P212" s="2" t="n"/>
-      <c r="Q212" s="2" t="n"/>
-      <c r="R212" s="2" t="n"/>
-      <c r="S212" s="2" t="n"/>
+          <t>عيادة طب الأسنان التحفظي 5</t>
+        </is>
+      </c>
+      <c r="F212" s="3" t="inlineStr">
+        <is>
+          <t>10:00 - 12:00</t>
+        </is>
+      </c>
+      <c r="G212" s="3" t="n"/>
+      <c r="H212" s="3" t="n"/>
+      <c r="I212" s="3" t="n"/>
+      <c r="J212" s="3" t="inlineStr">
+        <is>
+          <t>12:00 - 14:00</t>
+        </is>
+      </c>
+      <c r="K212" s="3" t="n"/>
+      <c r="L212" s="3" t="n"/>
+      <c r="M212" s="3" t="n"/>
+      <c r="N212" s="3" t="inlineStr">
+        <is>
+          <t>14:00 - 16:00</t>
+        </is>
+      </c>
+      <c r="O212" s="3" t="n"/>
+      <c r="P212" s="3" t="n"/>
+      <c r="Q212" s="3" t="n"/>
     </row>
     <row r="213">
-      <c r="B213" s="2" t="inlineStr">
-        <is>
-          <t>نجيب ابو الرب</t>
-        </is>
-      </c>
-      <c r="C213" s="2" t="n"/>
-      <c r="D213" s="2" t="n"/>
-      <c r="E213" s="2" t="n"/>
-      <c r="F213" s="2" t="n"/>
-      <c r="G213" s="2" t="n"/>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>نجيب ابو الرب</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="n"/>
-      <c r="J213" s="2" t="n"/>
-      <c r="K213" s="2" t="n"/>
-      <c r="L213" s="2" t="n"/>
-      <c r="M213" s="2" t="n"/>
-      <c r="N213" s="2" t="inlineStr">
-        <is>
-          <t>لم يحدد</t>
-        </is>
-      </c>
-      <c r="O213" s="2" t="n"/>
-      <c r="P213" s="2" t="n"/>
-      <c r="Q213" s="2" t="n"/>
-      <c r="R213" s="2" t="n"/>
-      <c r="S213" s="2" t="n"/>
+      <c r="F213" s="3" t="inlineStr">
+        <is>
+          <t>حسن حشاش</t>
+        </is>
+      </c>
+      <c r="G213" s="3" t="n"/>
+      <c r="H213" s="3" t="n"/>
+      <c r="I213" s="3" t="n"/>
+      <c r="J213" s="3" t="inlineStr">
+        <is>
+          <t>عبد الرحمن مصطفى</t>
+        </is>
+      </c>
+      <c r="K213" s="3" t="n"/>
+      <c r="L213" s="3" t="n"/>
+      <c r="M213" s="3" t="n"/>
+      <c r="N213" s="3" t="inlineStr">
+        <is>
+          <t>عبد الرحمن مصطفى</t>
+        </is>
+      </c>
+      <c r="O213" s="3" t="n"/>
+      <c r="P213" s="3" t="n"/>
+      <c r="Q213" s="3" t="n"/>
     </row>
     <row r="214">
-      <c r="B214" s="2" t="inlineStr"/>
-      <c r="C214" s="2" t="n"/>
-      <c r="D214" s="2" t="n"/>
-      <c r="E214" s="2" t="n"/>
-      <c r="F214" s="2" t="n"/>
-      <c r="G214" s="2" t="n"/>
-      <c r="H214" s="2" t="inlineStr"/>
-      <c r="I214" s="2" t="n"/>
-      <c r="J214" s="2" t="n"/>
-      <c r="K214" s="2" t="n"/>
-      <c r="L214" s="2" t="n"/>
-      <c r="M214" s="2" t="n"/>
-      <c r="N214" s="2" t="inlineStr"/>
-      <c r="O214" s="2" t="n"/>
-      <c r="P214" s="2" t="n"/>
-      <c r="Q214" s="2" t="n"/>
-      <c r="R214" s="2" t="n"/>
-      <c r="S214" s="2" t="n"/>
+      <c r="F214" s="3" t="inlineStr"/>
+      <c r="G214" s="3" t="n"/>
+      <c r="H214" s="3" t="n"/>
+      <c r="I214" s="3" t="n"/>
+      <c r="J214" s="3" t="inlineStr"/>
+      <c r="K214" s="3" t="n"/>
+      <c r="L214" s="3" t="n"/>
+      <c r="M214" s="3" t="n"/>
+      <c r="N214" s="3" t="inlineStr"/>
+      <c r="O214" s="3" t="n"/>
+      <c r="P214" s="3" t="n"/>
+      <c r="Q214" s="3" t="n"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>عيادة جراحة الفم 1 التسجيل من خلال القسم</t>
-        </is>
-      </c>
-      <c r="B215" s="3" t="inlineStr">
-        <is>
-          <t>8:00 - 10:00</t>
-        </is>
-      </c>
-      <c r="C215" s="3" t="n"/>
-      <c r="D215" s="3" t="n"/>
-      <c r="E215" s="3" t="n"/>
-      <c r="F215" s="3" t="inlineStr">
-        <is>
-          <t>10:00 - 12:00</t>
-        </is>
-      </c>
-      <c r="G215" s="3" t="n"/>
-      <c r="H215" s="3" t="n"/>
-      <c r="I215" s="3" t="n"/>
-      <c r="J215" s="3" t="inlineStr">
-        <is>
-          <t>12:00 - 14:00</t>
-        </is>
-      </c>
-      <c r="K215" s="3" t="n"/>
-      <c r="L215" s="3" t="n"/>
-      <c r="M215" s="3" t="n"/>
+          <t>إستعاضة سنية متحركة 1/ عملي</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>8:00 - 11:00</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="n"/>
+      <c r="D215" s="2" t="n"/>
+      <c r="E215" s="2" t="n"/>
+      <c r="F215" s="2" t="n"/>
+      <c r="G215" s="2" t="n"/>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>11:00 - 14:00</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="n"/>
+      <c r="J215" s="2" t="n"/>
+      <c r="K215" s="2" t="n"/>
+      <c r="L215" s="2" t="n"/>
+      <c r="M215" s="2" t="n"/>
+      <c r="N215" s="2" t="inlineStr">
+        <is>
+          <t>14:00 - 17:00</t>
+        </is>
+      </c>
+      <c r="O215" s="2" t="n"/>
+      <c r="P215" s="2" t="n"/>
+      <c r="Q215" s="2" t="n"/>
+      <c r="R215" s="2" t="n"/>
+      <c r="S215" s="2" t="n"/>
     </row>
     <row r="216">
-      <c r="B216" s="3" t="inlineStr">
-        <is>
-          <t>سفيان السعيد</t>
-        </is>
-      </c>
-      <c r="C216" s="3" t="n"/>
-      <c r="D216" s="3" t="n"/>
-      <c r="E216" s="3" t="n"/>
-      <c r="F216" s="3" t="inlineStr">
-        <is>
-          <t>سفيان السعيد</t>
-        </is>
-      </c>
-      <c r="G216" s="3" t="n"/>
-      <c r="H216" s="3" t="n"/>
-      <c r="I216" s="3" t="n"/>
-      <c r="J216" s="3" t="inlineStr">
-        <is>
-          <t>سفيان السعيد</t>
-        </is>
-      </c>
-      <c r="K216" s="3" t="n"/>
-      <c r="L216" s="3" t="n"/>
-      <c r="M216" s="3" t="n"/>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>نجيب ابو الرب</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="n"/>
+      <c r="D216" s="2" t="n"/>
+      <c r="E216" s="2" t="n"/>
+      <c r="F216" s="2" t="n"/>
+      <c r="G216" s="2" t="n"/>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>نجيب ابو الرب</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="n"/>
+      <c r="J216" s="2" t="n"/>
+      <c r="K216" s="2" t="n"/>
+      <c r="L216" s="2" t="n"/>
+      <c r="M216" s="2" t="n"/>
+      <c r="N216" s="2" t="inlineStr">
+        <is>
+          <t>لم يحدد</t>
+        </is>
+      </c>
+      <c r="O216" s="2" t="n"/>
+      <c r="P216" s="2" t="n"/>
+      <c r="Q216" s="2" t="n"/>
+      <c r="R216" s="2" t="n"/>
+      <c r="S216" s="2" t="n"/>
     </row>
     <row r="217">
-      <c r="B217" s="3" t="inlineStr"/>
-      <c r="C217" s="3" t="n"/>
-      <c r="D217" s="3" t="n"/>
-      <c r="E217" s="3" t="n"/>
-      <c r="F217" s="3" t="inlineStr"/>
-      <c r="G217" s="3" t="n"/>
-      <c r="H217" s="3" t="n"/>
-      <c r="I217" s="3" t="n"/>
-      <c r="J217" s="3" t="inlineStr"/>
-      <c r="K217" s="3" t="n"/>
-      <c r="L217" s="3" t="n"/>
-      <c r="M217" s="3" t="n"/>
+      <c r="B217" s="2" t="inlineStr"/>
+      <c r="C217" s="2" t="n"/>
+      <c r="D217" s="2" t="n"/>
+      <c r="E217" s="2" t="n"/>
+      <c r="F217" s="2" t="n"/>
+      <c r="G217" s="2" t="n"/>
+      <c r="H217" s="2" t="inlineStr"/>
+      <c r="I217" s="2" t="n"/>
+      <c r="J217" s="2" t="n"/>
+      <c r="K217" s="2" t="n"/>
+      <c r="L217" s="2" t="n"/>
+      <c r="M217" s="2" t="n"/>
+      <c r="N217" s="2" t="inlineStr"/>
+      <c r="O217" s="2" t="n"/>
+      <c r="P217" s="2" t="n"/>
+      <c r="Q217" s="2" t="n"/>
+      <c r="R217" s="2" t="n"/>
+      <c r="S217" s="2" t="n"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>عيادة تشخيص أمراض الفم التسجيل من خلال القسم</t>
+          <t>عيادة تركيبات سنية 1</t>
         </is>
       </c>
       <c r="B218" s="3" t="inlineStr">
@@ -5880,7 +5880,7 @@
     <row r="219">
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t>لم يحدد</t>
+          <t>عيسى بنورة</t>
         </is>
       </c>
       <c r="C219" s="3" t="n"/>
@@ -5888,7 +5888,7 @@
       <c r="E219" s="3" t="n"/>
       <c r="F219" s="3" t="inlineStr">
         <is>
-          <t>لم يحدد</t>
+          <t>عيسى بنورة</t>
         </is>
       </c>
       <c r="G219" s="3" t="n"/>
@@ -5896,7 +5896,7 @@
       <c r="I219" s="3" t="n"/>
       <c r="J219" s="3" t="inlineStr">
         <is>
-          <t>لم يحدد</t>
+          <t>عيسى بنورة</t>
         </is>
       </c>
       <c r="K219" s="3" t="n"/>
@@ -5920,7 +5920,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>عيادة علم أمراض اللثة 3</t>
+          <t>عيادة استعاضة سنية متحركة 4</t>
         </is>
       </c>
       <c r="B221" s="3" t="inlineStr">
@@ -5951,7 +5951,7 @@
     <row r="222">
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t>فادي هرش</t>
+          <t>ساري دار ديك</t>
         </is>
       </c>
       <c r="C222" s="3" t="n"/>
@@ -5959,7 +5959,7 @@
       <c r="E222" s="3" t="n"/>
       <c r="F222" s="3" t="inlineStr">
         <is>
-          <t>فادي هرش</t>
+          <t>ساري دار ديك</t>
         </is>
       </c>
       <c r="G222" s="3" t="n"/>
@@ -5967,7 +5967,7 @@
       <c r="I222" s="3" t="n"/>
       <c r="J222" s="3" t="inlineStr">
         <is>
-          <t>فادي هرش</t>
+          <t>ساري دار ديك</t>
         </is>
       </c>
       <c r="K222" s="3" t="n"/>
@@ -5991,7 +5991,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>عيادة تركيبات سنية 1</t>
+          <t>عيادة علم أمراض اللثة 3</t>
         </is>
       </c>
       <c r="B224" s="3" t="inlineStr">
@@ -6022,7 +6022,7 @@
     <row r="225">
       <c r="B225" s="3" t="inlineStr">
         <is>
-          <t>عيسى بنورة</t>
+          <t>فادي هرش</t>
         </is>
       </c>
       <c r="C225" s="3" t="n"/>
@@ -6030,7 +6030,7 @@
       <c r="E225" s="3" t="n"/>
       <c r="F225" s="3" t="inlineStr">
         <is>
-          <t>عيسى بنورة</t>
+          <t>فادي هرش</t>
         </is>
       </c>
       <c r="G225" s="3" t="n"/>
@@ -6038,7 +6038,7 @@
       <c r="I225" s="3" t="n"/>
       <c r="J225" s="3" t="inlineStr">
         <is>
-          <t>عيسى بنورة</t>
+          <t>فادي هرش</t>
         </is>
       </c>
       <c r="K225" s="3" t="n"/>
@@ -6062,7 +6062,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>عيادة استعاضة سنية متحركة 4</t>
+          <t>عيادة جراحة الفم 1 التسجيل من خلال القسم</t>
         </is>
       </c>
       <c r="B227" s="3" t="inlineStr">
@@ -6093,7 +6093,7 @@
     <row r="228">
       <c r="B228" s="3" t="inlineStr">
         <is>
-          <t>ساري دار ديك</t>
+          <t>سفيان السعيد</t>
         </is>
       </c>
       <c r="C228" s="3" t="n"/>
@@ -6101,7 +6101,7 @@
       <c r="E228" s="3" t="n"/>
       <c r="F228" s="3" t="inlineStr">
         <is>
-          <t>ساري دار ديك</t>
+          <t>سفيان السعيد</t>
         </is>
       </c>
       <c r="G228" s="3" t="n"/>
@@ -6109,7 +6109,7 @@
       <c r="I228" s="3" t="n"/>
       <c r="J228" s="3" t="inlineStr">
         <is>
-          <t>ساري دار ديك</t>
+          <t>سفيان السعيد</t>
         </is>
       </c>
       <c r="K228" s="3" t="n"/>
@@ -6133,7 +6133,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>عيادة جراحة الفم والأسنان والفكين 1</t>
+          <t>عيادة تشخيص أمراض الفم التسجيل من خلال القسم</t>
         </is>
       </c>
       <c r="B230" s="3" t="inlineStr">
@@ -6164,7 +6164,7 @@
     <row r="231">
       <c r="B231" s="3" t="inlineStr">
         <is>
-          <t>حسين هلال</t>
+          <t>لم يحدد</t>
         </is>
       </c>
       <c r="C231" s="3" t="n"/>
@@ -6172,7 +6172,7 @@
       <c r="E231" s="3" t="n"/>
       <c r="F231" s="3" t="inlineStr">
         <is>
-          <t>حسين هلال</t>
+          <t>لم يحدد</t>
         </is>
       </c>
       <c r="G231" s="3" t="n"/>
@@ -6180,7 +6180,7 @@
       <c r="I231" s="3" t="n"/>
       <c r="J231" s="3" t="inlineStr">
         <is>
-          <t>حسين هلال</t>
+          <t>لم يحدد</t>
         </is>
       </c>
       <c r="K231" s="3" t="n"/>
@@ -6204,9 +6204,17 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>عيادة طب الأسنان التحفظي 5</t>
-        </is>
-      </c>
+          <t>عيادة جراحة الفم والأسنان والفكين 1</t>
+        </is>
+      </c>
+      <c r="B233" s="3" t="inlineStr">
+        <is>
+          <t>8:00 - 10:00</t>
+        </is>
+      </c>
+      <c r="C233" s="3" t="n"/>
+      <c r="D233" s="3" t="n"/>
+      <c r="E233" s="3" t="n"/>
       <c r="F233" s="3" t="inlineStr">
         <is>
           <t>10:00 - 12:00</t>
@@ -6223,19 +6231,19 @@
       <c r="K233" s="3" t="n"/>
       <c r="L233" s="3" t="n"/>
       <c r="M233" s="3" t="n"/>
-      <c r="N233" s="3" t="inlineStr">
-        <is>
-          <t>14:00 - 16:00</t>
-        </is>
-      </c>
-      <c r="O233" s="3" t="n"/>
-      <c r="P233" s="3" t="n"/>
-      <c r="Q233" s="3" t="n"/>
     </row>
     <row r="234">
+      <c r="B234" s="3" t="inlineStr">
+        <is>
+          <t>حسين هلال</t>
+        </is>
+      </c>
+      <c r="C234" s="3" t="n"/>
+      <c r="D234" s="3" t="n"/>
+      <c r="E234" s="3" t="n"/>
       <c r="F234" s="3" t="inlineStr">
         <is>
-          <t>حسن حشاش</t>
+          <t>حسين هلال</t>
         </is>
       </c>
       <c r="G234" s="3" t="n"/>
@@ -6243,22 +6251,18 @@
       <c r="I234" s="3" t="n"/>
       <c r="J234" s="3" t="inlineStr">
         <is>
-          <t>عبد الرحمن مصطفى</t>
+          <t>حسين هلال</t>
         </is>
       </c>
       <c r="K234" s="3" t="n"/>
       <c r="L234" s="3" t="n"/>
       <c r="M234" s="3" t="n"/>
-      <c r="N234" s="3" t="inlineStr">
-        <is>
-          <t>عبد الرحمن مصطفى</t>
-        </is>
-      </c>
-      <c r="O234" s="3" t="n"/>
-      <c r="P234" s="3" t="n"/>
-      <c r="Q234" s="3" t="n"/>
     </row>
     <row r="235">
+      <c r="B235" s="3" t="inlineStr"/>
+      <c r="C235" s="3" t="n"/>
+      <c r="D235" s="3" t="n"/>
+      <c r="E235" s="3" t="n"/>
       <c r="F235" s="3" t="inlineStr"/>
       <c r="G235" s="3" t="n"/>
       <c r="H235" s="3" t="n"/>
@@ -6267,183 +6271,181 @@
       <c r="K235" s="3" t="n"/>
       <c r="L235" s="3" t="n"/>
       <c r="M235" s="3" t="n"/>
-      <c r="N235" s="3" t="inlineStr"/>
-      <c r="O235" s="3" t="n"/>
-      <c r="P235" s="3" t="n"/>
-      <c r="Q235" s="3" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="674">
     <mergeCell ref="J96:M96"/>
     <mergeCell ref="B201:E201"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="F130:I130"/>
+    <mergeCell ref="F117:I117"/>
     <mergeCell ref="J138:M138"/>
     <mergeCell ref="J76:M76"/>
     <mergeCell ref="P108:S108"/>
-    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="N27:Q27"/>
     <mergeCell ref="B203:E203"/>
-    <mergeCell ref="N83:Q83"/>
     <mergeCell ref="N154:Q154"/>
-    <mergeCell ref="F132:I132"/>
+    <mergeCell ref="P83:S83"/>
+    <mergeCell ref="B217:G217"/>
     <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="B65:G65"/>
     <mergeCell ref="N91:Q91"/>
-    <mergeCell ref="N85:Q85"/>
+    <mergeCell ref="F221:I221"/>
     <mergeCell ref="F196:I196"/>
-    <mergeCell ref="H214:M214"/>
-    <mergeCell ref="F221:I221"/>
     <mergeCell ref="B232:E232"/>
-    <mergeCell ref="F183:I183"/>
-    <mergeCell ref="B215:E215"/>
-    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="P85:S85"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="P84:S84"/>
     <mergeCell ref="F223:I223"/>
     <mergeCell ref="P149:S149"/>
     <mergeCell ref="B110:G110"/>
     <mergeCell ref="J152:M152"/>
-    <mergeCell ref="H166:M166"/>
+    <mergeCell ref="F173:I173"/>
+    <mergeCell ref="P80:S80"/>
+    <mergeCell ref="L180:O180"/>
     <mergeCell ref="B229:E229"/>
-    <mergeCell ref="H67:M67"/>
-    <mergeCell ref="L118:O118"/>
-    <mergeCell ref="J216:M216"/>
+    <mergeCell ref="N167:Q167"/>
+    <mergeCell ref="H168:M168"/>
     <mergeCell ref="L55:O55"/>
-    <mergeCell ref="F185:I185"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="J218:M218"/>
     <mergeCell ref="L147:O147"/>
-    <mergeCell ref="N38:Q38"/>
-    <mergeCell ref="H167:M167"/>
-    <mergeCell ref="J218:M218"/>
     <mergeCell ref="H161:M161"/>
     <mergeCell ref="P98:S98"/>
-    <mergeCell ref="L122:O122"/>
-    <mergeCell ref="L119:O119"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="F56:I56"/>
+    <mergeCell ref="L40:O40"/>
     <mergeCell ref="F105:I105"/>
-    <mergeCell ref="N40:Q40"/>
     <mergeCell ref="F43:I43"/>
     <mergeCell ref="N162:Q162"/>
-    <mergeCell ref="J134:M134"/>
+    <mergeCell ref="H169:M169"/>
+    <mergeCell ref="F176:I176"/>
     <mergeCell ref="N211:Q211"/>
-    <mergeCell ref="H170:K170"/>
     <mergeCell ref="F186:I186"/>
-    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="N177:Q177"/>
+    <mergeCell ref="J71:M71"/>
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="J58:M58"/>
     <mergeCell ref="J163:M163"/>
-    <mergeCell ref="H172:K172"/>
     <mergeCell ref="F57:I57"/>
     <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H184:K184"/>
     <mergeCell ref="N35:Q35"/>
-    <mergeCell ref="H171:K171"/>
+    <mergeCell ref="F171:I171"/>
+    <mergeCell ref="J73:M73"/>
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="J171:M171"/>
+    <mergeCell ref="J165:M165"/>
     <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N24:S24"/>
+    <mergeCell ref="N66:Q66"/>
     <mergeCell ref="J102:M102"/>
     <mergeCell ref="J229:M229"/>
-    <mergeCell ref="H25:K25"/>
     <mergeCell ref="J77:M77"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="L68:O68"/>
-    <mergeCell ref="F133:I133"/>
+    <mergeCell ref="N26:S26"/>
+    <mergeCell ref="L130:O130"/>
+    <mergeCell ref="N155:Q155"/>
+    <mergeCell ref="J166:M166"/>
     <mergeCell ref="N93:Q93"/>
-    <mergeCell ref="N155:Q155"/>
     <mergeCell ref="F204:I204"/>
+    <mergeCell ref="P130:S130"/>
+    <mergeCell ref="B25:G25"/>
     <mergeCell ref="F198:I198"/>
+    <mergeCell ref="L132:O132"/>
     <mergeCell ref="F75:I75"/>
-    <mergeCell ref="F135:I135"/>
     <mergeCell ref="P157:S157"/>
+    <mergeCell ref="B29:E29"/>
     <mergeCell ref="F62:I62"/>
     <mergeCell ref="J191:M191"/>
     <mergeCell ref="N199:Q199"/>
-    <mergeCell ref="P172:S172"/>
-    <mergeCell ref="F28:I28"/>
     <mergeCell ref="F199:I199"/>
     <mergeCell ref="N186:Q186"/>
     <mergeCell ref="B158:E158"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="F39:I39"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="N215:S215"/>
     <mergeCell ref="J232:M232"/>
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="F64:I64"/>
-    <mergeCell ref="N183:Q183"/>
     <mergeCell ref="J219:M219"/>
+    <mergeCell ref="B84:G84"/>
     <mergeCell ref="B153:E153"/>
     <mergeCell ref="B224:E224"/>
     <mergeCell ref="N104:Q104"/>
     <mergeCell ref="F128:I128"/>
-    <mergeCell ref="N41:Q41"/>
+    <mergeCell ref="N212:Q212"/>
     <mergeCell ref="N112:Q112"/>
-    <mergeCell ref="J184:M184"/>
-    <mergeCell ref="F217:I217"/>
+    <mergeCell ref="P41:S41"/>
     <mergeCell ref="N56:Q56"/>
     <mergeCell ref="F192:I192"/>
     <mergeCell ref="B228:E228"/>
     <mergeCell ref="N105:Q105"/>
     <mergeCell ref="N43:Q43"/>
+    <mergeCell ref="N214:Q214"/>
     <mergeCell ref="P99:S99"/>
-    <mergeCell ref="P170:S170"/>
-    <mergeCell ref="H173:K173"/>
+    <mergeCell ref="N70:S70"/>
     <mergeCell ref="F194:I194"/>
     <mergeCell ref="F50:I50"/>
     <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J179:M179"/>
-    <mergeCell ref="F181:I181"/>
+    <mergeCell ref="P36:S36"/>
+    <mergeCell ref="B208:G208"/>
     <mergeCell ref="P107:S107"/>
-    <mergeCell ref="B208:G208"/>
     <mergeCell ref="J16:M16"/>
     <mergeCell ref="J187:M187"/>
     <mergeCell ref="J103:M103"/>
     <mergeCell ref="F141:I141"/>
+    <mergeCell ref="J174:M174"/>
+    <mergeCell ref="H68:M68"/>
     <mergeCell ref="B108:E108"/>
-    <mergeCell ref="L168:O168"/>
     <mergeCell ref="J143:M143"/>
     <mergeCell ref="B143:E143"/>
     <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="B170:G170"/>
+    <mergeCell ref="P183:S183"/>
     <mergeCell ref="F49:I49"/>
+    <mergeCell ref="L182:O182"/>
     <mergeCell ref="N198:Q198"/>
     <mergeCell ref="J92:M92"/>
     <mergeCell ref="P54:S54"/>
-    <mergeCell ref="P173:S173"/>
-    <mergeCell ref="P29:S29"/>
     <mergeCell ref="F78:I78"/>
     <mergeCell ref="N60:S60"/>
     <mergeCell ref="F205:I205"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="F65:I65"/>
     <mergeCell ref="A140:U140"/>
     <mergeCell ref="J87:M87"/>
+    <mergeCell ref="N216:S216"/>
     <mergeCell ref="H6:K6"/>
+    <mergeCell ref="J123:M123"/>
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="N62:Q62"/>
     <mergeCell ref="N109:S109"/>
     <mergeCell ref="B225:E225"/>
-    <mergeCell ref="N176:Q176"/>
     <mergeCell ref="F154:I154"/>
+    <mergeCell ref="J175:M175"/>
     <mergeCell ref="B175:E175"/>
     <mergeCell ref="F129:I129"/>
     <mergeCell ref="J162:M162"/>
     <mergeCell ref="N64:Q64"/>
     <mergeCell ref="F200:I200"/>
-    <mergeCell ref="P120:S120"/>
     <mergeCell ref="N57:Q57"/>
     <mergeCell ref="N128:Q128"/>
-    <mergeCell ref="F131:I131"/>
     <mergeCell ref="J164:M164"/>
-    <mergeCell ref="P171:S171"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="P184:S184"/>
     <mergeCell ref="F220:I220"/>
     <mergeCell ref="A46:U46"/>
-    <mergeCell ref="P121:S121"/>
     <mergeCell ref="F195:I195"/>
-    <mergeCell ref="H24:K24"/>
     <mergeCell ref="J18:M18"/>
     <mergeCell ref="F222:I222"/>
     <mergeCell ref="J42:M42"/>
     <mergeCell ref="F197:I197"/>
-    <mergeCell ref="P123:S123"/>
     <mergeCell ref="J17:M17"/>
-    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="J188:M188"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="H53:K53"/>
     <mergeCell ref="B91:E91"/>
-    <mergeCell ref="H53:K53"/>
     <mergeCell ref="J126:M126"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="J188:M188"/>
+    <mergeCell ref="L82:O82"/>
     <mergeCell ref="N11:Q11"/>
     <mergeCell ref="N204:Q204"/>
     <mergeCell ref="J44:M44"/>
@@ -6452,71 +6454,63 @@
     <mergeCell ref="B155:E155"/>
     <mergeCell ref="B93:E93"/>
     <mergeCell ref="H55:K55"/>
-    <mergeCell ref="F84:I84"/>
     <mergeCell ref="J146:M146"/>
     <mergeCell ref="N75:Q75"/>
     <mergeCell ref="B207:G207"/>
-    <mergeCell ref="N233:Q233"/>
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="B151:E151"/>
     <mergeCell ref="F86:I86"/>
     <mergeCell ref="F142:I142"/>
-    <mergeCell ref="F80:I80"/>
-    <mergeCell ref="N235:Q235"/>
-    <mergeCell ref="B165:G165"/>
-    <mergeCell ref="N213:S213"/>
+    <mergeCell ref="F213:I213"/>
     <mergeCell ref="L14:O14"/>
     <mergeCell ref="F79:I79"/>
     <mergeCell ref="H108:K108"/>
-    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="P39:S39"/>
     <mergeCell ref="F144:I144"/>
-    <mergeCell ref="P70:S70"/>
-    <mergeCell ref="B182:E182"/>
-    <mergeCell ref="F215:I215"/>
     <mergeCell ref="J95:M95"/>
-    <mergeCell ref="F81:I81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="P134:S134"/>
+    <mergeCell ref="H37:K37"/>
     <mergeCell ref="J137:M137"/>
     <mergeCell ref="H59:M59"/>
-    <mergeCell ref="N21:S21"/>
     <mergeCell ref="N88:Q88"/>
     <mergeCell ref="J124:M124"/>
     <mergeCell ref="N61:S61"/>
-    <mergeCell ref="L72:O72"/>
     <mergeCell ref="B177:E177"/>
+    <mergeCell ref="F210:I210"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="J201:M201"/>
     <mergeCell ref="B104:E104"/>
     <mergeCell ref="H61:M61"/>
-    <mergeCell ref="F210:I210"/>
     <mergeCell ref="F226:I226"/>
+    <mergeCell ref="N65:Q65"/>
     <mergeCell ref="J228:M228"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="J203:M203"/>
     <mergeCell ref="B106:E106"/>
-    <mergeCell ref="H65:M65"/>
+    <mergeCell ref="H217:M217"/>
     <mergeCell ref="N129:Q129"/>
     <mergeCell ref="F63:I63"/>
     <mergeCell ref="F234:I234"/>
+    <mergeCell ref="F172:I172"/>
     <mergeCell ref="N50:Q50"/>
-    <mergeCell ref="P25:S25"/>
-    <mergeCell ref="B180:E180"/>
-    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="P131:S131"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J117:M117"/>
     <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="J27:M27"/>
     <mergeCell ref="F94:I94"/>
-    <mergeCell ref="H119:K119"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="H212:M212"/>
-    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L83:O83"/>
     <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J85:M85"/>
     <mergeCell ref="B196:E196"/>
+    <mergeCell ref="L85:O85"/>
     <mergeCell ref="F150:I150"/>
     <mergeCell ref="F125:I125"/>
-    <mergeCell ref="J183:M183"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="L84:O84"/>
     <mergeCell ref="J193:M193"/>
-    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="B127:E127"/>
     <mergeCell ref="P13:S13"/>
     <mergeCell ref="L149:O149"/>
     <mergeCell ref="N78:Q78"/>
@@ -6524,307 +6518,312 @@
     <mergeCell ref="F152:I152"/>
     <mergeCell ref="N205:Q205"/>
     <mergeCell ref="J207:O207"/>
-    <mergeCell ref="B166:G166"/>
     <mergeCell ref="N15:Q15"/>
     <mergeCell ref="J51:M51"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="P71:S71"/>
-    <mergeCell ref="N80:Q80"/>
-    <mergeCell ref="F216:I216"/>
+    <mergeCell ref="L80:O80"/>
     <mergeCell ref="J145:M145"/>
+    <mergeCell ref="B168:G168"/>
     <mergeCell ref="P55:S55"/>
     <mergeCell ref="H159:M159"/>
     <mergeCell ref="N79:Q79"/>
     <mergeCell ref="F87:I87"/>
+    <mergeCell ref="B118:G118"/>
     <mergeCell ref="N144:Q144"/>
-    <mergeCell ref="P73:S73"/>
+    <mergeCell ref="H38:K38"/>
     <mergeCell ref="F218:I218"/>
     <mergeCell ref="H147:K147"/>
-    <mergeCell ref="J38:M38"/>
     <mergeCell ref="J209:M209"/>
     <mergeCell ref="L98:O98"/>
-    <mergeCell ref="P119:S119"/>
     <mergeCell ref="B56:E56"/>
     <mergeCell ref="B105:E105"/>
-    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="B169:G169"/>
     <mergeCell ref="B176:E176"/>
     <mergeCell ref="J211:M211"/>
     <mergeCell ref="J186:M186"/>
     <mergeCell ref="H148:K148"/>
     <mergeCell ref="B107:E107"/>
     <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="B134:G134"/>
     <mergeCell ref="F163:I163"/>
     <mergeCell ref="B57:E57"/>
     <mergeCell ref="F101:I101"/>
-    <mergeCell ref="B121:G121"/>
     <mergeCell ref="J35:M35"/>
-    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B171:E171"/>
     <mergeCell ref="F100:I100"/>
     <mergeCell ref="F231:I231"/>
+    <mergeCell ref="F165:I165"/>
+    <mergeCell ref="L181:O181"/>
     <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="F115:I115"/>
     <mergeCell ref="B9:E9"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="P53:S53"/>
+    <mergeCell ref="J66:M66"/>
     <mergeCell ref="J91:M91"/>
-    <mergeCell ref="P53:S53"/>
-    <mergeCell ref="P28:S28"/>
+    <mergeCell ref="B60:G60"/>
     <mergeCell ref="F102:I102"/>
+    <mergeCell ref="H158:K158"/>
     <mergeCell ref="F229:I229"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="H158:K158"/>
     <mergeCell ref="F77:I77"/>
-    <mergeCell ref="P68:S68"/>
-    <mergeCell ref="J133:M133"/>
     <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="J130:M130"/>
+    <mergeCell ref="F166:I166"/>
     <mergeCell ref="B204:E204"/>
     <mergeCell ref="B198:E198"/>
     <mergeCell ref="H109:M109"/>
+    <mergeCell ref="P132:S132"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="J135:M135"/>
+    <mergeCell ref="L135:O135"/>
     <mergeCell ref="N86:Q86"/>
+    <mergeCell ref="J122:M122"/>
     <mergeCell ref="J153:M153"/>
+    <mergeCell ref="N213:Q213"/>
     <mergeCell ref="F191:I191"/>
     <mergeCell ref="J224:M224"/>
     <mergeCell ref="B227:E227"/>
+    <mergeCell ref="B233:E233"/>
+    <mergeCell ref="J72:M72"/>
     <mergeCell ref="H111:M111"/>
-    <mergeCell ref="N175:Q175"/>
-    <mergeCell ref="F178:I178"/>
     <mergeCell ref="J199:M199"/>
     <mergeCell ref="B202:E202"/>
     <mergeCell ref="B199:E199"/>
-    <mergeCell ref="H213:M213"/>
-    <mergeCell ref="B213:G213"/>
+    <mergeCell ref="B216:G216"/>
     <mergeCell ref="J136:M136"/>
     <mergeCell ref="F3:I3"/>
+    <mergeCell ref="N165:Q165"/>
     <mergeCell ref="A190:U190"/>
-    <mergeCell ref="N81:Q81"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="P81:S81"/>
+    <mergeCell ref="H215:M215"/>
+    <mergeCell ref="J32:M32"/>
     <mergeCell ref="F113:I113"/>
     <mergeCell ref="F232:I232"/>
+    <mergeCell ref="F32:I32"/>
     <mergeCell ref="N160:S160"/>
+    <mergeCell ref="N23:Q23"/>
     <mergeCell ref="F219:I219"/>
     <mergeCell ref="J104:M104"/>
     <mergeCell ref="N159:S159"/>
+    <mergeCell ref="B128:E128"/>
     <mergeCell ref="L54:O54"/>
     <mergeCell ref="P147:S147"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="B217:E217"/>
-    <mergeCell ref="P122:S122"/>
+    <mergeCell ref="J212:M212"/>
+    <mergeCell ref="L41:O41"/>
     <mergeCell ref="N161:S161"/>
-    <mergeCell ref="F27:I27"/>
     <mergeCell ref="J56:M56"/>
     <mergeCell ref="J105:M105"/>
     <mergeCell ref="J43:M43"/>
+    <mergeCell ref="N178:Q178"/>
     <mergeCell ref="N34:Q34"/>
+    <mergeCell ref="H70:M70"/>
     <mergeCell ref="L99:O99"/>
-    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="J214:M214"/>
     <mergeCell ref="B221:E221"/>
-    <mergeCell ref="F179:I179"/>
-    <mergeCell ref="N36:Q36"/>
+    <mergeCell ref="F123:I123"/>
+    <mergeCell ref="L36:O36"/>
     <mergeCell ref="N163:Q163"/>
     <mergeCell ref="N101:Q101"/>
     <mergeCell ref="N113:Q113"/>
+    <mergeCell ref="F116:I116"/>
     <mergeCell ref="F16:I16"/>
     <mergeCell ref="F187:I187"/>
     <mergeCell ref="F103:I103"/>
-    <mergeCell ref="N100:Q100"/>
+    <mergeCell ref="J67:M67"/>
+    <mergeCell ref="B68:G68"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="N94:Q94"/>
+    <mergeCell ref="N100:Q100"/>
     <mergeCell ref="B141:E141"/>
-    <mergeCell ref="H168:K168"/>
+    <mergeCell ref="F174:I174"/>
     <mergeCell ref="J230:M230"/>
-    <mergeCell ref="P69:S69"/>
-    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="H180:K180"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="P158:S158"/>
-    <mergeCell ref="N125:Q125"/>
+    <mergeCell ref="J167:M167"/>
     <mergeCell ref="N77:Q77"/>
-    <mergeCell ref="H169:K169"/>
+    <mergeCell ref="B235:E235"/>
+    <mergeCell ref="L133:O133"/>
     <mergeCell ref="J225:M225"/>
     <mergeCell ref="N127:Q127"/>
     <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N22:S22"/>
+    <mergeCell ref="B215:G215"/>
     <mergeCell ref="N200:Q200"/>
     <mergeCell ref="B205:E205"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="F23:I23"/>
     <mergeCell ref="J227:M227"/>
+    <mergeCell ref="F121:I121"/>
     <mergeCell ref="F96:I96"/>
+    <mergeCell ref="F71:I71"/>
     <mergeCell ref="N31:Q31"/>
     <mergeCell ref="N202:Q202"/>
     <mergeCell ref="F58:I58"/>
-    <mergeCell ref="B23:G23"/>
     <mergeCell ref="F52:I52"/>
-    <mergeCell ref="F37:I37"/>
     <mergeCell ref="J62:M62"/>
-    <mergeCell ref="P24:S24"/>
     <mergeCell ref="N111:S111"/>
     <mergeCell ref="J154:M154"/>
     <mergeCell ref="B154:E154"/>
+    <mergeCell ref="B129:E129"/>
     <mergeCell ref="F162:I162"/>
-    <mergeCell ref="N197:Q197"/>
     <mergeCell ref="J64:M64"/>
-    <mergeCell ref="P26:S26"/>
     <mergeCell ref="P148:S148"/>
     <mergeCell ref="N153:Q153"/>
-    <mergeCell ref="L120:O120"/>
+    <mergeCell ref="N197:Q197"/>
     <mergeCell ref="H156:K156"/>
     <mergeCell ref="B156:E156"/>
-    <mergeCell ref="J180:M180"/>
     <mergeCell ref="J57:M57"/>
-    <mergeCell ref="B131:E131"/>
     <mergeCell ref="J155:M155"/>
     <mergeCell ref="J93:M93"/>
-    <mergeCell ref="N184:Q184"/>
+    <mergeCell ref="L184:O184"/>
     <mergeCell ref="J220:M220"/>
     <mergeCell ref="B223:E223"/>
     <mergeCell ref="B220:E220"/>
     <mergeCell ref="B195:E195"/>
-    <mergeCell ref="L121:O121"/>
     <mergeCell ref="H157:K157"/>
+    <mergeCell ref="N121:Q121"/>
     <mergeCell ref="B231:E231"/>
+    <mergeCell ref="N115:Q115"/>
     <mergeCell ref="J151:M151"/>
     <mergeCell ref="J222:M222"/>
     <mergeCell ref="N42:Q42"/>
     <mergeCell ref="N102:Q102"/>
     <mergeCell ref="F42:I42"/>
-    <mergeCell ref="H165:M165"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="N52:Q52"/>
     <mergeCell ref="F126:I126"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="N179:Q179"/>
     <mergeCell ref="F188:I188"/>
-    <mergeCell ref="N39:Q39"/>
+    <mergeCell ref="H182:K182"/>
     <mergeCell ref="J11:M11"/>
     <mergeCell ref="N44:Q44"/>
     <mergeCell ref="F47:I47"/>
-    <mergeCell ref="N66:S66"/>
+    <mergeCell ref="N166:Q166"/>
+    <mergeCell ref="N116:Q116"/>
     <mergeCell ref="N103:Q103"/>
     <mergeCell ref="J75:M75"/>
+    <mergeCell ref="P37:S37"/>
     <mergeCell ref="P97:S97"/>
-    <mergeCell ref="P168:S168"/>
+    <mergeCell ref="N68:S68"/>
     <mergeCell ref="J233:M233"/>
     <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H183:K183"/>
     <mergeCell ref="F48:I48"/>
     <mergeCell ref="B142:E142"/>
-    <mergeCell ref="J177:M177"/>
     <mergeCell ref="N210:Q210"/>
     <mergeCell ref="J235:M235"/>
     <mergeCell ref="H14:K14"/>
-    <mergeCell ref="J185:M185"/>
-    <mergeCell ref="L70:O70"/>
+    <mergeCell ref="H185:K185"/>
     <mergeCell ref="H106:K106"/>
+    <mergeCell ref="F73:I73"/>
     <mergeCell ref="N32:Q32"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="N63:Q63"/>
-    <mergeCell ref="N134:Q134"/>
+    <mergeCell ref="L134:O134"/>
     <mergeCell ref="F137:I137"/>
+    <mergeCell ref="B24:G24"/>
     <mergeCell ref="J88:M88"/>
     <mergeCell ref="F124:I124"/>
     <mergeCell ref="N96:Q96"/>
     <mergeCell ref="F74:I74"/>
     <mergeCell ref="F201:I201"/>
-    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="B26:G26"/>
     <mergeCell ref="F114:I114"/>
-    <mergeCell ref="B72:G72"/>
     <mergeCell ref="F138:I138"/>
-    <mergeCell ref="J182:M182"/>
-    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="J65:M65"/>
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="F203:I203"/>
-    <mergeCell ref="J132:M132"/>
-    <mergeCell ref="N212:S212"/>
+    <mergeCell ref="H132:K132"/>
     <mergeCell ref="B157:E157"/>
     <mergeCell ref="J234:M234"/>
+    <mergeCell ref="J172:M172"/>
+    <mergeCell ref="B234:E234"/>
     <mergeCell ref="B34:E34"/>
-    <mergeCell ref="L123:O123"/>
     <mergeCell ref="P156:S156"/>
+    <mergeCell ref="B172:E172"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="N123:Q123"/>
     <mergeCell ref="J196:M196"/>
     <mergeCell ref="J221:M221"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="N214:S214"/>
     <mergeCell ref="B92:E92"/>
     <mergeCell ref="A90:U90"/>
-    <mergeCell ref="B30:E30"/>
     <mergeCell ref="N187:Q187"/>
     <mergeCell ref="J223:M223"/>
     <mergeCell ref="F92:I92"/>
     <mergeCell ref="H110:M110"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="N124:Q124"/>
-    <mergeCell ref="P118:S118"/>
-    <mergeCell ref="N67:S67"/>
+    <mergeCell ref="P180:S180"/>
     <mergeCell ref="N59:S59"/>
-    <mergeCell ref="N126:Q126"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="P182:S182"/>
     <mergeCell ref="F112:I112"/>
+    <mergeCell ref="P38:S38"/>
     <mergeCell ref="B150:E150"/>
     <mergeCell ref="B125:E125"/>
-    <mergeCell ref="P169:S169"/>
+    <mergeCell ref="N69:S69"/>
     <mergeCell ref="J112:M112"/>
     <mergeCell ref="F193:I193"/>
     <mergeCell ref="F127:I127"/>
-    <mergeCell ref="J84:M84"/>
     <mergeCell ref="L13:O13"/>
+    <mergeCell ref="B85:G85"/>
     <mergeCell ref="J78:M78"/>
+    <mergeCell ref="P40:S40"/>
     <mergeCell ref="J127:M127"/>
     <mergeCell ref="B152:E152"/>
+    <mergeCell ref="J176:M176"/>
     <mergeCell ref="J15:M15"/>
     <mergeCell ref="F51:I51"/>
-    <mergeCell ref="L71:O71"/>
-    <mergeCell ref="J80:M80"/>
+    <mergeCell ref="N71:Q71"/>
     <mergeCell ref="F145:I145"/>
-    <mergeCell ref="J178:M178"/>
-    <mergeCell ref="B181:E181"/>
     <mergeCell ref="N58:Q58"/>
     <mergeCell ref="N110:S110"/>
-    <mergeCell ref="L172:O172"/>
     <mergeCell ref="J79:M79"/>
-    <mergeCell ref="L73:O73"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="L171:O171"/>
+    <mergeCell ref="N73:Q73"/>
     <mergeCell ref="F209:I209"/>
-    <mergeCell ref="B167:G167"/>
     <mergeCell ref="B111:G111"/>
     <mergeCell ref="N137:Q137"/>
+    <mergeCell ref="J173:M173"/>
     <mergeCell ref="F211:I211"/>
+    <mergeCell ref="F67:I67"/>
     <mergeCell ref="H60:M60"/>
     <mergeCell ref="L148:O148"/>
     <mergeCell ref="P106:S106"/>
-    <mergeCell ref="F82:I82"/>
     <mergeCell ref="J33:M33"/>
     <mergeCell ref="J204:M204"/>
     <mergeCell ref="J198:M198"/>
     <mergeCell ref="N114:Q114"/>
-    <mergeCell ref="L170:O170"/>
+    <mergeCell ref="B173:E173"/>
     <mergeCell ref="J231:M231"/>
-    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="H181:K181"/>
     <mergeCell ref="N188:Q188"/>
-    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="J28:M28"/>
     <mergeCell ref="L53:O53"/>
-    <mergeCell ref="L28:O28"/>
     <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N117:Q117"/>
     <mergeCell ref="F95:I95"/>
     <mergeCell ref="B109:G109"/>
     <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B22:G22"/>
     <mergeCell ref="J86:M86"/>
+    <mergeCell ref="F122:I122"/>
     <mergeCell ref="F153:I153"/>
     <mergeCell ref="F224:I224"/>
+    <mergeCell ref="F72:I72"/>
     <mergeCell ref="B178:E178"/>
+    <mergeCell ref="P185:S185"/>
     <mergeCell ref="J128:M128"/>
     <mergeCell ref="B226:E226"/>
     <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F184:I184"/>
-    <mergeCell ref="J217:M217"/>
     <mergeCell ref="J192:M192"/>
-    <mergeCell ref="L173:O173"/>
+    <mergeCell ref="L81:O81"/>
     <mergeCell ref="B222:E222"/>
     <mergeCell ref="J129:M129"/>
-    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="J23:M23"/>
     <mergeCell ref="J194:M194"/>
     <mergeCell ref="B197:E197"/>
     <mergeCell ref="N74:Q74"/>
     <mergeCell ref="F88:I88"/>
     <mergeCell ref="N145:Q145"/>
-    <mergeCell ref="J181:M181"/>
     <mergeCell ref="N201:Q201"/>
     <mergeCell ref="J208:O208"/>
     <mergeCell ref="F44:I44"/>
@@ -6836,115 +6835,116 @@
     <mergeCell ref="F146:I146"/>
     <mergeCell ref="N203:Q203"/>
     <mergeCell ref="J141:M141"/>
-    <mergeCell ref="N174:Q174"/>
+    <mergeCell ref="F212:I212"/>
     <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="F83:I83"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="N217:S217"/>
     <mergeCell ref="F143:I143"/>
-    <mergeCell ref="N65:S65"/>
-    <mergeCell ref="B212:G212"/>
+    <mergeCell ref="F214:I214"/>
     <mergeCell ref="J34:M34"/>
     <mergeCell ref="B206:G206"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F85:I85"/>
+    <mergeCell ref="H36:K36"/>
     <mergeCell ref="B179:E179"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="N25:S25"/>
     <mergeCell ref="J101:M101"/>
     <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="N67:Q67"/>
     <mergeCell ref="J100:M100"/>
-    <mergeCell ref="L29:O29"/>
     <mergeCell ref="B103:E103"/>
+    <mergeCell ref="B174:E174"/>
     <mergeCell ref="J94:M94"/>
-    <mergeCell ref="B174:E174"/>
+    <mergeCell ref="N29:Q29"/>
     <mergeCell ref="J205:M205"/>
     <mergeCell ref="B230:E230"/>
     <mergeCell ref="F230:I230"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="L69:O69"/>
+    <mergeCell ref="H80:K80"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J31:M31"/>
-    <mergeCell ref="B67:G67"/>
     <mergeCell ref="B61:G61"/>
+    <mergeCell ref="F167:I167"/>
     <mergeCell ref="N87:Q87"/>
     <mergeCell ref="J125:M125"/>
-    <mergeCell ref="N133:Q133"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="H69:M69"/>
     <mergeCell ref="F136:I136"/>
-    <mergeCell ref="L169:O169"/>
+    <mergeCell ref="P133:S133"/>
+    <mergeCell ref="B69:G69"/>
     <mergeCell ref="F225:I225"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="F4:I4"/>
-    <mergeCell ref="N135:Q135"/>
+    <mergeCell ref="F175:I175"/>
+    <mergeCell ref="P135:S135"/>
     <mergeCell ref="J200:M200"/>
     <mergeCell ref="B200:E200"/>
     <mergeCell ref="B194:E194"/>
     <mergeCell ref="F227:I227"/>
     <mergeCell ref="F202:I202"/>
-    <mergeCell ref="J131:M131"/>
     <mergeCell ref="N164:Q164"/>
+    <mergeCell ref="H170:M170"/>
     <mergeCell ref="J202:M202"/>
-    <mergeCell ref="N234:Q234"/>
     <mergeCell ref="B58:E58"/>
     <mergeCell ref="N209:Q209"/>
+    <mergeCell ref="H216:M216"/>
     <mergeCell ref="J195:M195"/>
-    <mergeCell ref="L24:O24"/>
     <mergeCell ref="N18:Q18"/>
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="J197:M197"/>
     <mergeCell ref="N17:Q17"/>
-    <mergeCell ref="L26:O26"/>
     <mergeCell ref="F91:I91"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="N82:Q82"/>
-    <mergeCell ref="B214:G214"/>
-    <mergeCell ref="F180:I180"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="P82:S82"/>
+    <mergeCell ref="F22:I22"/>
     <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="F155:I155"/>
     <mergeCell ref="F93:I93"/>
     <mergeCell ref="J113:M113"/>
+    <mergeCell ref="B120:G120"/>
     <mergeCell ref="N146:Q146"/>
     <mergeCell ref="H149:K149"/>
+    <mergeCell ref="F155:I155"/>
+    <mergeCell ref="P181:S181"/>
     <mergeCell ref="J50:M50"/>
     <mergeCell ref="P12:S12"/>
+    <mergeCell ref="J121:M121"/>
     <mergeCell ref="B124:E124"/>
+    <mergeCell ref="J115:M115"/>
     <mergeCell ref="F151:I151"/>
     <mergeCell ref="J142:M142"/>
     <mergeCell ref="J206:O206"/>
-    <mergeCell ref="B216:E216"/>
+    <mergeCell ref="J213:M213"/>
     <mergeCell ref="J52:M52"/>
     <mergeCell ref="P14:S14"/>
     <mergeCell ref="B126:E126"/>
     <mergeCell ref="J150:M150"/>
-    <mergeCell ref="J39:M39"/>
     <mergeCell ref="J144:M144"/>
-    <mergeCell ref="H66:M66"/>
     <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F182:I182"/>
-    <mergeCell ref="J215:M215"/>
     <mergeCell ref="B218:E218"/>
     <mergeCell ref="N95:Q95"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="L131:O131"/>
+    <mergeCell ref="J116:M116"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="B133:G133"/>
     <mergeCell ref="L97:O97"/>
-    <mergeCell ref="N37:Q37"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="F233:I233"/>
     <mergeCell ref="H160:M160"/>
+    <mergeCell ref="L183:O183"/>
+    <mergeCell ref="N72:Q72"/>
     <mergeCell ref="B48:E48"/>
     <mergeCell ref="B219:E219"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="F177:I177"/>
     <mergeCell ref="J210:M210"/>
     <mergeCell ref="F104:I104"/>
+    <mergeCell ref="B135:G135"/>
     <mergeCell ref="F164:I164"/>
     <mergeCell ref="F235:I235"/>
     <mergeCell ref="J226:M226"/>
+    <mergeCell ref="L185:O185"/>
     <mergeCell ref="N136:Q136"/>
-    <mergeCell ref="N185:Q185"/>
     <mergeCell ref="F41:I41"/>
-    <mergeCell ref="H70:K70"/>
     <mergeCell ref="F228:I228"/>
     <mergeCell ref="H7:K7"/>
-    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="B70:G70"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="J63:M63"/>
     <mergeCell ref="H99:K99"/>
@@ -6959,7 +6959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6986,6 +6986,8 @@
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="6" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7084,11 +7086,21 @@
           <t>15:30-16:00</t>
         </is>
       </c>
+      <c r="T1" s="4" t="inlineStr">
+        <is>
+          <t>16:00-16:30</t>
+        </is>
+      </c>
+      <c r="U1" s="4" t="inlineStr">
+        <is>
+          <t>16:30-17:00</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>اربعاء</t>
+          <t>ثلاث</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -7098,33 +7110,47 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>221280</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" s="5" t="inlineStr">
-        <is>
-          <t>علم المناعة للصيدلة وطب الأسنان (فايزه حسين)</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+          <t>261030</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>تقويم الأسنان 1 (دينا بكر)</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>تقويم الأسنان 1 (دينا بكر)</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="inlineStr">
+        <is>
+          <t>علم امراض اللثة 1 (فادي هرش)</t>
+        </is>
+      </c>
+      <c r="J2" s="7" t="inlineStr">
+        <is>
+          <t>علم التشريح والأجنة السني (لم يحدد)</t>
+        </is>
+      </c>
+      <c r="M2" s="7" t="inlineStr">
+        <is>
+          <t>علم التشريح والأجنة السني (لم يحدد)</t>
+        </is>
+      </c>
+      <c r="P2" s="7" t="inlineStr">
+        <is>
+          <t>علم التشريح والأجنة السني (لم يحدد)</t>
+        </is>
+      </c>
       <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>اربعاء</t>
+          <t>ثلاث</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -7134,45 +7160,35 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>261030</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" s="6" t="inlineStr">
-        <is>
-          <t>تقويم الأسنان 1 (دينا بكر)</t>
-        </is>
-      </c>
-      <c r="H3" s="7" t="inlineStr">
-        <is>
-          <t>جراحة الفم 1 (حسين هلال)</t>
-        </is>
-      </c>
-      <c r="J3" s="6" t="inlineStr">
-        <is>
-          <t>تقويم الأسنان 1 (دينا بكر)</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" s="8" t="inlineStr">
-        <is>
-          <t>طب الفم 1 (لم يحدد)</t>
-        </is>
-      </c>
-      <c r="P3" s="9" t="inlineStr">
-        <is>
-          <t>إستعاضة سنية متحركة 1 (عيسى بنورة)</t>
-        </is>
-      </c>
+          <t>24B1010</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>علم أمراض الفم والوجه والفكين (حسناء مكاوي)</t>
+        </is>
+      </c>
+      <c r="H3" s="8" t="inlineStr">
+        <is>
+          <t>علم أمراض الفم والوجه والفكين (حسناء مكاوي)</t>
+        </is>
+      </c>
+      <c r="L3" s="8" t="inlineStr">
+        <is>
+          <t>علم أمراض الفم والوجه والفكين (حسناء مكاوي)</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>اربعاء</t>
+          <t>ثلاث</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -7185,31 +7201,34 @@
           <t>272150</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>تقويم الأسنان 1 (دينا بكر)</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" s="10" t="inlineStr">
-        <is>
-          <t>أشعة الوجه والفكين 1 (مجد برهم)</t>
-        </is>
-      </c>
-      <c r="J4" s="11" t="inlineStr">
-        <is>
-          <t>تشخيص أمراض الفم (لم يحدد)</t>
-        </is>
-      </c>
-      <c r="L4" s="12" t="inlineStr">
-        <is>
-          <t>علم المواد السنية 1 (عفاف النجاجره)</t>
-        </is>
-      </c>
-      <c r="N4" s="12" t="inlineStr">
-        <is>
-          <t>علم المواد السنية 1 (عفاف النجاجره)</t>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>إستعاضة سنية متحركة 1 (محمود حساسنة)</t>
+        </is>
+      </c>
+      <c r="F4" s="9" t="inlineStr">
+        <is>
+          <t>إستعاضة سنية متحركة 1 (محمود حساسنة)</t>
+        </is>
+      </c>
+      <c r="H4" s="9" t="inlineStr">
+        <is>
+          <t>إستعاضة سنية متحركة 1 (محمود حساسنة)</t>
+        </is>
+      </c>
+      <c r="J4" s="10" t="inlineStr">
+        <is>
+          <t>علم المواد السنية 1 (نجيب ابو الرب)</t>
+        </is>
+      </c>
+      <c r="L4" s="10" t="inlineStr">
+        <is>
+          <t>علم المواد السنية 1 (عيسى بنورة)</t>
+        </is>
+      </c>
+      <c r="N4" s="10" t="inlineStr">
+        <is>
+          <t>علم المواد السنية 1 (عيسى بنورة)</t>
         </is>
       </c>
       <c r="P4" s="11" t="inlineStr">
@@ -7219,11 +7238,13 @@
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>اربعاء</t>
+          <t>ثلاث</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -7233,42 +7254,47 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10F1040</t>
+          <t>24B1090</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" s="13" t="inlineStr">
-        <is>
-          <t>مداواة الأسنان اللبية 2 (اسامه عامودي)</t>
-        </is>
-      </c>
-      <c r="H5" s="13" t="inlineStr">
-        <is>
-          <t>مداواة الأسنان اللبية 2 (اسامه عامودي)</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" s="12" t="inlineStr">
+        <is>
+          <t>جراحة الفم 1 (سفيان السعيد)</t>
         </is>
       </c>
       <c r="J5" s="13" t="inlineStr">
         <is>
-          <t>مداواة الأسنان اللبية 2 (اسامه عامودي)</t>
-        </is>
-      </c>
-      <c r="L5" s="7" t="inlineStr">
-        <is>
-          <t>جراحة الفم 1 (حسين هلال)</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+          <t>طب الأسنان الوقائي وعلم التسوس 2 (لم يحدد)</t>
+        </is>
+      </c>
+      <c r="L5" s="13" t="inlineStr">
+        <is>
+          <t>طب الأسنان الوقائي وعلم التسوس 2 (لم يحدد)</t>
+        </is>
+      </c>
+      <c r="N5" s="13" t="inlineStr">
+        <is>
+          <t>طب الأسنان الوقائي وعلم التسوس 2 (لم يحدد)</t>
+        </is>
+      </c>
+      <c r="P5" s="14" t="inlineStr">
+        <is>
+          <t>أشعة الوجه والفكين 1 (مجد برهم)</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>اربعاء</t>
+          <t>ثلاث</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -7278,41 +7304,34 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>509999</t>
+          <t>264020</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" s="14" t="inlineStr">
-        <is>
-          <t>أخلاقيات المهنة لطب الأسنان (نبيل مسعد)</t>
-        </is>
-      </c>
-      <c r="J6" s="8" t="inlineStr">
-        <is>
-          <t>طب الفم 1 (لم يحدد)</t>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" s="15" t="inlineStr">
+        <is>
+          <t>علم الأدوية والعلاج لطب الأسنان (قصي شاهد)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" s="15" t="inlineStr">
-        <is>
-          <t>علم الأحياء الدقيقة الفموي (ذكريات بدرساوي)</t>
-        </is>
-      </c>
-      <c r="P6" s="15" t="inlineStr">
-        <is>
-          <t>علم الأحياء الدقيقة الفموي (ذكريات بدرساوي)</t>
-        </is>
-      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>اربعاء</t>
+          <t>ثلاث</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -7322,7 +7341,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>260040</t>
+          <t>221060</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -7331,23 +7350,25 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" s="16" t="inlineStr">
-        <is>
-          <t>علم التشريح والأجنة السني (لم يحدد)</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" s="15" t="inlineStr">
+        <is>
+          <t>علم الأدوية والعلاج لطب الأسنان (قصي شاهد)</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>اربعاء</t>
+          <t>ثلاث</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -7357,32 +7378,34 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>220120</t>
+          <t>260070</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="G8" s="15" t="inlineStr">
+        <is>
+          <t>علم الأدوية والعلاج لطب الأسنان (قصي شاهد)</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" s="16" t="inlineStr">
-        <is>
-          <t>علم التشريح والأجنة السني (لم يحدد)</t>
-        </is>
-      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>اربعاء</t>
+          <t>ثلاث</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -7392,38 +7415,38 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>24B1010</t>
-        </is>
-      </c>
-      <c r="D9" s="17" t="inlineStr">
-        <is>
-          <t>طب الأسنان التحفظي 1 (ابتهال بشتاوي)</t>
+          <t>509999</t>
+        </is>
+      </c>
+      <c r="D9" s="11" t="inlineStr">
+        <is>
+          <t>تشخيص أمراض الفم (لم يحدد)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" s="18" t="inlineStr">
-        <is>
-          <t>علم أمراض الفم والوجه والفكين (حسناء مكاوي)</t>
-        </is>
-      </c>
-      <c r="L9" s="18" t="inlineStr">
-        <is>
-          <t>علم أمراض الفم والوجه والفكين (حسناء مكاوي)</t>
-        </is>
-      </c>
-      <c r="P9" s="19" t="inlineStr">
-        <is>
-          <t>علم امراض اللثة 1 (احمد دوايمه)</t>
-        </is>
-      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" s="16" t="inlineStr">
+        <is>
+          <t>علم الأحياء الدقيقة الفموي (ذكريات بدرساوي)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>اربعاء</t>
+          <t>ثلاث</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -7433,51 +7456,38 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>24B1090</t>
-        </is>
-      </c>
-      <c r="D10" s="17" t="inlineStr">
-        <is>
-          <t>طب الأسنان التحفظي 1 (عبد الرحمن مصطفى)</t>
-        </is>
-      </c>
-      <c r="F10" s="17" t="inlineStr">
-        <is>
-          <t>طب الأسنان التحفظي 1 (ابتهال بشتاوي)</t>
-        </is>
-      </c>
-      <c r="H10" s="17" t="inlineStr">
-        <is>
-          <t>طب الأسنان التحفظي 1 (عبد الرحمن مصطفى)</t>
-        </is>
-      </c>
-      <c r="J10" s="9" t="inlineStr">
-        <is>
-          <t>إستعاضة سنية متحركة 1 (عيسى بنورة)</t>
-        </is>
-      </c>
-      <c r="L10" s="20" t="inlineStr">
-        <is>
-          <t>طب الأسنان الوقائي وعلم التسوس 2 (لم يحدد)</t>
-        </is>
-      </c>
-      <c r="N10" s="20" t="inlineStr">
-        <is>
-          <t>طب الأسنان الوقائي وعلم التسوس 2 (لم يحدد)</t>
-        </is>
-      </c>
-      <c r="P10" s="10" t="inlineStr">
-        <is>
-          <t>أشعة الوجه والفكين 1 (مجد برهم)</t>
-        </is>
-      </c>
+          <t>17B3030</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" s="16" t="inlineStr">
+        <is>
+          <t>علم الأحياء الدقيقة الفموي (ذكريات بدرساوي)</t>
+        </is>
+      </c>
+      <c r="N10" s="16" t="inlineStr">
+        <is>
+          <t>علم الأحياء الدقيقة الفموي (ذكريات بدرساوي)</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>اربعاء</t>
+          <t>ثلاث</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -7487,7 +7497,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>260070</t>
+          <t>29G0330</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -7499,20 +7509,23 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" s="21" t="inlineStr">
-        <is>
-          <t>علم الأدوية والعلاج لطب الأسنان (قصي شاهد)</t>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" s="14" t="inlineStr">
+        <is>
+          <t>أشعة الوجه والفكين 1 (مجد برهم)</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>اربعاء</t>
+          <t>ثلاث</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -7522,36 +7535,44 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>220110</t>
+          <t>10F1040</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" s="19" t="inlineStr">
-        <is>
-          <t>علم امراض اللثة 1 (احمد دوايمه)</t>
-        </is>
-      </c>
-      <c r="N12" s="10" t="inlineStr">
-        <is>
-          <t>أشعة الوجه والفكين 1 (مجد برهم)</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
+      <c r="H12" s="11" t="inlineStr">
+        <is>
+          <t>تشخيص أمراض الفم (لم يحدد)</t>
+        </is>
+      </c>
+      <c r="J12" s="17" t="inlineStr">
+        <is>
+          <t>علم الإطباق السني (ميس عوده)</t>
+        </is>
+      </c>
+      <c r="L12" s="12" t="inlineStr">
+        <is>
+          <t>جراحة الفم 1 (عمر خليل)</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" s="12" t="inlineStr">
+        <is>
+          <t>جراحة الفم 1 (لم يحدد)</t>
+        </is>
+      </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>اربعاء</t>
+          <t>ثلاث</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -7561,7 +7582,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>261020</t>
+          <t>260040</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -7572,122 +7593,95 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" s="8" t="inlineStr">
-        <is>
-          <t>طب الفم 1 (لم يحدد)</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr">
+        <is>
+          <t>علم امراض اللثة 1 (احمد دوايمه)</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>اربعاء</t>
+          <t>ثلاث</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>القديم</t>
+          <t>الجديد</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>72100</t>
-        </is>
-      </c>
-      <c r="D14" s="22" t="inlineStr">
-        <is>
-          <t>طب الأسنان التحفظي 5 (حسن حشاش)</t>
-        </is>
-      </c>
-      <c r="F14" s="22" t="inlineStr">
-        <is>
-          <t>طب الأسنان التحفظي 5 (حسن حشاش)</t>
-        </is>
-      </c>
+          <t>261020</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" s="23" t="inlineStr">
-        <is>
-          <t>جراحة الفم والأسنان والفكين 1 (حسين هلال)</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" s="24" t="inlineStr">
-        <is>
-          <t>طب الفم الوقائي المجتمعي (لم يحدد)</t>
-        </is>
-      </c>
-      <c r="P14" s="25" t="inlineStr">
-        <is>
-          <t>طب أسنان الأطفال 1 (غالب فادري)</t>
-        </is>
-      </c>
-      <c r="R14" s="23" t="inlineStr">
-        <is>
-          <t>جراحة الفم والأسنان والفكين 1 (حسين هلال)</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" s="6" t="inlineStr">
+        <is>
+          <t>علم امراض اللثة 1 (احمد دوايمه)</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>اربعاء</t>
+          <t>ثلاث</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>القديم</t>
+          <t>الجديد</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>72110</t>
-        </is>
-      </c>
-      <c r="D15" s="14" t="inlineStr">
-        <is>
-          <t>أخلاقيات المهنة لطب الأسنان (نبيل مسعد)</t>
-        </is>
-      </c>
-      <c r="F15" s="14" t="inlineStr">
-        <is>
-          <t>أخلاقيات المهنة لطب الأسنان (نبيل مسعد)</t>
-        </is>
-      </c>
+          <t>260030</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" s="26" t="inlineStr">
-        <is>
-          <t>علم أمراض اللثة 3 (لم يحدد)</t>
-        </is>
-      </c>
-      <c r="L15" s="25" t="inlineStr">
-        <is>
-          <t>طب أسنان الأطفال 1 (غالب فادري)</t>
-        </is>
-      </c>
-      <c r="N15" s="25" t="inlineStr">
-        <is>
-          <t>طب أسنان الأطفال 1 (غالب فادري)</t>
-        </is>
-      </c>
-      <c r="P15" s="26" t="inlineStr">
-        <is>
-          <t>علم أمراض اللثة 3 (لم يحدد)</t>
-        </is>
-      </c>
-      <c r="R15" s="24" t="inlineStr">
-        <is>
-          <t>طب الفم الوقائي المجتمعي (لم يحدد)</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" s="18" t="inlineStr">
+        <is>
+          <t>طب الفم 1 (لم يحدد)</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7702,40 +7696,30 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>261030</t>
-        </is>
-      </c>
-      <c r="D16" s="6" t="inlineStr">
-        <is>
-          <t>تقويم الأسنان 1 (دينا بكر)</t>
-        </is>
-      </c>
-      <c r="F16" s="6" t="inlineStr">
-        <is>
-          <t>تقويم الأسنان 1 (دينا بكر)</t>
-        </is>
-      </c>
-      <c r="H16" s="19" t="inlineStr">
-        <is>
-          <t>علم امراض اللثة 1 (فادي هرش)</t>
-        </is>
-      </c>
-      <c r="J16" s="16" t="inlineStr">
-        <is>
-          <t>علم التشريح والأجنة السني (لم يحدد)</t>
-        </is>
-      </c>
-      <c r="M16" s="16" t="inlineStr">
-        <is>
-          <t>علم التشريح والأجنة السني (لم يحدد)</t>
-        </is>
-      </c>
-      <c r="P16" s="16" t="inlineStr">
-        <is>
-          <t>علم التشريح والأجنة السني (لم يحدد)</t>
-        </is>
-      </c>
+          <t>220110</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" s="18" t="inlineStr">
+        <is>
+          <t>طب الفم 1 (لم يحدد)</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7745,33 +7729,47 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>الجديد</t>
+          <t>القديم</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>24B1010</t>
-        </is>
-      </c>
-      <c r="D17" s="18" t="inlineStr">
-        <is>
-          <t>علم أمراض الفم والوجه والفكين (حسناء مكاوي)</t>
-        </is>
-      </c>
-      <c r="H17" s="18" t="inlineStr">
-        <is>
-          <t>علم أمراض الفم والوجه والفكين (حسناء مكاوي)</t>
-        </is>
-      </c>
-      <c r="L17" s="18" t="inlineStr">
-        <is>
-          <t>علم أمراض الفم والوجه والفكين (حسناء مكاوي)</t>
+          <t>72100</t>
+        </is>
+      </c>
+      <c r="D17" s="19" t="inlineStr">
+        <is>
+          <t>جراحة الفم والأسنان والفكين 1 (عمر خليل)</t>
+        </is>
+      </c>
+      <c r="F17" s="20" t="inlineStr">
+        <is>
+          <t>مداواة الأسنان اللبية 4 (اسامه عامودي)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" s="19" t="inlineStr">
+        <is>
+          <t>جراحة الفم والأسنان والفكين 1 (عمر خليل)</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" s="21" t="inlineStr">
+        <is>
+          <t>طب أسنان الأطفال 1 (رينا عابد)</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+      <c r="R17" s="19" t="inlineStr">
+        <is>
+          <t>جراحة الفم والأسنان والفكين 1 (لم يحدد)</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7781,51 +7779,53 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>الجديد</t>
+          <t>القديم</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>272150</t>
-        </is>
-      </c>
-      <c r="D18" s="9" t="inlineStr">
-        <is>
-          <t>إستعاضة سنية متحركة 1 (محمود حساسنة)</t>
-        </is>
-      </c>
-      <c r="F18" s="9" t="inlineStr">
-        <is>
-          <t>إستعاضة سنية متحركة 1 (محمود حساسنة)</t>
-        </is>
-      </c>
-      <c r="H18" s="9" t="inlineStr">
-        <is>
-          <t>إستعاضة سنية متحركة 1 (محمود حساسنة)</t>
-        </is>
-      </c>
-      <c r="J18" s="12" t="inlineStr">
-        <is>
-          <t>علم المواد السنية 1 (نجيب ابو الرب)</t>
-        </is>
-      </c>
-      <c r="L18" s="12" t="inlineStr">
-        <is>
-          <t>علم المواد السنية 1 (عيسى بنورة)</t>
-        </is>
-      </c>
-      <c r="N18" s="12" t="inlineStr">
-        <is>
-          <t>علم المواد السنية 1 (عيسى بنورة)</t>
-        </is>
-      </c>
-      <c r="P18" s="11" t="inlineStr">
-        <is>
-          <t>تشخيص أمراض الفم (لم يحدد)</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
+          <t>72110</t>
+        </is>
+      </c>
+      <c r="D18" s="20" t="inlineStr">
+        <is>
+          <t>مداواة الأسنان اللبية 4 (اسامه عامودي)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" s="22" t="inlineStr">
+        <is>
+          <t>استعاضة سنية متحركة 4 (ميس عوده)</t>
+        </is>
+      </c>
+      <c r="J18" s="23" t="inlineStr">
+        <is>
+          <t>علم أمراض اللثة 3 (فادي هرش)</t>
+        </is>
+      </c>
+      <c r="L18" s="21" t="inlineStr">
+        <is>
+          <t>طب أسنان الأطفال 1 (رينا عابد)</t>
+        </is>
+      </c>
+      <c r="N18" s="24" t="inlineStr">
+        <is>
+          <t>طب الفم الوقائي المجتمعي (لم يحدد)</t>
+        </is>
+      </c>
+      <c r="P18" s="24" t="inlineStr">
+        <is>
+          <t>طب الفم الوقائي المجتمعي (لم يحدد)</t>
+        </is>
+      </c>
+      <c r="R18" s="24" t="inlineStr">
+        <is>
+          <t>طب الفم الوقائي المجتمعي (لم يحدد)</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7835,45 +7835,38 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>الجديد</t>
+          <t>القديم</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>24B1090</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr">
-        <is>
-          <t>جراحة الفم 1 (سفيان السعيد)</t>
-        </is>
-      </c>
-      <c r="J19" s="20" t="inlineStr">
-        <is>
-          <t>طب الأسنان الوقائي وعلم التسوس 2 (لم يحدد)</t>
-        </is>
-      </c>
-      <c r="L19" s="20" t="inlineStr">
-        <is>
-          <t>طب الأسنان الوقائي وعلم التسوس 2 (لم يحدد)</t>
-        </is>
-      </c>
-      <c r="N19" s="20" t="inlineStr">
-        <is>
-          <t>طب الأسنان الوقائي وعلم التسوس 2 (لم يحدد)</t>
-        </is>
-      </c>
-      <c r="P19" s="10" t="inlineStr">
-        <is>
-          <t>أشعة الوجه والفكين 1 (مجد برهم)</t>
-        </is>
-      </c>
+          <t>72090</t>
+        </is>
+      </c>
+      <c r="D19" s="25" t="inlineStr">
+        <is>
+          <t>طب الأسنان التحفظي 5 (عبد الرحمن مصطفى)</t>
+        </is>
+      </c>
+      <c r="F19" s="25" t="inlineStr">
+        <is>
+          <t>طب الأسنان التحفظي 5 (عبد الرحمن مصطفى)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7883,25 +7876,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>الجديد</t>
+          <t>رام الله</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>264020</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+          <t>140R403</t>
+        </is>
+      </c>
+      <c r="D20" s="26" t="inlineStr">
+        <is>
+          <t>مقدمة ومصطلحات طبية للأسنان روابي م (نبيل مسعد)</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" s="21" t="inlineStr">
-        <is>
-          <t>علم الأدوية والعلاج لطب الأسنان (قصي شاهد)</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -7909,11 +7901,13 @@
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ثلاث</t>
+          <t>اربعاء</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -7923,32 +7917,47 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>221060</t>
+          <t>261030</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>تقويم الأسنان 1 (دينا بكر)</t>
+        </is>
+      </c>
+      <c r="H21" s="12" t="inlineStr">
+        <is>
+          <t>جراحة الفم 1 (حسين هلال)</t>
+        </is>
+      </c>
+      <c r="J21" s="5" t="inlineStr">
+        <is>
+          <t>تقويم الأسنان 1 (دينا بكر)</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" s="21" t="inlineStr">
-        <is>
-          <t>علم الأدوية والعلاج لطب الأسنان (قصي شاهد)</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" s="18" t="inlineStr">
+        <is>
+          <t>طب الفم 1 (لم يحدد)</t>
+        </is>
+      </c>
+      <c r="P21" s="9" t="inlineStr">
+        <is>
+          <t>إستعاضة سنية متحركة 1 (عيسى بنورة)</t>
+        </is>
+      </c>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ثلاث</t>
+          <t>اربعاء</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -7958,32 +7967,50 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>260070</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+          <t>272150</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>تقويم الأسنان 1 (دينا بكر)</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
-      <c r="G22" s="21" t="inlineStr">
-        <is>
-          <t>علم الأدوية والعلاج لطب الأسنان (قصي شاهد)</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" s="14" t="inlineStr">
+        <is>
+          <t>أشعة الوجه والفكين 1 (مجد برهم)</t>
+        </is>
+      </c>
+      <c r="J22" s="11" t="inlineStr">
+        <is>
+          <t>تشخيص أمراض الفم (لم يحدد)</t>
+        </is>
+      </c>
+      <c r="L22" s="10" t="inlineStr">
+        <is>
+          <t>علم المواد السنية 1 (عفاف النجاجره)</t>
+        </is>
+      </c>
+      <c r="N22" s="10" t="inlineStr">
+        <is>
+          <t>علم المواد السنية 1 (عفاف النجاجره)</t>
+        </is>
+      </c>
+      <c r="P22" s="11" t="inlineStr">
+        <is>
+          <t>تشخيص أمراض الفم (لم يحدد)</t>
+        </is>
+      </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ثلاث</t>
+          <t>اربعاء</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -7993,36 +8020,47 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>509999</t>
-        </is>
-      </c>
-      <c r="D23" s="11" t="inlineStr">
-        <is>
-          <t>تشخيص أمراض الفم (لم يحدد)</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" s="15" t="inlineStr">
+          <t>10F1040</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" s="27" t="inlineStr">
+        <is>
+          <t>مداواة الأسنان اللبية 2 (اسامه عامودي)</t>
+        </is>
+      </c>
+      <c r="H23" s="27" t="inlineStr">
+        <is>
+          <t>مداواة الأسنان اللبية 2 (اسامه عامودي)</t>
+        </is>
+      </c>
+      <c r="J23" s="27" t="inlineStr">
+        <is>
+          <t>مداواة الأسنان اللبية 2 (اسامه عامودي)</t>
+        </is>
+      </c>
+      <c r="L23" s="12" t="inlineStr">
+        <is>
+          <t>جراحة الفم 1 (حسين هلال)</t>
+        </is>
+      </c>
+      <c r="N23" s="16" t="inlineStr">
         <is>
           <t>علم الأحياء الدقيقة الفموي (ذكريات بدرساوي)</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ثلاث</t>
+          <t>اربعاء</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -8032,7 +8070,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17B3030</t>
+          <t>260040</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -8041,27 +8079,25 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" s="15" t="inlineStr">
-        <is>
-          <t>علم الأحياء الدقيقة الفموي (ذكريات بدرساوي)</t>
-        </is>
-      </c>
-      <c r="N24" s="15" t="inlineStr">
-        <is>
-          <t>علم الأحياء الدقيقة الفموي (ذكريات بدرساوي)</t>
-        </is>
-      </c>
+      <c r="J24" s="7" t="inlineStr">
+        <is>
+          <t>علم التشريح والأجنة السني (لم يحدد)</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ثلاث</t>
+          <t>اربعاء</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -8071,7 +8107,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>29G0330</t>
+          <t>220120</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -8083,21 +8119,22 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" s="10" t="inlineStr">
-        <is>
-          <t>أشعة الوجه والفكين 1 (مجد برهم)</t>
+      <c r="M25" s="7" t="inlineStr">
+        <is>
+          <t>علم التشريح والأجنة السني (لم يحدد)</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ثلاث</t>
+          <t>اربعاء</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -8107,42 +8144,40 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10F1040</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" s="11" t="inlineStr">
-        <is>
-          <t>تشخيص أمراض الفم (لم يحدد)</t>
-        </is>
-      </c>
-      <c r="J26" s="27" t="inlineStr">
-        <is>
-          <t>علم الإطباق السني (ميس عوده)</t>
-        </is>
-      </c>
-      <c r="L26" s="7" t="inlineStr">
-        <is>
-          <t>جراحة الفم 1 (عمر خليل)</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" s="7" t="inlineStr">
-        <is>
-          <t>جراحة الفم 1 (عمر خليل)</t>
-        </is>
-      </c>
+          <t>24B1010</t>
+        </is>
+      </c>
+      <c r="D26" s="28" t="inlineStr">
+        <is>
+          <t>طب الأسنان التحفظي 1 (ابتهال بشتاوي)</t>
+        </is>
+      </c>
+      <c r="F26" s="28" t="inlineStr">
+        <is>
+          <t>طب الأسنان التحفظي 1 (ابتهال بشتاوي)</t>
+        </is>
+      </c>
+      <c r="H26" s="8" t="inlineStr">
+        <is>
+          <t>علم أمراض الفم والوجه والفكين (حسناء مكاوي)</t>
+        </is>
+      </c>
+      <c r="L26" s="8" t="inlineStr">
+        <is>
+          <t>علم أمراض الفم والوجه والفكين (حسناء مكاوي)</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ثلاث</t>
+          <t>اربعاء</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -8152,33 +8187,50 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>260040</t>
+          <t>24B1090</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" s="19" t="inlineStr">
-        <is>
-          <t>علم امراض اللثة 1 (احمد دوايمه)</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
+      <c r="F27" s="28" t="inlineStr">
+        <is>
+          <t>طب الأسنان التحفظي 1 (عبد الرحمن مصطفى)</t>
+        </is>
+      </c>
+      <c r="H27" s="28" t="inlineStr">
+        <is>
+          <t>طب الأسنان التحفظي 1 (عبد الرحمن مصطفى)</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="inlineStr">
+        <is>
+          <t>إستعاضة سنية متحركة 1 (عيسى بنورة)</t>
+        </is>
+      </c>
+      <c r="L27" s="13" t="inlineStr">
+        <is>
+          <t>طب الأسنان الوقائي وعلم التسوس 2 (لم يحدد)</t>
+        </is>
+      </c>
+      <c r="N27" s="13" t="inlineStr">
+        <is>
+          <t>طب الأسنان الوقائي وعلم التسوس 2 (لم يحدد)</t>
+        </is>
+      </c>
+      <c r="P27" s="14" t="inlineStr">
+        <is>
+          <t>أشعة الوجه والفكين 1 (مجد برهم)</t>
+        </is>
+      </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ثلاث</t>
+          <t>اربعاء</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -8188,7 +8240,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>261020</t>
+          <t>509999</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -8197,24 +8249,25 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" s="19" t="inlineStr">
-        <is>
-          <t>علم امراض اللثة 1 (احمد دوايمه)</t>
-        </is>
-      </c>
+      <c r="J28" s="18" t="inlineStr">
+        <is>
+          <t>طب الفم 1 (لم يحدد)</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ثلاث</t>
+          <t>اربعاء</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -8224,7 +8277,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>260030</t>
+          <t>260070</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -8235,22 +8288,23 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" s="8" t="inlineStr">
-        <is>
-          <t>طب الفم 1 (لم يحدد)</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" s="15" t="inlineStr">
+        <is>
+          <t>علم الأدوية والعلاج لطب الأسنان (قصي شاهد)</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ثلاث</t>
+          <t>اربعاء</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -8260,7 +8314,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>220110</t>
+          <t>29G0330</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -8273,122 +8327,101 @@
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" s="8" t="inlineStr">
-        <is>
-          <t>طب الفم 1 (لم يحدد)</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" s="16" t="inlineStr">
+        <is>
+          <t>علم الأحياء الدقيقة الفموي (ذكريات بدرساوي)</t>
+        </is>
+      </c>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ثلاث</t>
+          <t>اربعاء</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>القديم</t>
+          <t>الجديد</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>72100</t>
-        </is>
-      </c>
-      <c r="D31" s="23" t="inlineStr">
-        <is>
-          <t>جراحة الفم والأسنان والفكين 1 (عمر خليل)</t>
-        </is>
-      </c>
-      <c r="F31" s="22" t="inlineStr">
-        <is>
-          <t>طب الأسنان التحفظي 5 (عبد الرحمن مصطفى)</t>
-        </is>
-      </c>
+          <t>220110</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" s="23" t="inlineStr">
-        <is>
-          <t>جراحة الفم والأسنان والفكين 1 (عمر خليل)</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" s="25" t="inlineStr">
-        <is>
-          <t>طب أسنان الأطفال 1 (رينا عابد)</t>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" s="6" t="inlineStr">
+        <is>
+          <t>علم امراض اللثة 1 (احمد دوايمه)</t>
+        </is>
+      </c>
+      <c r="N31" s="14" t="inlineStr">
+        <is>
+          <t>أشعة الوجه والفكين 1 (مجد برهم)</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
-      <c r="R31" s="23" t="inlineStr">
-        <is>
-          <t>جراحة الفم والأسنان والفكين 1 (عمر خليل)</t>
-        </is>
-      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ثلاث</t>
+          <t>اربعاء</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>القديم</t>
+          <t>الجديد</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>72110</t>
-        </is>
-      </c>
-      <c r="D32" s="28" t="inlineStr">
-        <is>
-          <t>مداواة الأسنان اللبية 4 (اسامه عامودي)</t>
-        </is>
-      </c>
+          <t>29G0320</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" s="29" t="inlineStr">
-        <is>
-          <t>استعاضة سنية متحركة 4 (ميس عوده)</t>
-        </is>
-      </c>
-      <c r="J32" s="26" t="inlineStr">
-        <is>
-          <t>علم أمراض اللثة 3 (فادي هرش)</t>
-        </is>
-      </c>
-      <c r="L32" s="25" t="inlineStr">
-        <is>
-          <t>طب أسنان الأطفال 1 (رينا عابد)</t>
-        </is>
-      </c>
-      <c r="N32" s="24" t="inlineStr">
-        <is>
-          <t>طب الفم الوقائي المجتمعي (لم يحدد)</t>
-        </is>
-      </c>
-      <c r="P32" s="24" t="inlineStr">
-        <is>
-          <t>طب الفم الوقائي المجتمعي (لم يحدد)</t>
-        </is>
-      </c>
-      <c r="R32" s="24" t="inlineStr">
-        <is>
-          <t>طب الفم الوقائي المجتمعي (لم يحدد)</t>
-        </is>
-      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" s="6" t="inlineStr">
+        <is>
+          <t>علم امراض اللثة 1 (احمد دوايمه)</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>احد</t>
+          <t>اربعاء</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -8398,114 +8431,144 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>261030</t>
+          <t>261020</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" s="30" t="inlineStr">
-        <is>
-          <t>تقويم الأسنان 2 (عبير هموز)</t>
-        </is>
-      </c>
-      <c r="J33" s="27" t="inlineStr">
-        <is>
-          <t>علم الإطباق السني (ميس عوده)</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" s="18" t="inlineStr">
+        <is>
+          <t>طب الفم 1 (لم يحدد)</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>احد</t>
+          <t>اربعاء</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>الجديد</t>
+          <t>القديم</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>272150</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+          <t>72100</t>
+        </is>
+      </c>
+      <c r="D34" s="20" t="inlineStr">
+        <is>
+          <t>مداواة الأسنان اللبية 4 (اسامه عامودي)</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" s="13" t="inlineStr">
-        <is>
-          <t>مداواة الأسنان اللبية 2 (اسامه عامودي)</t>
-        </is>
-      </c>
-      <c r="J34" s="13" t="inlineStr">
-        <is>
-          <t>مداواة الأسنان اللبية 2 (اسامه عامودي)</t>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" s="19" t="inlineStr">
+        <is>
+          <t>جراحة الفم والأسنان والفكين 1 (حسين هلال)</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
+      <c r="N34" s="24" t="inlineStr">
+        <is>
+          <t>طب الفم الوقائي المجتمعي (لم يحدد)</t>
+        </is>
+      </c>
+      <c r="P34" s="21" t="inlineStr">
+        <is>
+          <t>طب أسنان الأطفال 1 (غالب فادري)</t>
+        </is>
+      </c>
+      <c r="R34" s="19" t="inlineStr">
+        <is>
+          <t>جراحة الفم والأسنان والفكين 1 (حسين هلال)</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>احد</t>
+          <t>اربعاء</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>الجديد</t>
+          <t>القديم</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17B1110</t>
-        </is>
-      </c>
-      <c r="D35" s="31" t="inlineStr">
-        <is>
-          <t>طب الأسنان التحفظي 3 (محمد عامر)</t>
-        </is>
-      </c>
-      <c r="F35" s="31" t="inlineStr">
-        <is>
-          <t>طب الأسنان التحفظي 3 (محمد عامر)</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
+          <t>72110</t>
+        </is>
+      </c>
+      <c r="D35" s="29" t="inlineStr">
+        <is>
+          <t>أخلاقيات المهنة لطب الأسنان (نبيل مسعد)</t>
+        </is>
+      </c>
+      <c r="F35" s="29" t="inlineStr">
+        <is>
+          <t>أخلاقيات المهنة لطب الأسنان (نبيل مسعد)</t>
+        </is>
+      </c>
+      <c r="H35" s="29" t="inlineStr">
+        <is>
+          <t>أخلاقيات المهنة لطب الأسنان (نبيل مسعد)</t>
+        </is>
+      </c>
+      <c r="J35" s="23" t="inlineStr">
+        <is>
+          <t>علم أمراض اللثة 3 (لم يحدد)</t>
+        </is>
+      </c>
+      <c r="L35" s="21" t="inlineStr">
+        <is>
+          <t>طب أسنان الأطفال 1 (غالب فادري)</t>
+        </is>
+      </c>
+      <c r="N35" s="21" t="inlineStr">
+        <is>
+          <t>طب أسنان الأطفال 1 (غالب فادري)</t>
+        </is>
+      </c>
+      <c r="P35" s="23" t="inlineStr">
+        <is>
+          <t>علم أمراض اللثة 3 (لم يحدد)</t>
+        </is>
+      </c>
+      <c r="R35" s="24" t="inlineStr">
+        <is>
+          <t>طب الفم الوقائي المجتمعي (لم يحدد)</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>احد</t>
+          <t>اربعاء</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -8515,17 +8578,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>72100</t>
-        </is>
-      </c>
-      <c r="D36" s="28" t="inlineStr">
-        <is>
-          <t>مداواة الأسنان اللبية 4 (اسامه عامودي)</t>
-        </is>
-      </c>
-      <c r="F36" s="28" t="inlineStr">
-        <is>
-          <t>مداواة الأسنان اللبية 4 (اسامه عامودي)</t>
+          <t>72090</t>
+        </is>
+      </c>
+      <c r="D36" s="25" t="inlineStr">
+        <is>
+          <t>طب الأسنان التحفظي 5 (حسن حشاش)</t>
+        </is>
+      </c>
+      <c r="F36" s="25" t="inlineStr">
+        <is>
+          <t>طب الأسنان التحفظي 5 (حسن حشاش)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -8540,6 +8603,8 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8549,79 +8614,69 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>القديم</t>
+          <t>الجديد</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>72110</t>
-        </is>
-      </c>
-      <c r="D37" s="29" t="inlineStr">
-        <is>
-          <t>استعاضة سنية متحركة 4 (عفاف النجاجره)</t>
-        </is>
-      </c>
-      <c r="F37" s="29" t="inlineStr">
-        <is>
-          <t>استعاضة سنية متحركة 4 (عفاف النجاجره)</t>
-        </is>
-      </c>
-      <c r="H37" s="29" t="inlineStr">
-        <is>
-          <t>استعاضة سنية متحركة 4 (ميس عوده)</t>
-        </is>
-      </c>
-      <c r="J37" s="26" t="inlineStr">
-        <is>
-          <t>علم أمراض اللثة 3 (فادي هرش)</t>
+          <t>261030</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" s="30" t="inlineStr">
+        <is>
+          <t>تقويم الأسنان 2 (عبير هموز)</t>
+        </is>
+      </c>
+      <c r="J37" s="17" t="inlineStr">
+        <is>
+          <t>علم الإطباق السني (ميس عوده)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
-      <c r="P37" s="26" t="inlineStr">
-        <is>
-          <t>علم أمراض اللثة 3 (لم يحدد)</t>
-        </is>
-      </c>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>اثنين</t>
+          <t>احد</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>القديم</t>
+          <t>الجديد</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>72110</t>
-        </is>
-      </c>
-      <c r="D38" s="14" t="inlineStr">
-        <is>
-          <t>أخلاقيات المهنة لطب الأسنان (نبيل مسعد)</t>
-        </is>
-      </c>
-      <c r="F38" s="14" t="inlineStr">
-        <is>
-          <t>أخلاقيات المهنة لطب الأسنان (نبيل مسعد)</t>
-        </is>
-      </c>
-      <c r="H38" s="14" t="inlineStr">
-        <is>
-          <t>أخلاقيات المهنة لطب الأسنان (نبيل مسعد)</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+          <t>272150</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" s="27" t="inlineStr">
+        <is>
+          <t>مداواة الأسنان اللبية 2 (اسامه عامودي)</t>
+        </is>
+      </c>
+      <c r="J38" s="27" t="inlineStr">
+        <is>
+          <t>مداواة الأسنان اللبية 2 (اسامه عامودي)</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
@@ -8630,11 +8685,13 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>اثنين</t>
+          <t>احد</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -8649,11 +8706,14 @@
       </c>
       <c r="D39" s="31" t="inlineStr">
         <is>
-          <t>طب الأسنان التحفظي 3 (ابتهال بشتاوي)</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+          <t>طب الأسنان التحفظي 3 (محمد عامر)</t>
+        </is>
+      </c>
+      <c r="F39" s="31" t="inlineStr">
+        <is>
+          <t>طب الأسنان التحفظي 3 (محمد عامر)</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -8666,40 +8726,39 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>اثنين</t>
+          <t>احد</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>الجديد</t>
+          <t>القديم</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>24B1010</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" s="31" t="inlineStr">
-        <is>
-          <t>طب الأسنان التحفظي 3 (ابتهال بشتاوي)</t>
-        </is>
-      </c>
-      <c r="H40" s="27" t="inlineStr">
-        <is>
-          <t>علم الإطباق السني (نجيب ابو الرب)</t>
-        </is>
-      </c>
-      <c r="J40" s="27" t="inlineStr">
-        <is>
-          <t>علم الإطباق السني (نجيب ابو الرب)</t>
-        </is>
-      </c>
+          <t>72100</t>
+        </is>
+      </c>
+      <c r="D40" s="20" t="inlineStr">
+        <is>
+          <t>مداواة الأسنان اللبية 4 (اسامه عامودي)</t>
+        </is>
+      </c>
+      <c r="F40" s="20" t="inlineStr">
+        <is>
+          <t>مداواة الأسنان اللبية 4 (اسامه عامودي)</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
@@ -8708,34 +8767,45 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>اثنين</t>
+          <t>احد</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>الجديد</t>
+          <t>القديم</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>272150</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" s="27" t="inlineStr">
-        <is>
-          <t>علم الإطباق السني (نجيب ابو الرب)</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+          <t>72110</t>
+        </is>
+      </c>
+      <c r="D41" s="22" t="inlineStr">
+        <is>
+          <t>استعاضة سنية متحركة 4 (عفاف النجاجره)</t>
+        </is>
+      </c>
+      <c r="F41" s="22" t="inlineStr">
+        <is>
+          <t>استعاضة سنية متحركة 4 (عفاف النجاجره)</t>
+        </is>
+      </c>
+      <c r="H41" s="22" t="inlineStr">
+        <is>
+          <t>استعاضة سنية متحركة 4 (ميس عوده)</t>
+        </is>
+      </c>
+      <c r="J41" s="23" t="inlineStr">
+        <is>
+          <t>علم أمراض اللثة 3 (فادي هرش)</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
@@ -8744,6 +8814,11 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
+      <c r="T41" s="23" t="inlineStr">
+        <is>
+          <t>علم أمراض اللثة 3 (فادي هرش)</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8753,21 +8828,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>الجديد</t>
+          <t>القديم</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>509999</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
+          <t>72110</t>
+        </is>
+      </c>
+      <c r="D42" s="29" t="inlineStr">
+        <is>
+          <t>أخلاقيات المهنة لطب الأسنان (نبيل مسعد)</t>
+        </is>
+      </c>
+      <c r="F42" s="29" t="inlineStr">
+        <is>
+          <t>أخلاقيات المهنة لطب الأسنان (نبيل مسعد)</t>
+        </is>
+      </c>
       <c r="H42" s="29" t="inlineStr">
         <is>
-          <t>استعاضة سنية متحركة 4 (ساري دار ديك)</t>
+          <t>أخلاقيات المهنة لطب الأسنان (نبيل مسعد)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -8780,130 +8861,293 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>اثنين</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>الجديد</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>17B1110</t>
+        </is>
+      </c>
+      <c r="D43" s="31" t="inlineStr">
+        <is>
+          <t>طب الأسنان التحفظي 3 (ابتهال بشتاوي)</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>اثنين</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>الجديد</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>24B1010</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" s="31" t="inlineStr">
+        <is>
+          <t>طب الأسنان التحفظي 3 (ابتهال بشتاوي)</t>
+        </is>
+      </c>
+      <c r="H44" s="17" t="inlineStr">
+        <is>
+          <t>علم الإطباق السني (نجيب ابو الرب)</t>
+        </is>
+      </c>
+      <c r="J44" s="17" t="inlineStr">
+        <is>
+          <t>علم الإطباق السني (نجيب ابو الرب)</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>اثنين</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>الجديد</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>272150</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" s="17" t="inlineStr">
+        <is>
+          <t>علم الإطباق السني (نجيب ابو الرب)</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>اثنين</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>الجديد</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>24B1090</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" s="22" t="inlineStr">
+        <is>
+          <t>استعاضة سنية متحركة 4 (ساري دار ديك)</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="121">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
+  <mergeCells count="124">
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="D22:E22"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="D20:G20"/>
     <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="L14:M14"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L29:M29"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="R18:S18"/>
     <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="M2:O2"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
     <mergeCell ref="J34:K34"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J22:K22"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="L22:M22"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="F44:G44"/>
     <mergeCell ref="N4:O4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="H38:I38"/>
-    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="J38:K38"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
     <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L33:M33"/>
     <mergeCell ref="N18:O18"/>
     <mergeCell ref="F36:G36"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L35:M35"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="L26:O26"/>
     <mergeCell ref="H42:I42"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="D3:G3"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="J14:K14"/>
     <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="H44:I44"/>
     <mergeCell ref="F40:G40"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="H46:I46"/>
     <mergeCell ref="L15:M15"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="F26:G26"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="F35:G35"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="J41:K41"/>
     <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="D42:E42"/>
     <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H33:I33"/>
     <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J17:K17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
